--- a/v4.1/meta.xlsx
+++ b/v4.1/meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecbjb\Desktop\WORK\CODE\Python\WAO\WAO_NC\v4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F7DAB1-6709-44B0-9D26-942A7FF0993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E064B-5A1C-4D38-9BAF-CB3C72FF25F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1944" yWindow="600" windowWidth="17280" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -489,9 +489,6 @@
     <t>CF-1.6, NCAS-AMF-2.0.0</t>
   </si>
   <si>
-    <t>https://github.com/ncasuk/AMF_CVs/releases/tag/v2.0.0</t>
-  </si>
-  <si>
     <t>Not known</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>https://github.com/barbarabrooks/WAO/tree/master/v4.1</t>
+  </si>
+  <si>
+    <t>https://github.com/ncasuk/AMF_CVs/tree/v2.0.0rc</t>
   </si>
 </sst>
 </file>
@@ -1193,30 +1193,30 @@
   <dimension ref="A1:AO910"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29" style="52" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" style="52" customWidth="1"/>
-    <col min="5" max="5" width="29.36328125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="28.90625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="54.6328125" style="52" customWidth="1"/>
-    <col min="8" max="10" width="28.54296875" style="52" customWidth="1"/>
-    <col min="11" max="11" width="32.453125" style="52" customWidth="1"/>
-    <col min="12" max="12" width="41.81640625" style="52" customWidth="1"/>
-    <col min="13" max="25" width="28.54296875" style="52" customWidth="1"/>
-    <col min="26" max="26" width="33.08984375" style="52" customWidth="1"/>
-    <col min="27" max="60" width="28.54296875" style="52" customWidth="1"/>
-    <col min="61" max="16384" width="14.453125" style="52"/>
+    <col min="3" max="3" width="54.6640625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="52" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" style="52" customWidth="1"/>
+    <col min="8" max="10" width="28.5546875" style="52" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="41.77734375" style="52" customWidth="1"/>
+    <col min="13" max="25" width="28.5546875" style="52" customWidth="1"/>
+    <col min="26" max="26" width="33.109375" style="52" customWidth="1"/>
+    <col min="27" max="60" width="28.5546875" style="52" customWidth="1"/>
+    <col min="61" max="16384" width="14.44140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>30</v>
       </c>
@@ -1358,13 +1358,13 @@
         <v>29</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>102</v>
@@ -1379,10 +1379,10 @@
         <v>95</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O2" s="63" t="s">
         <v>98</v>
@@ -1448,7 +1448,7 @@
         <v>115</v>
       </c>
       <c r="AM2" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN2" s="52" t="s">
         <v>116</v>
@@ -1457,7 +1457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>46</v>
       </c>
@@ -1474,13 +1474,13 @@
         <v>127</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>102</v>
@@ -1495,10 +1495,10 @@
         <v>95</v>
       </c>
       <c r="M3" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N3" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O3" s="63" t="s">
         <v>98</v>
@@ -1564,7 +1564,7 @@
         <v>115</v>
       </c>
       <c r="AM3" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN3" s="44" t="s">
         <v>129</v>
@@ -1573,7 +1573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>39</v>
       </c>
@@ -1593,10 +1593,10 @@
         <v>38</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" s="62" t="s">
         <v>102</v>
@@ -1611,10 +1611,10 @@
         <v>95</v>
       </c>
       <c r="M4" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N4" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O4" s="63" t="s">
         <v>98</v>
@@ -1680,7 +1680,7 @@
         <v>115</v>
       </c>
       <c r="AM4" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN4" s="64" t="s">
         <v>126</v>
@@ -1689,7 +1689,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>52</v>
       </c>
@@ -1706,13 +1706,13 @@
         <v>33</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>102</v>
@@ -1727,10 +1727,10 @@
         <v>95</v>
       </c>
       <c r="M5" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O5" s="63" t="s">
         <v>98</v>
@@ -1796,7 +1796,7 @@
         <v>115</v>
       </c>
       <c r="AM5" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN5" s="64" t="s">
         <v>134</v>
@@ -1805,7 +1805,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>34</v>
       </c>
@@ -1822,13 +1822,13 @@
         <v>33</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="62" t="s">
         <v>102</v>
@@ -1843,10 +1843,10 @@
         <v>95</v>
       </c>
       <c r="M6" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N6" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O6" s="63" t="s">
         <v>98</v>
@@ -1912,7 +1912,7 @@
         <v>115</v>
       </c>
       <c r="AM6" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN6" s="44" t="s">
         <v>120</v>
@@ -1921,7 +1921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>50</v>
       </c>
@@ -1938,13 +1938,13 @@
         <v>49</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7" s="62" t="s">
         <v>102</v>
@@ -1959,10 +1959,10 @@
         <v>95</v>
       </c>
       <c r="M7" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N7" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O7" s="63" t="s">
         <v>98</v>
@@ -2028,7 +2028,7 @@
         <v>115</v>
       </c>
       <c r="AM7" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN7" s="64" t="s">
         <v>129</v>
@@ -2037,7 +2037,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>43</v>
       </c>
@@ -2054,13 +2054,13 @@
         <v>42</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>102</v>
@@ -2075,10 +2075,10 @@
         <v>95</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N8" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O8" s="63" t="s">
         <v>98</v>
@@ -2144,7 +2144,7 @@
         <v>115</v>
       </c>
       <c r="AM8" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN8" s="64" t="s">
         <v>132</v>
@@ -2153,7 +2153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>13</v>
       </c>
@@ -2170,13 +2170,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" s="62" t="s">
         <v>102</v>
@@ -2191,10 +2191,10 @@
         <v>95</v>
       </c>
       <c r="M9" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N9" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O9" s="63" t="s">
         <v>98</v>
@@ -2259,8 +2259,8 @@
       <c r="AL9" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AM9" s="62" t="s">
-        <v>153</v>
+      <c r="AM9" s="59" t="s">
+        <v>157</v>
       </c>
       <c r="AN9" s="64" t="s">
         <v>136</v>
@@ -2269,7 +2269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>25</v>
       </c>
@@ -2286,13 +2286,13 @@
         <v>24</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="62" t="s">
         <v>102</v>
@@ -2307,10 +2307,10 @@
         <v>95</v>
       </c>
       <c r="M10" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O10" s="63" t="s">
         <v>98</v>
@@ -2376,7 +2376,7 @@
         <v>115</v>
       </c>
       <c r="AM10" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN10" s="64" t="s">
         <v>136</v>
@@ -2385,7 +2385,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>16</v>
       </c>
@@ -2402,13 +2402,13 @@
         <v>15</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="62" t="s">
         <v>102</v>
@@ -2423,10 +2423,10 @@
         <v>95</v>
       </c>
       <c r="M11" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N11" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O11" s="63" t="s">
         <v>98</v>
@@ -2492,7 +2492,7 @@
         <v>115</v>
       </c>
       <c r="AM11" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN11" s="64" t="s">
         <v>136</v>
@@ -2501,7 +2501,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>2</v>
       </c>
@@ -2518,13 +2518,13 @@
         <v>98</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="62" t="s">
         <v>102</v>
@@ -2539,10 +2539,10 @@
         <v>95</v>
       </c>
       <c r="M12" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N12" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O12" s="63" t="s">
         <v>98</v>
@@ -2608,7 +2608,7 @@
         <v>115</v>
       </c>
       <c r="AM12" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN12" s="64" t="s">
         <v>144</v>
@@ -2617,7 +2617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>5</v>
       </c>
@@ -2634,13 +2634,13 @@
         <v>4</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" s="62" t="s">
         <v>102</v>
@@ -2655,10 +2655,10 @@
         <v>95</v>
       </c>
       <c r="M13" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N13" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O13" s="63" t="s">
         <v>98</v>
@@ -2724,7 +2724,7 @@
         <v>115</v>
       </c>
       <c r="AM13" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN13" s="64" t="s">
         <v>144</v>
@@ -2733,7 +2733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>9</v>
       </c>
@@ -2753,10 +2753,10 @@
         <v>187</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" s="62" t="s">
         <v>102</v>
@@ -2771,10 +2771,10 @@
         <v>95</v>
       </c>
       <c r="M14" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N14" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O14" s="63" t="s">
         <v>98</v>
@@ -2840,7 +2840,7 @@
         <v>115</v>
       </c>
       <c r="AM14" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN14" s="64" t="s">
         <v>136</v>
@@ -2849,7 +2849,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>19</v>
       </c>
@@ -2869,10 +2869,10 @@
         <v>9342</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" s="62" t="s">
         <v>102</v>
@@ -2887,10 +2887,10 @@
         <v>95</v>
       </c>
       <c r="M15" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N15" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O15" s="63" t="s">
         <v>98</v>
@@ -2956,7 +2956,7 @@
         <v>115</v>
       </c>
       <c r="AM15" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN15" s="64" t="s">
         <v>144</v>
@@ -2965,7 +2965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>22</v>
       </c>
@@ -2982,13 +2982,13 @@
         <v>98</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" s="62" t="s">
         <v>102</v>
@@ -3003,10 +3003,10 @@
         <v>95</v>
       </c>
       <c r="M16" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N16" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O16" s="63" t="s">
         <v>98</v>
@@ -3072,7 +3072,7 @@
         <v>115</v>
       </c>
       <c r="AM16" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN16" s="64" t="s">
         <v>144</v>
@@ -3081,7 +3081,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
@@ -3098,13 +3098,13 @@
         <v>26</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" s="62" t="s">
         <v>102</v>
@@ -3119,10 +3119,10 @@
         <v>95</v>
       </c>
       <c r="M17" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N17" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O17" s="63" t="s">
         <v>98</v>
@@ -3188,16 +3188,16 @@
         <v>115</v>
       </c>
       <c r="AM17" s="62" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AN17" s="65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AO17" s="50" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -3206,7 +3206,7 @@
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
     </row>
-    <row r="19" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="48"/>
@@ -3215,7 +3215,7 @@
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
     </row>
-    <row r="20" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -3224,7 +3224,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="48"/>
@@ -3233,7 +3233,7 @@
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
     </row>
-    <row r="22" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
@@ -3242,7 +3242,7 @@
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
     </row>
-    <row r="23" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
       <c r="C23" s="48"/>
@@ -3251,7 +3251,7 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
     </row>
-    <row r="24" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
@@ -3260,7 +3260,7 @@
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
     </row>
-    <row r="25" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="C25" s="48"/>
@@ -3269,7 +3269,7 @@
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
     </row>
-    <row r="26" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -3278,7 +3278,7 @@
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
     </row>
-    <row r="27" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
@@ -3287,7 +3287,7 @@
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
     </row>
-    <row r="28" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
       <c r="C28" s="48"/>
@@ -3296,7 +3296,7 @@
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
     </row>
-    <row r="29" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="48"/>
@@ -3305,7 +3305,7 @@
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
     </row>
-    <row r="30" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="48"/>
@@ -3314,7 +3314,7 @@
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
     </row>
-    <row r="31" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="49"/>
       <c r="C31" s="48"/>
@@ -3323,7 +3323,7 @@
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
     </row>
-    <row r="32" spans="1:41" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="49"/>
       <c r="C32" s="48"/>
@@ -3332,7 +3332,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
     </row>
-    <row r="33" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="49"/>
       <c r="C33" s="48"/>
@@ -3341,7 +3341,7 @@
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
     </row>
-    <row r="34" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
       <c r="B34" s="49"/>
       <c r="C34" s="48"/>
@@ -3350,7 +3350,7 @@
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
       <c r="C35" s="48"/>
@@ -3359,7 +3359,7 @@
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="48"/>
@@ -3368,7 +3368,7 @@
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="48"/>
@@ -3377,7 +3377,7 @@
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="49"/>
       <c r="B38" s="49"/>
       <c r="C38" s="48"/>
@@ -3386,7 +3386,7 @@
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
       <c r="B39" s="49"/>
       <c r="C39" s="48"/>
@@ -3395,7 +3395,7 @@
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
       <c r="B40" s="49"/>
       <c r="C40" s="48"/>
@@ -3404,7 +3404,7 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
       <c r="B41" s="49"/>
       <c r="C41" s="48"/>
@@ -3413,7 +3413,7 @@
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="B42" s="49"/>
       <c r="C42" s="48"/>
@@ -3422,7 +3422,7 @@
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="B43" s="49"/>
       <c r="C43" s="48"/>
@@ -3431,7 +3431,7 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
     </row>
-    <row r="44" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="C44" s="48"/>
@@ -3440,7 +3440,7 @@
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="48"/>
@@ -3449,7 +3449,7 @@
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
       <c r="B46" s="49"/>
       <c r="C46" s="48"/>
@@ -3458,7 +3458,7 @@
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
       <c r="B47" s="49"/>
       <c r="C47" s="48"/>
@@ -3467,7 +3467,7 @@
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
     </row>
-    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -3476,7 +3476,7 @@
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
     </row>
-    <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
       <c r="B49" s="49"/>
       <c r="C49" s="48"/>
@@ -3485,7 +3485,7 @@
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
     </row>
-    <row r="50" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
       <c r="B50" s="49"/>
       <c r="C50" s="48"/>
@@ -3494,7 +3494,7 @@
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="49"/>
       <c r="B51" s="49"/>
       <c r="C51" s="48"/>
@@ -3503,7 +3503,7 @@
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="49"/>
       <c r="B52" s="49"/>
       <c r="C52" s="48"/>
@@ -3512,7 +3512,7 @@
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
     </row>
-    <row r="53" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
       <c r="B53" s="49"/>
       <c r="C53" s="48"/>
@@ -3521,7 +3521,7 @@
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
-    <row r="54" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="49"/>
       <c r="B54" s="49"/>
       <c r="C54" s="48"/>
@@ -3530,7 +3530,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
       <c r="B55" s="49"/>
       <c r="C55" s="48"/>
@@ -3539,7 +3539,7 @@
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
     </row>
-    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="49"/>
       <c r="B56" s="49"/>
       <c r="C56" s="48"/>
@@ -3548,7 +3548,7 @@
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
     </row>
-    <row r="57" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="49"/>
       <c r="B57" s="49"/>
       <c r="C57" s="48"/>
@@ -3557,7 +3557,7 @@
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
     </row>
-    <row r="58" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="49"/>
       <c r="B58" s="49"/>
       <c r="C58" s="48"/>
@@ -3566,7 +3566,7 @@
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
     </row>
-    <row r="59" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="49"/>
       <c r="B59" s="49"/>
       <c r="C59" s="48"/>
@@ -3575,7 +3575,7 @@
       <c r="F59" s="48"/>
       <c r="G59" s="48"/>
     </row>
-    <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
       <c r="B60" s="49"/>
       <c r="C60" s="48"/>
@@ -3584,7 +3584,7 @@
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
     </row>
-    <row r="61" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="49"/>
       <c r="B61" s="49"/>
       <c r="C61" s="48"/>
@@ -3593,7 +3593,7 @@
       <c r="F61" s="48"/>
       <c r="G61" s="48"/>
     </row>
-    <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="49"/>
       <c r="B62" s="49"/>
       <c r="C62" s="48"/>
@@ -3602,7 +3602,7 @@
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
     </row>
-    <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="C63" s="48"/>
@@ -3611,7 +3611,7 @@
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
     </row>
-    <row r="64" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="49"/>
       <c r="B64" s="49"/>
       <c r="C64" s="48"/>
@@ -3620,7 +3620,7 @@
       <c r="F64" s="48"/>
       <c r="G64" s="48"/>
     </row>
-    <row r="65" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="49"/>
       <c r="B65" s="49"/>
       <c r="C65" s="48"/>
@@ -3629,7 +3629,7 @@
       <c r="F65" s="48"/>
       <c r="G65" s="48"/>
     </row>
-    <row r="66" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
       <c r="B66" s="49"/>
       <c r="C66" s="48"/>
@@ -3638,7 +3638,7 @@
       <c r="F66" s="48"/>
       <c r="G66" s="48"/>
     </row>
-    <row r="67" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
       <c r="B67" s="49"/>
       <c r="C67" s="48"/>
@@ -3647,7 +3647,7 @@
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
     </row>
-    <row r="68" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="49"/>
       <c r="B68" s="49"/>
       <c r="C68" s="48"/>
@@ -3656,7 +3656,7 @@
       <c r="F68" s="48"/>
       <c r="G68" s="48"/>
     </row>
-    <row r="69" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="49"/>
       <c r="B69" s="49"/>
       <c r="C69" s="48"/>
@@ -3665,7 +3665,7 @@
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
     </row>
-    <row r="70" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
       <c r="B70" s="49"/>
       <c r="C70" s="48"/>
@@ -3674,7 +3674,7 @@
       <c r="F70" s="48"/>
       <c r="G70" s="48"/>
     </row>
-    <row r="71" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="49"/>
       <c r="B71" s="49"/>
       <c r="C71" s="48"/>
@@ -3683,7 +3683,7 @@
       <c r="F71" s="48"/>
       <c r="G71" s="48"/>
     </row>
-    <row r="72" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="49"/>
       <c r="B72" s="49"/>
       <c r="C72" s="48"/>
@@ -3692,7 +3692,7 @@
       <c r="F72" s="48"/>
       <c r="G72" s="48"/>
     </row>
-    <row r="73" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="49"/>
       <c r="B73" s="49"/>
       <c r="C73" s="48"/>
@@ -3701,7 +3701,7 @@
       <c r="F73" s="48"/>
       <c r="G73" s="48"/>
     </row>
-    <row r="74" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
       <c r="B74" s="49"/>
       <c r="C74" s="48"/>
@@ -3710,7 +3710,7 @@
       <c r="F74" s="48"/>
       <c r="G74" s="48"/>
     </row>
-    <row r="75" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
       <c r="B75" s="49"/>
       <c r="C75" s="48"/>
@@ -3719,7 +3719,7 @@
       <c r="F75" s="48"/>
       <c r="G75" s="48"/>
     </row>
-    <row r="76" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="49"/>
       <c r="B76" s="49"/>
       <c r="C76" s="48"/>
@@ -3728,7 +3728,7 @@
       <c r="F76" s="48"/>
       <c r="G76" s="48"/>
     </row>
-    <row r="77" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="49"/>
       <c r="B77" s="49"/>
       <c r="C77" s="48"/>
@@ -3737,7 +3737,7 @@
       <c r="F77" s="48"/>
       <c r="G77" s="48"/>
     </row>
-    <row r="78" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="49"/>
       <c r="B78" s="49"/>
       <c r="C78" s="48"/>
@@ -3746,7 +3746,7 @@
       <c r="F78" s="48"/>
       <c r="G78" s="48"/>
     </row>
-    <row r="79" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="49"/>
       <c r="B79" s="49"/>
       <c r="C79" s="48"/>
@@ -3755,7 +3755,7 @@
       <c r="F79" s="48"/>
       <c r="G79" s="48"/>
     </row>
-    <row r="80" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
       <c r="B80" s="49"/>
       <c r="C80" s="48"/>
@@ -3764,7 +3764,7 @@
       <c r="F80" s="48"/>
       <c r="G80" s="48"/>
     </row>
-    <row r="81" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>
       <c r="B81" s="49"/>
       <c r="C81" s="48"/>
@@ -3773,7 +3773,7 @@
       <c r="F81" s="48"/>
       <c r="G81" s="48"/>
     </row>
-    <row r="82" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="49"/>
       <c r="B82" s="49"/>
       <c r="C82" s="48"/>
@@ -3782,7 +3782,7 @@
       <c r="F82" s="48"/>
       <c r="G82" s="48"/>
     </row>
-    <row r="83" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="49"/>
       <c r="B83" s="49"/>
       <c r="C83" s="48"/>
@@ -3791,7 +3791,7 @@
       <c r="F83" s="48"/>
       <c r="G83" s="48"/>
     </row>
-    <row r="84" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="49"/>
       <c r="B84" s="49"/>
       <c r="C84" s="48"/>
@@ -3800,7 +3800,7 @@
       <c r="F84" s="48"/>
       <c r="G84" s="48"/>
     </row>
-    <row r="85" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="49"/>
       <c r="B85" s="49"/>
       <c r="C85" s="48"/>
@@ -3809,7 +3809,7 @@
       <c r="F85" s="48"/>
       <c r="G85" s="48"/>
     </row>
-    <row r="86" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="49"/>
       <c r="B86" s="49"/>
       <c r="C86" s="48"/>
@@ -3818,7 +3818,7 @@
       <c r="F86" s="48"/>
       <c r="G86" s="48"/>
     </row>
-    <row r="87" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="49"/>
       <c r="B87" s="49"/>
       <c r="C87" s="48"/>
@@ -3827,7 +3827,7 @@
       <c r="F87" s="48"/>
       <c r="G87" s="48"/>
     </row>
-    <row r="88" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="49"/>
       <c r="B88" s="49"/>
       <c r="C88" s="48"/>
@@ -3836,7 +3836,7 @@
       <c r="F88" s="48"/>
       <c r="G88" s="48"/>
     </row>
-    <row r="89" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="49"/>
       <c r="B89" s="49"/>
       <c r="C89" s="48"/>
@@ -3845,7 +3845,7 @@
       <c r="F89" s="48"/>
       <c r="G89" s="48"/>
     </row>
-    <row r="90" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
       <c r="B90" s="49"/>
       <c r="C90" s="48"/>
@@ -3854,7 +3854,7 @@
       <c r="F90" s="48"/>
       <c r="G90" s="48"/>
     </row>
-    <row r="91" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="49"/>
       <c r="B91" s="49"/>
       <c r="C91" s="48"/>
@@ -3863,7 +3863,7 @@
       <c r="F91" s="48"/>
       <c r="G91" s="48"/>
     </row>
-    <row r="92" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="49"/>
       <c r="B92" s="49"/>
       <c r="C92" s="48"/>
@@ -3872,7 +3872,7 @@
       <c r="F92" s="48"/>
       <c r="G92" s="48"/>
     </row>
-    <row r="93" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="49"/>
       <c r="B93" s="49"/>
       <c r="C93" s="48"/>
@@ -3881,7 +3881,7 @@
       <c r="F93" s="48"/>
       <c r="G93" s="48"/>
     </row>
-    <row r="94" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="49"/>
       <c r="B94" s="49"/>
       <c r="C94" s="48"/>
@@ -3890,7 +3890,7 @@
       <c r="F94" s="48"/>
       <c r="G94" s="48"/>
     </row>
-    <row r="95" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="49"/>
       <c r="B95" s="49"/>
       <c r="C95" s="48"/>
@@ -3899,7 +3899,7 @@
       <c r="F95" s="48"/>
       <c r="G95" s="48"/>
     </row>
-    <row r="96" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="49"/>
       <c r="B96" s="49"/>
       <c r="C96" s="48"/>
@@ -3908,7 +3908,7 @@
       <c r="F96" s="48"/>
       <c r="G96" s="48"/>
     </row>
-    <row r="97" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="49"/>
       <c r="B97" s="49"/>
       <c r="C97" s="48"/>
@@ -3917,7 +3917,7 @@
       <c r="F97" s="48"/>
       <c r="G97" s="48"/>
     </row>
-    <row r="98" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="49"/>
       <c r="B98" s="49"/>
       <c r="C98" s="48"/>
@@ -3926,7 +3926,7 @@
       <c r="F98" s="48"/>
       <c r="G98" s="48"/>
     </row>
-    <row r="99" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="49"/>
       <c r="B99" s="49"/>
       <c r="C99" s="48"/>
@@ -3935,7 +3935,7 @@
       <c r="F99" s="48"/>
       <c r="G99" s="48"/>
     </row>
-    <row r="100" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="49"/>
       <c r="B100" s="49"/>
       <c r="C100" s="48"/>
@@ -3944,7 +3944,7 @@
       <c r="F100" s="48"/>
       <c r="G100" s="48"/>
     </row>
-    <row r="101" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="49"/>
       <c r="B101" s="49"/>
       <c r="C101" s="48"/>
@@ -3953,7 +3953,7 @@
       <c r="F101" s="48"/>
       <c r="G101" s="48"/>
     </row>
-    <row r="102" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="49"/>
       <c r="B102" s="49"/>
       <c r="C102" s="48"/>
@@ -3962,7 +3962,7 @@
       <c r="F102" s="48"/>
       <c r="G102" s="48"/>
     </row>
-    <row r="103" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="49"/>
       <c r="B103" s="49"/>
       <c r="C103" s="48"/>
@@ -3971,7 +3971,7 @@
       <c r="F103" s="48"/>
       <c r="G103" s="48"/>
     </row>
-    <row r="104" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="49"/>
       <c r="B104" s="49"/>
       <c r="C104" s="48"/>
@@ -3980,7 +3980,7 @@
       <c r="F104" s="48"/>
       <c r="G104" s="48"/>
     </row>
-    <row r="105" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="49"/>
       <c r="B105" s="49"/>
       <c r="C105" s="48"/>
@@ -3989,7 +3989,7 @@
       <c r="F105" s="48"/>
       <c r="G105" s="48"/>
     </row>
-    <row r="106" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="49"/>
       <c r="B106" s="49"/>
       <c r="C106" s="48"/>
@@ -3998,7 +3998,7 @@
       <c r="F106" s="48"/>
       <c r="G106" s="48"/>
     </row>
-    <row r="107" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="49"/>
       <c r="B107" s="49"/>
       <c r="C107" s="48"/>
@@ -4007,7 +4007,7 @@
       <c r="F107" s="48"/>
       <c r="G107" s="48"/>
     </row>
-    <row r="108" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="49"/>
       <c r="B108" s="49"/>
       <c r="C108" s="48"/>
@@ -4016,7 +4016,7 @@
       <c r="F108" s="48"/>
       <c r="G108" s="48"/>
     </row>
-    <row r="109" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="49"/>
       <c r="B109" s="49"/>
       <c r="C109" s="48"/>
@@ -4025,7 +4025,7 @@
       <c r="F109" s="48"/>
       <c r="G109" s="48"/>
     </row>
-    <row r="110" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="49"/>
       <c r="B110" s="49"/>
       <c r="C110" s="48"/>
@@ -4034,7 +4034,7 @@
       <c r="F110" s="48"/>
       <c r="G110" s="48"/>
     </row>
-    <row r="111" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="49"/>
       <c r="B111" s="49"/>
       <c r="C111" s="48"/>
@@ -4043,7 +4043,7 @@
       <c r="F111" s="48"/>
       <c r="G111" s="48"/>
     </row>
-    <row r="112" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="49"/>
       <c r="B112" s="49"/>
       <c r="C112" s="48"/>
@@ -4052,7 +4052,7 @@
       <c r="F112" s="48"/>
       <c r="G112" s="48"/>
     </row>
-    <row r="113" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="49"/>
       <c r="B113" s="49"/>
       <c r="C113" s="48"/>
@@ -4061,7 +4061,7 @@
       <c r="F113" s="48"/>
       <c r="G113" s="48"/>
     </row>
-    <row r="114" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="49"/>
       <c r="B114" s="49"/>
       <c r="C114" s="48"/>
@@ -4070,7 +4070,7 @@
       <c r="F114" s="48"/>
       <c r="G114" s="48"/>
     </row>
-    <row r="115" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="49"/>
       <c r="B115" s="49"/>
       <c r="C115" s="48"/>
@@ -4079,7 +4079,7 @@
       <c r="F115" s="48"/>
       <c r="G115" s="48"/>
     </row>
-    <row r="116" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="49"/>
       <c r="B116" s="49"/>
       <c r="C116" s="48"/>
@@ -4088,7 +4088,7 @@
       <c r="F116" s="48"/>
       <c r="G116" s="48"/>
     </row>
-    <row r="117" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="49"/>
       <c r="B117" s="49"/>
       <c r="C117" s="48"/>
@@ -4097,7 +4097,7 @@
       <c r="F117" s="48"/>
       <c r="G117" s="48"/>
     </row>
-    <row r="118" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="49"/>
       <c r="B118" s="49"/>
       <c r="C118" s="48"/>
@@ -4106,7 +4106,7 @@
       <c r="F118" s="48"/>
       <c r="G118" s="48"/>
     </row>
-    <row r="119" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="49"/>
       <c r="B119" s="49"/>
       <c r="C119" s="48"/>
@@ -4115,7 +4115,7 @@
       <c r="F119" s="48"/>
       <c r="G119" s="48"/>
     </row>
-    <row r="120" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="49"/>
       <c r="B120" s="49"/>
       <c r="C120" s="48"/>
@@ -4124,7 +4124,7 @@
       <c r="F120" s="48"/>
       <c r="G120" s="48"/>
     </row>
-    <row r="121" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="49"/>
       <c r="B121" s="49"/>
       <c r="C121" s="48"/>
@@ -4133,7 +4133,7 @@
       <c r="F121" s="48"/>
       <c r="G121" s="48"/>
     </row>
-    <row r="122" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="49"/>
       <c r="B122" s="49"/>
       <c r="C122" s="48"/>
@@ -4142,7 +4142,7 @@
       <c r="F122" s="48"/>
       <c r="G122" s="48"/>
     </row>
-    <row r="123" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="49"/>
       <c r="B123" s="49"/>
       <c r="C123" s="48"/>
@@ -4151,7 +4151,7 @@
       <c r="F123" s="48"/>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="49"/>
       <c r="B124" s="49"/>
       <c r="C124" s="48"/>
@@ -4160,7 +4160,7 @@
       <c r="F124" s="48"/>
       <c r="G124" s="48"/>
     </row>
-    <row r="125" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="49"/>
       <c r="B125" s="49"/>
       <c r="C125" s="48"/>
@@ -4169,7 +4169,7 @@
       <c r="F125" s="48"/>
       <c r="G125" s="48"/>
     </row>
-    <row r="126" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="49"/>
       <c r="B126" s="49"/>
       <c r="C126" s="48"/>
@@ -4178,7 +4178,7 @@
       <c r="F126" s="48"/>
       <c r="G126" s="48"/>
     </row>
-    <row r="127" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="49"/>
       <c r="B127" s="49"/>
       <c r="C127" s="48"/>
@@ -4187,7 +4187,7 @@
       <c r="F127" s="48"/>
       <c r="G127" s="48"/>
     </row>
-    <row r="128" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="49"/>
       <c r="B128" s="49"/>
       <c r="C128" s="48"/>
@@ -4196,7 +4196,7 @@
       <c r="F128" s="48"/>
       <c r="G128" s="48"/>
     </row>
-    <row r="129" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="49"/>
       <c r="B129" s="49"/>
       <c r="C129" s="48"/>
@@ -4205,7 +4205,7 @@
       <c r="F129" s="48"/>
       <c r="G129" s="48"/>
     </row>
-    <row r="130" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="49"/>
       <c r="B130" s="49"/>
       <c r="C130" s="48"/>
@@ -4214,7 +4214,7 @@
       <c r="F130" s="48"/>
       <c r="G130" s="48"/>
     </row>
-    <row r="131" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="49"/>
       <c r="B131" s="49"/>
       <c r="C131" s="48"/>
@@ -4223,7 +4223,7 @@
       <c r="F131" s="48"/>
       <c r="G131" s="48"/>
     </row>
-    <row r="132" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="49"/>
       <c r="B132" s="49"/>
       <c r="C132" s="48"/>
@@ -4232,7 +4232,7 @@
       <c r="F132" s="48"/>
       <c r="G132" s="48"/>
     </row>
-    <row r="133" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="49"/>
       <c r="B133" s="49"/>
       <c r="C133" s="48"/>
@@ -4241,7 +4241,7 @@
       <c r="F133" s="48"/>
       <c r="G133" s="48"/>
     </row>
-    <row r="134" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="49"/>
       <c r="B134" s="49"/>
       <c r="C134" s="48"/>
@@ -4250,7 +4250,7 @@
       <c r="F134" s="48"/>
       <c r="G134" s="48"/>
     </row>
-    <row r="135" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="49"/>
       <c r="B135" s="49"/>
       <c r="C135" s="48"/>
@@ -4259,7 +4259,7 @@
       <c r="F135" s="48"/>
       <c r="G135" s="48"/>
     </row>
-    <row r="136" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="49"/>
       <c r="B136" s="49"/>
       <c r="C136" s="48"/>
@@ -4268,7 +4268,7 @@
       <c r="F136" s="48"/>
       <c r="G136" s="48"/>
     </row>
-    <row r="137" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="49"/>
       <c r="B137" s="49"/>
       <c r="C137" s="48"/>
@@ -4277,7 +4277,7 @@
       <c r="F137" s="48"/>
       <c r="G137" s="48"/>
     </row>
-    <row r="138" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="49"/>
       <c r="B138" s="49"/>
       <c r="C138" s="48"/>
@@ -4286,7 +4286,7 @@
       <c r="F138" s="48"/>
       <c r="G138" s="48"/>
     </row>
-    <row r="139" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="49"/>
       <c r="B139" s="49"/>
       <c r="C139" s="48"/>
@@ -4295,7 +4295,7 @@
       <c r="F139" s="48"/>
       <c r="G139" s="48"/>
     </row>
-    <row r="140" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="49"/>
       <c r="B140" s="49"/>
       <c r="C140" s="48"/>
@@ -4304,7 +4304,7 @@
       <c r="F140" s="48"/>
       <c r="G140" s="48"/>
     </row>
-    <row r="141" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="49"/>
       <c r="B141" s="49"/>
       <c r="C141" s="48"/>
@@ -4313,7 +4313,7 @@
       <c r="F141" s="48"/>
       <c r="G141" s="48"/>
     </row>
-    <row r="142" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="49"/>
       <c r="B142" s="49"/>
       <c r="C142" s="48"/>
@@ -4322,7 +4322,7 @@
       <c r="F142" s="48"/>
       <c r="G142" s="48"/>
     </row>
-    <row r="143" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="49"/>
       <c r="B143" s="49"/>
       <c r="C143" s="48"/>
@@ -4331,7 +4331,7 @@
       <c r="F143" s="48"/>
       <c r="G143" s="48"/>
     </row>
-    <row r="144" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="49"/>
       <c r="B144" s="49"/>
       <c r="C144" s="48"/>
@@ -4340,7 +4340,7 @@
       <c r="F144" s="48"/>
       <c r="G144" s="48"/>
     </row>
-    <row r="145" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="49"/>
       <c r="B145" s="49"/>
       <c r="C145" s="48"/>
@@ -4349,7 +4349,7 @@
       <c r="F145" s="48"/>
       <c r="G145" s="48"/>
     </row>
-    <row r="146" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="49"/>
       <c r="B146" s="49"/>
       <c r="C146" s="48"/>
@@ -4358,7 +4358,7 @@
       <c r="F146" s="48"/>
       <c r="G146" s="48"/>
     </row>
-    <row r="147" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="49"/>
       <c r="B147" s="49"/>
       <c r="C147" s="48"/>
@@ -4367,7 +4367,7 @@
       <c r="F147" s="48"/>
       <c r="G147" s="48"/>
     </row>
-    <row r="148" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="49"/>
       <c r="B148" s="49"/>
       <c r="C148" s="48"/>
@@ -4376,7 +4376,7 @@
       <c r="F148" s="48"/>
       <c r="G148" s="48"/>
     </row>
-    <row r="149" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="49"/>
       <c r="B149" s="49"/>
       <c r="C149" s="48"/>
@@ -4385,7 +4385,7 @@
       <c r="F149" s="48"/>
       <c r="G149" s="48"/>
     </row>
-    <row r="150" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="49"/>
       <c r="B150" s="49"/>
       <c r="C150" s="48"/>
@@ -4394,7 +4394,7 @@
       <c r="F150" s="48"/>
       <c r="G150" s="48"/>
     </row>
-    <row r="151" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="49"/>
       <c r="B151" s="49"/>
       <c r="C151" s="48"/>
@@ -4403,7 +4403,7 @@
       <c r="F151" s="48"/>
       <c r="G151" s="48"/>
     </row>
-    <row r="152" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="49"/>
       <c r="B152" s="49"/>
       <c r="C152" s="48"/>
@@ -4412,7 +4412,7 @@
       <c r="F152" s="48"/>
       <c r="G152" s="48"/>
     </row>
-    <row r="153" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="49"/>
       <c r="B153" s="49"/>
       <c r="C153" s="48"/>
@@ -4421,7 +4421,7 @@
       <c r="F153" s="48"/>
       <c r="G153" s="48"/>
     </row>
-    <row r="154" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="49"/>
       <c r="B154" s="49"/>
       <c r="C154" s="48"/>
@@ -4430,7 +4430,7 @@
       <c r="F154" s="48"/>
       <c r="G154" s="48"/>
     </row>
-    <row r="155" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="49"/>
       <c r="B155" s="49"/>
       <c r="C155" s="48"/>
@@ -4439,7 +4439,7 @@
       <c r="F155" s="48"/>
       <c r="G155" s="48"/>
     </row>
-    <row r="156" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="49"/>
       <c r="B156" s="49"/>
       <c r="C156" s="48"/>
@@ -4448,7 +4448,7 @@
       <c r="F156" s="48"/>
       <c r="G156" s="48"/>
     </row>
-    <row r="157" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="49"/>
       <c r="B157" s="49"/>
       <c r="C157" s="48"/>
@@ -4457,7 +4457,7 @@
       <c r="F157" s="48"/>
       <c r="G157" s="48"/>
     </row>
-    <row r="158" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="49"/>
       <c r="B158" s="49"/>
       <c r="C158" s="48"/>
@@ -4466,7 +4466,7 @@
       <c r="F158" s="48"/>
       <c r="G158" s="48"/>
     </row>
-    <row r="159" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
       <c r="B159" s="49"/>
       <c r="C159" s="48"/>
@@ -4475,7 +4475,7 @@
       <c r="F159" s="48"/>
       <c r="G159" s="48"/>
     </row>
-    <row r="160" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="49"/>
       <c r="B160" s="49"/>
       <c r="C160" s="48"/>
@@ -4484,7 +4484,7 @@
       <c r="F160" s="48"/>
       <c r="G160" s="48"/>
     </row>
-    <row r="161" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="49"/>
       <c r="B161" s="49"/>
       <c r="C161" s="48"/>
@@ -4493,7 +4493,7 @@
       <c r="F161" s="48"/>
       <c r="G161" s="48"/>
     </row>
-    <row r="162" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="49"/>
       <c r="B162" s="49"/>
       <c r="C162" s="48"/>
@@ -4502,7 +4502,7 @@
       <c r="F162" s="48"/>
       <c r="G162" s="48"/>
     </row>
-    <row r="163" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>
       <c r="B163" s="49"/>
       <c r="C163" s="48"/>
@@ -4511,7 +4511,7 @@
       <c r="F163" s="48"/>
       <c r="G163" s="48"/>
     </row>
-    <row r="164" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="49"/>
       <c r="B164" s="49"/>
       <c r="C164" s="48"/>
@@ -4520,7 +4520,7 @@
       <c r="F164" s="48"/>
       <c r="G164" s="48"/>
     </row>
-    <row r="165" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="49"/>
       <c r="B165" s="49"/>
       <c r="C165" s="48"/>
@@ -4529,7 +4529,7 @@
       <c r="F165" s="48"/>
       <c r="G165" s="48"/>
     </row>
-    <row r="166" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="49"/>
       <c r="B166" s="49"/>
       <c r="C166" s="48"/>
@@ -4538,7 +4538,7 @@
       <c r="F166" s="48"/>
       <c r="G166" s="48"/>
     </row>
-    <row r="167" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="49"/>
       <c r="B167" s="49"/>
       <c r="C167" s="48"/>
@@ -4547,7 +4547,7 @@
       <c r="F167" s="48"/>
       <c r="G167" s="48"/>
     </row>
-    <row r="168" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="49"/>
       <c r="B168" s="49"/>
       <c r="C168" s="48"/>
@@ -4556,7 +4556,7 @@
       <c r="F168" s="48"/>
       <c r="G168" s="48"/>
     </row>
-    <row r="169" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="49"/>
       <c r="B169" s="49"/>
       <c r="C169" s="48"/>
@@ -4565,7 +4565,7 @@
       <c r="F169" s="48"/>
       <c r="G169" s="48"/>
     </row>
-    <row r="170" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="49"/>
       <c r="B170" s="49"/>
       <c r="C170" s="48"/>
@@ -4574,7 +4574,7 @@
       <c r="F170" s="48"/>
       <c r="G170" s="48"/>
     </row>
-    <row r="171" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="49"/>
       <c r="B171" s="49"/>
       <c r="C171" s="48"/>
@@ -4583,7 +4583,7 @@
       <c r="F171" s="48"/>
       <c r="G171" s="48"/>
     </row>
-    <row r="172" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="49"/>
       <c r="B172" s="49"/>
       <c r="C172" s="48"/>
@@ -4592,7 +4592,7 @@
       <c r="F172" s="48"/>
       <c r="G172" s="48"/>
     </row>
-    <row r="173" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="49"/>
       <c r="B173" s="49"/>
       <c r="C173" s="48"/>
@@ -4601,7 +4601,7 @@
       <c r="F173" s="48"/>
       <c r="G173" s="48"/>
     </row>
-    <row r="174" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="49"/>
       <c r="B174" s="49"/>
       <c r="C174" s="48"/>
@@ -4610,7 +4610,7 @@
       <c r="F174" s="48"/>
       <c r="G174" s="48"/>
     </row>
-    <row r="175" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="49"/>
       <c r="B175" s="49"/>
       <c r="C175" s="48"/>
@@ -4619,7 +4619,7 @@
       <c r="F175" s="48"/>
       <c r="G175" s="48"/>
     </row>
-    <row r="176" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="49"/>
       <c r="B176" s="49"/>
       <c r="C176" s="48"/>
@@ -4628,7 +4628,7 @@
       <c r="F176" s="48"/>
       <c r="G176" s="48"/>
     </row>
-    <row r="177" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="49"/>
       <c r="B177" s="49"/>
       <c r="C177" s="48"/>
@@ -4637,7 +4637,7 @@
       <c r="F177" s="48"/>
       <c r="G177" s="48"/>
     </row>
-    <row r="178" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="49"/>
       <c r="B178" s="49"/>
       <c r="C178" s="48"/>
@@ -4646,7 +4646,7 @@
       <c r="F178" s="48"/>
       <c r="G178" s="48"/>
     </row>
-    <row r="179" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="49"/>
       <c r="B179" s="49"/>
       <c r="C179" s="48"/>
@@ -4655,7 +4655,7 @@
       <c r="F179" s="48"/>
       <c r="G179" s="48"/>
     </row>
-    <row r="180" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="49"/>
       <c r="B180" s="49"/>
       <c r="C180" s="48"/>
@@ -4664,7 +4664,7 @@
       <c r="F180" s="48"/>
       <c r="G180" s="48"/>
     </row>
-    <row r="181" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="49"/>
       <c r="B181" s="49"/>
       <c r="C181" s="48"/>
@@ -4673,7 +4673,7 @@
       <c r="F181" s="48"/>
       <c r="G181" s="48"/>
     </row>
-    <row r="182" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="49"/>
       <c r="B182" s="49"/>
       <c r="C182" s="48"/>
@@ -4682,7 +4682,7 @@
       <c r="F182" s="48"/>
       <c r="G182" s="48"/>
     </row>
-    <row r="183" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="49"/>
       <c r="B183" s="49"/>
       <c r="C183" s="48"/>
@@ -4691,7 +4691,7 @@
       <c r="F183" s="48"/>
       <c r="G183" s="48"/>
     </row>
-    <row r="184" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="49"/>
       <c r="B184" s="49"/>
       <c r="C184" s="48"/>
@@ -4700,7 +4700,7 @@
       <c r="F184" s="48"/>
       <c r="G184" s="48"/>
     </row>
-    <row r="185" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="49"/>
       <c r="B185" s="49"/>
       <c r="C185" s="48"/>
@@ -4709,7 +4709,7 @@
       <c r="F185" s="48"/>
       <c r="G185" s="48"/>
     </row>
-    <row r="186" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="49"/>
       <c r="B186" s="49"/>
       <c r="C186" s="48"/>
@@ -4718,7 +4718,7 @@
       <c r="F186" s="48"/>
       <c r="G186" s="48"/>
     </row>
-    <row r="187" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="49"/>
       <c r="B187" s="49"/>
       <c r="C187" s="48"/>
@@ -4727,7 +4727,7 @@
       <c r="F187" s="48"/>
       <c r="G187" s="48"/>
     </row>
-    <row r="188" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="49"/>
       <c r="B188" s="49"/>
       <c r="C188" s="48"/>
@@ -4736,7 +4736,7 @@
       <c r="F188" s="48"/>
       <c r="G188" s="48"/>
     </row>
-    <row r="189" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="49"/>
       <c r="B189" s="49"/>
       <c r="C189" s="48"/>
@@ -4745,7 +4745,7 @@
       <c r="F189" s="48"/>
       <c r="G189" s="48"/>
     </row>
-    <row r="190" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="49"/>
       <c r="B190" s="49"/>
       <c r="C190" s="48"/>
@@ -4754,7 +4754,7 @@
       <c r="F190" s="48"/>
       <c r="G190" s="48"/>
     </row>
-    <row r="191" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="49"/>
       <c r="B191" s="49"/>
       <c r="C191" s="48"/>
@@ -4763,7 +4763,7 @@
       <c r="F191" s="48"/>
       <c r="G191" s="48"/>
     </row>
-    <row r="192" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="49"/>
       <c r="B192" s="49"/>
       <c r="C192" s="48"/>
@@ -4772,7 +4772,7 @@
       <c r="F192" s="48"/>
       <c r="G192" s="48"/>
     </row>
-    <row r="193" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="49"/>
       <c r="B193" s="49"/>
       <c r="C193" s="48"/>
@@ -4781,7 +4781,7 @@
       <c r="F193" s="48"/>
       <c r="G193" s="48"/>
     </row>
-    <row r="194" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="49"/>
       <c r="B194" s="49"/>
       <c r="C194" s="48"/>
@@ -4790,7 +4790,7 @@
       <c r="F194" s="48"/>
       <c r="G194" s="48"/>
     </row>
-    <row r="195" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="49"/>
       <c r="B195" s="49"/>
       <c r="C195" s="48"/>
@@ -4799,7 +4799,7 @@
       <c r="F195" s="48"/>
       <c r="G195" s="48"/>
     </row>
-    <row r="196" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="49"/>
       <c r="B196" s="49"/>
       <c r="C196" s="48"/>
@@ -4808,7 +4808,7 @@
       <c r="F196" s="48"/>
       <c r="G196" s="48"/>
     </row>
-    <row r="197" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="49"/>
       <c r="B197" s="49"/>
       <c r="C197" s="48"/>
@@ -4817,7 +4817,7 @@
       <c r="F197" s="48"/>
       <c r="G197" s="48"/>
     </row>
-    <row r="198" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="49"/>
       <c r="B198" s="49"/>
       <c r="C198" s="48"/>
@@ -4826,7 +4826,7 @@
       <c r="F198" s="48"/>
       <c r="G198" s="48"/>
     </row>
-    <row r="199" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="49"/>
       <c r="B199" s="49"/>
       <c r="C199" s="48"/>
@@ -4835,7 +4835,7 @@
       <c r="F199" s="48"/>
       <c r="G199" s="48"/>
     </row>
-    <row r="200" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="49"/>
       <c r="B200" s="49"/>
       <c r="C200" s="48"/>
@@ -4844,7 +4844,7 @@
       <c r="F200" s="48"/>
       <c r="G200" s="48"/>
     </row>
-    <row r="201" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="49"/>
       <c r="B201" s="49"/>
       <c r="C201" s="48"/>
@@ -4853,7 +4853,7 @@
       <c r="F201" s="48"/>
       <c r="G201" s="48"/>
     </row>
-    <row r="202" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="49"/>
       <c r="B202" s="49"/>
       <c r="C202" s="48"/>
@@ -4862,7 +4862,7 @@
       <c r="F202" s="48"/>
       <c r="G202" s="48"/>
     </row>
-    <row r="203" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="49"/>
       <c r="B203" s="49"/>
       <c r="C203" s="48"/>
@@ -4871,7 +4871,7 @@
       <c r="F203" s="48"/>
       <c r="G203" s="48"/>
     </row>
-    <row r="204" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="49"/>
       <c r="B204" s="49"/>
       <c r="C204" s="48"/>
@@ -4880,7 +4880,7 @@
       <c r="F204" s="48"/>
       <c r="G204" s="48"/>
     </row>
-    <row r="205" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="49"/>
       <c r="B205" s="49"/>
       <c r="C205" s="48"/>
@@ -4889,7 +4889,7 @@
       <c r="F205" s="48"/>
       <c r="G205" s="48"/>
     </row>
-    <row r="206" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="49"/>
       <c r="B206" s="49"/>
       <c r="C206" s="48"/>
@@ -4898,7 +4898,7 @@
       <c r="F206" s="48"/>
       <c r="G206" s="48"/>
     </row>
-    <row r="207" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="49"/>
       <c r="B207" s="49"/>
       <c r="C207" s="48"/>
@@ -4907,7 +4907,7 @@
       <c r="F207" s="48"/>
       <c r="G207" s="48"/>
     </row>
-    <row r="208" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="49"/>
       <c r="B208" s="49"/>
       <c r="C208" s="48"/>
@@ -4916,7 +4916,7 @@
       <c r="F208" s="48"/>
       <c r="G208" s="48"/>
     </row>
-    <row r="209" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="49"/>
       <c r="B209" s="49"/>
       <c r="C209" s="48"/>
@@ -4925,7 +4925,7 @@
       <c r="F209" s="48"/>
       <c r="G209" s="48"/>
     </row>
-    <row r="210" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="49"/>
       <c r="B210" s="49"/>
       <c r="C210" s="48"/>
@@ -4934,7 +4934,7 @@
       <c r="F210" s="48"/>
       <c r="G210" s="48"/>
     </row>
-    <row r="211" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="49"/>
       <c r="B211" s="49"/>
       <c r="C211" s="48"/>
@@ -4943,7 +4943,7 @@
       <c r="F211" s="48"/>
       <c r="G211" s="48"/>
     </row>
-    <row r="212" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="49"/>
       <c r="B212" s="49"/>
       <c r="C212" s="48"/>
@@ -4952,7 +4952,7 @@
       <c r="F212" s="48"/>
       <c r="G212" s="48"/>
     </row>
-    <row r="213" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="49"/>
       <c r="B213" s="49"/>
       <c r="C213" s="48"/>
@@ -4961,7 +4961,7 @@
       <c r="F213" s="48"/>
       <c r="G213" s="48"/>
     </row>
-    <row r="214" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="49"/>
       <c r="B214" s="49"/>
       <c r="C214" s="48"/>
@@ -4970,7 +4970,7 @@
       <c r="F214" s="48"/>
       <c r="G214" s="48"/>
     </row>
-    <row r="215" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="49"/>
       <c r="B215" s="49"/>
       <c r="C215" s="48"/>
@@ -4979,7 +4979,7 @@
       <c r="F215" s="48"/>
       <c r="G215" s="48"/>
     </row>
-    <row r="216" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="49"/>
       <c r="B216" s="49"/>
       <c r="C216" s="48"/>
@@ -4988,7 +4988,7 @@
       <c r="F216" s="48"/>
       <c r="G216" s="48"/>
     </row>
-    <row r="217" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="49"/>
       <c r="B217" s="49"/>
       <c r="C217" s="48"/>
@@ -4997,7 +4997,7 @@
       <c r="F217" s="48"/>
       <c r="G217" s="48"/>
     </row>
-    <row r="218" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="49"/>
       <c r="B218" s="49"/>
       <c r="C218" s="48"/>
@@ -5006,7 +5006,7 @@
       <c r="F218" s="48"/>
       <c r="G218" s="48"/>
     </row>
-    <row r="219" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="49"/>
       <c r="B219" s="49"/>
       <c r="C219" s="48"/>
@@ -5015,7 +5015,7 @@
       <c r="F219" s="48"/>
       <c r="G219" s="48"/>
     </row>
-    <row r="220" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="49"/>
       <c r="B220" s="49"/>
       <c r="C220" s="48"/>
@@ -5024,7 +5024,7 @@
       <c r="F220" s="48"/>
       <c r="G220" s="48"/>
     </row>
-    <row r="221" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="49"/>
       <c r="B221" s="49"/>
       <c r="C221" s="48"/>
@@ -5033,7 +5033,7 @@
       <c r="F221" s="48"/>
       <c r="G221" s="48"/>
     </row>
-    <row r="222" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="49"/>
       <c r="B222" s="49"/>
       <c r="C222" s="48"/>
@@ -5042,7 +5042,7 @@
       <c r="F222" s="48"/>
       <c r="G222" s="48"/>
     </row>
-    <row r="223" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="49"/>
       <c r="B223" s="49"/>
       <c r="C223" s="48"/>
@@ -5051,7 +5051,7 @@
       <c r="F223" s="48"/>
       <c r="G223" s="48"/>
     </row>
-    <row r="224" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="49"/>
       <c r="B224" s="49"/>
       <c r="C224" s="48"/>
@@ -5060,7 +5060,7 @@
       <c r="F224" s="48"/>
       <c r="G224" s="48"/>
     </row>
-    <row r="225" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="49"/>
       <c r="B225" s="49"/>
       <c r="C225" s="48"/>
@@ -5069,7 +5069,7 @@
       <c r="F225" s="48"/>
       <c r="G225" s="48"/>
     </row>
-    <row r="226" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="49"/>
       <c r="B226" s="49"/>
       <c r="C226" s="48"/>
@@ -5078,7 +5078,7 @@
       <c r="F226" s="48"/>
       <c r="G226" s="48"/>
     </row>
-    <row r="227" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="49"/>
       <c r="B227" s="49"/>
       <c r="C227" s="48"/>
@@ -5087,7 +5087,7 @@
       <c r="F227" s="48"/>
       <c r="G227" s="48"/>
     </row>
-    <row r="228" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="49"/>
       <c r="B228" s="49"/>
       <c r="C228" s="48"/>
@@ -5096,7 +5096,7 @@
       <c r="F228" s="48"/>
       <c r="G228" s="48"/>
     </row>
-    <row r="229" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="49"/>
       <c r="B229" s="49"/>
       <c r="C229" s="48"/>
@@ -5105,7 +5105,7 @@
       <c r="F229" s="48"/>
       <c r="G229" s="48"/>
     </row>
-    <row r="230" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="49"/>
       <c r="B230" s="49"/>
       <c r="C230" s="48"/>
@@ -5114,7 +5114,7 @@
       <c r="F230" s="48"/>
       <c r="G230" s="48"/>
     </row>
-    <row r="231" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="49"/>
       <c r="B231" s="49"/>
       <c r="C231" s="48"/>
@@ -5123,7 +5123,7 @@
       <c r="F231" s="48"/>
       <c r="G231" s="48"/>
     </row>
-    <row r="232" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="49"/>
       <c r="B232" s="49"/>
       <c r="C232" s="48"/>
@@ -5132,7 +5132,7 @@
       <c r="F232" s="48"/>
       <c r="G232" s="48"/>
     </row>
-    <row r="233" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="49"/>
       <c r="B233" s="49"/>
       <c r="C233" s="48"/>
@@ -5141,7 +5141,7 @@
       <c r="F233" s="48"/>
       <c r="G233" s="48"/>
     </row>
-    <row r="234" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="49"/>
       <c r="B234" s="49"/>
       <c r="C234" s="48"/>
@@ -5150,7 +5150,7 @@
       <c r="F234" s="48"/>
       <c r="G234" s="48"/>
     </row>
-    <row r="235" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="49"/>
       <c r="B235" s="49"/>
       <c r="C235" s="48"/>
@@ -5159,7 +5159,7 @@
       <c r="F235" s="48"/>
       <c r="G235" s="48"/>
     </row>
-    <row r="236" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="49"/>
       <c r="B236" s="49"/>
       <c r="C236" s="48"/>
@@ -5168,7 +5168,7 @@
       <c r="F236" s="48"/>
       <c r="G236" s="48"/>
     </row>
-    <row r="237" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="49"/>
       <c r="B237" s="49"/>
       <c r="C237" s="48"/>
@@ -5177,7 +5177,7 @@
       <c r="F237" s="48"/>
       <c r="G237" s="48"/>
     </row>
-    <row r="238" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="49"/>
       <c r="B238" s="49"/>
       <c r="C238" s="48"/>
@@ -5186,7 +5186,7 @@
       <c r="F238" s="48"/>
       <c r="G238" s="48"/>
     </row>
-    <row r="239" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="49"/>
       <c r="B239" s="49"/>
       <c r="C239" s="48"/>
@@ -5195,7 +5195,7 @@
       <c r="F239" s="48"/>
       <c r="G239" s="48"/>
     </row>
-    <row r="240" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="49"/>
       <c r="B240" s="49"/>
       <c r="C240" s="48"/>
@@ -5204,7 +5204,7 @@
       <c r="F240" s="48"/>
       <c r="G240" s="48"/>
     </row>
-    <row r="241" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="49"/>
       <c r="B241" s="49"/>
       <c r="C241" s="48"/>
@@ -5213,7 +5213,7 @@
       <c r="F241" s="48"/>
       <c r="G241" s="48"/>
     </row>
-    <row r="242" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="49"/>
       <c r="B242" s="49"/>
       <c r="C242" s="48"/>
@@ -5222,7 +5222,7 @@
       <c r="F242" s="48"/>
       <c r="G242" s="48"/>
     </row>
-    <row r="243" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="49"/>
       <c r="B243" s="49"/>
       <c r="C243" s="48"/>
@@ -5231,7 +5231,7 @@
       <c r="F243" s="48"/>
       <c r="G243" s="48"/>
     </row>
-    <row r="244" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="49"/>
       <c r="B244" s="49"/>
       <c r="C244" s="48"/>
@@ -5240,7 +5240,7 @@
       <c r="F244" s="48"/>
       <c r="G244" s="48"/>
     </row>
-    <row r="245" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="49"/>
       <c r="B245" s="49"/>
       <c r="C245" s="48"/>
@@ -5249,7 +5249,7 @@
       <c r="F245" s="48"/>
       <c r="G245" s="48"/>
     </row>
-    <row r="246" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="49"/>
       <c r="B246" s="49"/>
       <c r="C246" s="48"/>
@@ -5258,7 +5258,7 @@
       <c r="F246" s="48"/>
       <c r="G246" s="48"/>
     </row>
-    <row r="247" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="49"/>
       <c r="B247" s="49"/>
       <c r="C247" s="48"/>
@@ -5267,7 +5267,7 @@
       <c r="F247" s="48"/>
       <c r="G247" s="48"/>
     </row>
-    <row r="248" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="49"/>
       <c r="B248" s="49"/>
       <c r="C248" s="48"/>
@@ -5276,7 +5276,7 @@
       <c r="F248" s="48"/>
       <c r="G248" s="48"/>
     </row>
-    <row r="249" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="49"/>
       <c r="B249" s="49"/>
       <c r="C249" s="48"/>
@@ -5285,7 +5285,7 @@
       <c r="F249" s="48"/>
       <c r="G249" s="48"/>
     </row>
-    <row r="250" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="49"/>
       <c r="B250" s="49"/>
       <c r="C250" s="48"/>
@@ -5294,7 +5294,7 @@
       <c r="F250" s="48"/>
       <c r="G250" s="48"/>
     </row>
-    <row r="251" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="49"/>
       <c r="B251" s="49"/>
       <c r="C251" s="48"/>
@@ -5303,7 +5303,7 @@
       <c r="F251" s="48"/>
       <c r="G251" s="48"/>
     </row>
-    <row r="252" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="49"/>
       <c r="B252" s="49"/>
       <c r="C252" s="48"/>
@@ -5312,7 +5312,7 @@
       <c r="F252" s="48"/>
       <c r="G252" s="48"/>
     </row>
-    <row r="253" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="49"/>
       <c r="B253" s="49"/>
       <c r="C253" s="48"/>
@@ -5321,7 +5321,7 @@
       <c r="F253" s="48"/>
       <c r="G253" s="48"/>
     </row>
-    <row r="254" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="49"/>
       <c r="B254" s="49"/>
       <c r="C254" s="48"/>
@@ -5330,7 +5330,7 @@
       <c r="F254" s="48"/>
       <c r="G254" s="48"/>
     </row>
-    <row r="255" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="49"/>
       <c r="B255" s="49"/>
       <c r="C255" s="48"/>
@@ -5339,7 +5339,7 @@
       <c r="F255" s="48"/>
       <c r="G255" s="48"/>
     </row>
-    <row r="256" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="49"/>
       <c r="B256" s="49"/>
       <c r="C256" s="48"/>
@@ -5348,7 +5348,7 @@
       <c r="F256" s="48"/>
       <c r="G256" s="48"/>
     </row>
-    <row r="257" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="49"/>
       <c r="B257" s="49"/>
       <c r="C257" s="48"/>
@@ -5357,7 +5357,7 @@
       <c r="F257" s="48"/>
       <c r="G257" s="48"/>
     </row>
-    <row r="258" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="49"/>
       <c r="B258" s="49"/>
       <c r="C258" s="48"/>
@@ -5366,7 +5366,7 @@
       <c r="F258" s="48"/>
       <c r="G258" s="48"/>
     </row>
-    <row r="259" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="49"/>
       <c r="B259" s="49"/>
       <c r="C259" s="48"/>
@@ -5375,7 +5375,7 @@
       <c r="F259" s="48"/>
       <c r="G259" s="48"/>
     </row>
-    <row r="260" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="49"/>
       <c r="B260" s="49"/>
       <c r="C260" s="48"/>
@@ -5384,7 +5384,7 @@
       <c r="F260" s="48"/>
       <c r="G260" s="48"/>
     </row>
-    <row r="261" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="49"/>
       <c r="B261" s="49"/>
       <c r="C261" s="48"/>
@@ -5393,7 +5393,7 @@
       <c r="F261" s="48"/>
       <c r="G261" s="48"/>
     </row>
-    <row r="262" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="49"/>
       <c r="B262" s="49"/>
       <c r="C262" s="48"/>
@@ -5402,7 +5402,7 @@
       <c r="F262" s="48"/>
       <c r="G262" s="48"/>
     </row>
-    <row r="263" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="49"/>
       <c r="B263" s="49"/>
       <c r="C263" s="48"/>
@@ -5411,7 +5411,7 @@
       <c r="F263" s="48"/>
       <c r="G263" s="48"/>
     </row>
-    <row r="264" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="49"/>
       <c r="B264" s="49"/>
       <c r="C264" s="48"/>
@@ -5420,7 +5420,7 @@
       <c r="F264" s="48"/>
       <c r="G264" s="48"/>
     </row>
-    <row r="265" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="49"/>
       <c r="B265" s="49"/>
       <c r="C265" s="48"/>
@@ -5429,7 +5429,7 @@
       <c r="F265" s="48"/>
       <c r="G265" s="48"/>
     </row>
-    <row r="266" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="49"/>
       <c r="B266" s="49"/>
       <c r="C266" s="48"/>
@@ -5438,7 +5438,7 @@
       <c r="F266" s="48"/>
       <c r="G266" s="48"/>
     </row>
-    <row r="267" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="49"/>
       <c r="B267" s="49"/>
       <c r="C267" s="48"/>
@@ -5447,7 +5447,7 @@
       <c r="F267" s="48"/>
       <c r="G267" s="48"/>
     </row>
-    <row r="268" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="49"/>
       <c r="B268" s="49"/>
       <c r="C268" s="48"/>
@@ -5456,7 +5456,7 @@
       <c r="F268" s="48"/>
       <c r="G268" s="48"/>
     </row>
-    <row r="269" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="49"/>
       <c r="B269" s="49"/>
       <c r="C269" s="48"/>
@@ -5465,7 +5465,7 @@
       <c r="F269" s="48"/>
       <c r="G269" s="48"/>
     </row>
-    <row r="270" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="49"/>
       <c r="B270" s="49"/>
       <c r="C270" s="48"/>
@@ -5474,7 +5474,7 @@
       <c r="F270" s="48"/>
       <c r="G270" s="48"/>
     </row>
-    <row r="271" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="49"/>
       <c r="B271" s="49"/>
       <c r="C271" s="48"/>
@@ -5483,7 +5483,7 @@
       <c r="F271" s="48"/>
       <c r="G271" s="48"/>
     </row>
-    <row r="272" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="49"/>
       <c r="B272" s="49"/>
       <c r="C272" s="48"/>
@@ -5492,7 +5492,7 @@
       <c r="F272" s="48"/>
       <c r="G272" s="48"/>
     </row>
-    <row r="273" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="49"/>
       <c r="B273" s="49"/>
       <c r="C273" s="48"/>
@@ -5501,7 +5501,7 @@
       <c r="F273" s="48"/>
       <c r="G273" s="48"/>
     </row>
-    <row r="274" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="49"/>
       <c r="B274" s="49"/>
       <c r="C274" s="48"/>
@@ -5510,7 +5510,7 @@
       <c r="F274" s="48"/>
       <c r="G274" s="48"/>
     </row>
-    <row r="275" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="49"/>
       <c r="B275" s="49"/>
       <c r="C275" s="48"/>
@@ -5519,7 +5519,7 @@
       <c r="F275" s="48"/>
       <c r="G275" s="48"/>
     </row>
-    <row r="276" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="49"/>
       <c r="B276" s="49"/>
       <c r="C276" s="48"/>
@@ -5528,7 +5528,7 @@
       <c r="F276" s="48"/>
       <c r="G276" s="48"/>
     </row>
-    <row r="277" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="49"/>
       <c r="B277" s="49"/>
       <c r="C277" s="48"/>
@@ -5537,7 +5537,7 @@
       <c r="F277" s="48"/>
       <c r="G277" s="48"/>
     </row>
-    <row r="278" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="49"/>
       <c r="B278" s="49"/>
       <c r="C278" s="48"/>
@@ -5546,7 +5546,7 @@
       <c r="F278" s="48"/>
       <c r="G278" s="48"/>
     </row>
-    <row r="279" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="49"/>
       <c r="B279" s="49"/>
       <c r="C279" s="48"/>
@@ -5555,7 +5555,7 @@
       <c r="F279" s="48"/>
       <c r="G279" s="48"/>
     </row>
-    <row r="280" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="49"/>
       <c r="B280" s="49"/>
       <c r="C280" s="48"/>
@@ -5564,7 +5564,7 @@
       <c r="F280" s="48"/>
       <c r="G280" s="48"/>
     </row>
-    <row r="281" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="49"/>
       <c r="B281" s="49"/>
       <c r="C281" s="48"/>
@@ -5573,7 +5573,7 @@
       <c r="F281" s="48"/>
       <c r="G281" s="48"/>
     </row>
-    <row r="282" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="49"/>
       <c r="B282" s="49"/>
       <c r="C282" s="48"/>
@@ -5582,7 +5582,7 @@
       <c r="F282" s="48"/>
       <c r="G282" s="48"/>
     </row>
-    <row r="283" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="49"/>
       <c r="B283" s="49"/>
       <c r="C283" s="48"/>
@@ -5591,7 +5591,7 @@
       <c r="F283" s="48"/>
       <c r="G283" s="48"/>
     </row>
-    <row r="284" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="49"/>
       <c r="B284" s="49"/>
       <c r="C284" s="48"/>
@@ -5600,7 +5600,7 @@
       <c r="F284" s="48"/>
       <c r="G284" s="48"/>
     </row>
-    <row r="285" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="49"/>
       <c r="B285" s="49"/>
       <c r="C285" s="48"/>
@@ -5609,7 +5609,7 @@
       <c r="F285" s="48"/>
       <c r="G285" s="48"/>
     </row>
-    <row r="286" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="49"/>
       <c r="B286" s="49"/>
       <c r="C286" s="48"/>
@@ -5618,7 +5618,7 @@
       <c r="F286" s="48"/>
       <c r="G286" s="48"/>
     </row>
-    <row r="287" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="49"/>
       <c r="B287" s="49"/>
       <c r="C287" s="48"/>
@@ -5627,7 +5627,7 @@
       <c r="F287" s="48"/>
       <c r="G287" s="48"/>
     </row>
-    <row r="288" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="49"/>
       <c r="B288" s="49"/>
       <c r="C288" s="48"/>
@@ -5636,7 +5636,7 @@
       <c r="F288" s="48"/>
       <c r="G288" s="48"/>
     </row>
-    <row r="289" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="49"/>
       <c r="B289" s="49"/>
       <c r="C289" s="48"/>
@@ -5645,7 +5645,7 @@
       <c r="F289" s="48"/>
       <c r="G289" s="48"/>
     </row>
-    <row r="290" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="49"/>
       <c r="B290" s="49"/>
       <c r="C290" s="48"/>
@@ -5654,7 +5654,7 @@
       <c r="F290" s="48"/>
       <c r="G290" s="48"/>
     </row>
-    <row r="291" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="49"/>
       <c r="B291" s="49"/>
       <c r="C291" s="48"/>
@@ -5663,7 +5663,7 @@
       <c r="F291" s="48"/>
       <c r="G291" s="48"/>
     </row>
-    <row r="292" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="49"/>
       <c r="B292" s="49"/>
       <c r="C292" s="48"/>
@@ -5672,7 +5672,7 @@
       <c r="F292" s="48"/>
       <c r="G292" s="48"/>
     </row>
-    <row r="293" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="49"/>
       <c r="B293" s="49"/>
       <c r="C293" s="48"/>
@@ -5681,7 +5681,7 @@
       <c r="F293" s="48"/>
       <c r="G293" s="48"/>
     </row>
-    <row r="294" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="49"/>
       <c r="B294" s="49"/>
       <c r="C294" s="48"/>
@@ -5690,7 +5690,7 @@
       <c r="F294" s="48"/>
       <c r="G294" s="48"/>
     </row>
-    <row r="295" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="49"/>
       <c r="B295" s="49"/>
       <c r="C295" s="48"/>
@@ -5699,7 +5699,7 @@
       <c r="F295" s="48"/>
       <c r="G295" s="48"/>
     </row>
-    <row r="296" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="49"/>
       <c r="B296" s="49"/>
       <c r="C296" s="48"/>
@@ -5708,7 +5708,7 @@
       <c r="F296" s="48"/>
       <c r="G296" s="48"/>
     </row>
-    <row r="297" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="49"/>
       <c r="B297" s="49"/>
       <c r="C297" s="48"/>
@@ -5717,7 +5717,7 @@
       <c r="F297" s="48"/>
       <c r="G297" s="48"/>
     </row>
-    <row r="298" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="49"/>
       <c r="B298" s="49"/>
       <c r="C298" s="48"/>
@@ -5726,7 +5726,7 @@
       <c r="F298" s="48"/>
       <c r="G298" s="48"/>
     </row>
-    <row r="299" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="49"/>
       <c r="B299" s="49"/>
       <c r="C299" s="48"/>
@@ -5735,7 +5735,7 @@
       <c r="F299" s="48"/>
       <c r="G299" s="48"/>
     </row>
-    <row r="300" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="49"/>
       <c r="B300" s="49"/>
       <c r="C300" s="48"/>
@@ -5744,7 +5744,7 @@
       <c r="F300" s="48"/>
       <c r="G300" s="48"/>
     </row>
-    <row r="301" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="49"/>
       <c r="B301" s="49"/>
       <c r="C301" s="48"/>
@@ -5753,7 +5753,7 @@
       <c r="F301" s="48"/>
       <c r="G301" s="48"/>
     </row>
-    <row r="302" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="49"/>
       <c r="B302" s="49"/>
       <c r="C302" s="48"/>
@@ -5762,7 +5762,7 @@
       <c r="F302" s="48"/>
       <c r="G302" s="48"/>
     </row>
-    <row r="303" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="49"/>
       <c r="B303" s="49"/>
       <c r="C303" s="48"/>
@@ -5771,7 +5771,7 @@
       <c r="F303" s="48"/>
       <c r="G303" s="48"/>
     </row>
-    <row r="304" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="49"/>
       <c r="B304" s="49"/>
       <c r="C304" s="48"/>
@@ -5780,7 +5780,7 @@
       <c r="F304" s="48"/>
       <c r="G304" s="48"/>
     </row>
-    <row r="305" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="49"/>
       <c r="B305" s="49"/>
       <c r="C305" s="48"/>
@@ -5789,7 +5789,7 @@
       <c r="F305" s="48"/>
       <c r="G305" s="48"/>
     </row>
-    <row r="306" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="49"/>
       <c r="B306" s="49"/>
       <c r="C306" s="48"/>
@@ -5798,7 +5798,7 @@
       <c r="F306" s="48"/>
       <c r="G306" s="48"/>
     </row>
-    <row r="307" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="49"/>
       <c r="B307" s="49"/>
       <c r="C307" s="48"/>
@@ -5807,7 +5807,7 @@
       <c r="F307" s="48"/>
       <c r="G307" s="48"/>
     </row>
-    <row r="308" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="49"/>
       <c r="B308" s="49"/>
       <c r="C308" s="48"/>
@@ -5816,7 +5816,7 @@
       <c r="F308" s="48"/>
       <c r="G308" s="48"/>
     </row>
-    <row r="309" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="49"/>
       <c r="B309" s="49"/>
       <c r="C309" s="48"/>
@@ -5825,7 +5825,7 @@
       <c r="F309" s="48"/>
       <c r="G309" s="48"/>
     </row>
-    <row r="310" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="49"/>
       <c r="B310" s="49"/>
       <c r="C310" s="48"/>
@@ -5834,7 +5834,7 @@
       <c r="F310" s="48"/>
       <c r="G310" s="48"/>
     </row>
-    <row r="311" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="49"/>
       <c r="B311" s="49"/>
       <c r="C311" s="48"/>
@@ -5843,7 +5843,7 @@
       <c r="F311" s="48"/>
       <c r="G311" s="48"/>
     </row>
-    <row r="312" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="49"/>
       <c r="B312" s="49"/>
       <c r="C312" s="48"/>
@@ -5852,7 +5852,7 @@
       <c r="F312" s="48"/>
       <c r="G312" s="48"/>
     </row>
-    <row r="313" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="49"/>
       <c r="B313" s="49"/>
       <c r="C313" s="48"/>
@@ -5861,7 +5861,7 @@
       <c r="F313" s="48"/>
       <c r="G313" s="48"/>
     </row>
-    <row r="314" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="49"/>
       <c r="B314" s="49"/>
       <c r="C314" s="48"/>
@@ -5870,7 +5870,7 @@
       <c r="F314" s="48"/>
       <c r="G314" s="48"/>
     </row>
-    <row r="315" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="49"/>
       <c r="B315" s="49"/>
       <c r="C315" s="48"/>
@@ -5879,7 +5879,7 @@
       <c r="F315" s="48"/>
       <c r="G315" s="48"/>
     </row>
-    <row r="316" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="49"/>
       <c r="B316" s="49"/>
       <c r="C316" s="48"/>
@@ -5888,7 +5888,7 @@
       <c r="F316" s="48"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="49"/>
       <c r="B317" s="49"/>
       <c r="C317" s="48"/>
@@ -5897,7 +5897,7 @@
       <c r="F317" s="48"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="49"/>
       <c r="B318" s="49"/>
       <c r="C318" s="48"/>
@@ -5906,7 +5906,7 @@
       <c r="F318" s="48"/>
       <c r="G318" s="48"/>
     </row>
-    <row r="319" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="49"/>
       <c r="B319" s="49"/>
       <c r="C319" s="48"/>
@@ -5915,7 +5915,7 @@
       <c r="F319" s="48"/>
       <c r="G319" s="48"/>
     </row>
-    <row r="320" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="49"/>
       <c r="B320" s="49"/>
       <c r="C320" s="48"/>
@@ -5924,7 +5924,7 @@
       <c r="F320" s="48"/>
       <c r="G320" s="48"/>
     </row>
-    <row r="321" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="49"/>
       <c r="B321" s="49"/>
       <c r="C321" s="48"/>
@@ -5933,7 +5933,7 @@
       <c r="F321" s="48"/>
       <c r="G321" s="48"/>
     </row>
-    <row r="322" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="49"/>
       <c r="B322" s="49"/>
       <c r="C322" s="48"/>
@@ -5942,7 +5942,7 @@
       <c r="F322" s="48"/>
       <c r="G322" s="48"/>
     </row>
-    <row r="323" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="49"/>
       <c r="B323" s="49"/>
       <c r="C323" s="48"/>
@@ -5951,7 +5951,7 @@
       <c r="F323" s="48"/>
       <c r="G323" s="48"/>
     </row>
-    <row r="324" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="49"/>
       <c r="B324" s="49"/>
       <c r="C324" s="48"/>
@@ -5960,7 +5960,7 @@
       <c r="F324" s="48"/>
       <c r="G324" s="48"/>
     </row>
-    <row r="325" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="49"/>
       <c r="B325" s="49"/>
       <c r="C325" s="48"/>
@@ -5969,7 +5969,7 @@
       <c r="F325" s="48"/>
       <c r="G325" s="48"/>
     </row>
-    <row r="326" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="49"/>
       <c r="B326" s="49"/>
       <c r="C326" s="48"/>
@@ -5978,7 +5978,7 @@
       <c r="F326" s="48"/>
       <c r="G326" s="48"/>
     </row>
-    <row r="327" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="49"/>
       <c r="B327" s="49"/>
       <c r="C327" s="48"/>
@@ -5987,7 +5987,7 @@
       <c r="F327" s="48"/>
       <c r="G327" s="48"/>
     </row>
-    <row r="328" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="49"/>
       <c r="B328" s="49"/>
       <c r="C328" s="48"/>
@@ -5996,7 +5996,7 @@
       <c r="F328" s="48"/>
       <c r="G328" s="48"/>
     </row>
-    <row r="329" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="49"/>
       <c r="B329" s="49"/>
       <c r="C329" s="48"/>
@@ -6005,7 +6005,7 @@
       <c r="F329" s="48"/>
       <c r="G329" s="48"/>
     </row>
-    <row r="330" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="49"/>
       <c r="B330" s="49"/>
       <c r="C330" s="48"/>
@@ -6014,7 +6014,7 @@
       <c r="F330" s="48"/>
       <c r="G330" s="48"/>
     </row>
-    <row r="331" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="49"/>
       <c r="B331" s="49"/>
       <c r="C331" s="48"/>
@@ -6023,7 +6023,7 @@
       <c r="F331" s="48"/>
       <c r="G331" s="48"/>
     </row>
-    <row r="332" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="49"/>
       <c r="B332" s="49"/>
       <c r="C332" s="48"/>
@@ -6032,7 +6032,7 @@
       <c r="F332" s="48"/>
       <c r="G332" s="48"/>
     </row>
-    <row r="333" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="49"/>
       <c r="B333" s="49"/>
       <c r="C333" s="48"/>
@@ -6041,7 +6041,7 @@
       <c r="F333" s="48"/>
       <c r="G333" s="48"/>
     </row>
-    <row r="334" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="49"/>
       <c r="B334" s="49"/>
       <c r="C334" s="48"/>
@@ -6050,7 +6050,7 @@
       <c r="F334" s="48"/>
       <c r="G334" s="48"/>
     </row>
-    <row r="335" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="49"/>
       <c r="B335" s="49"/>
       <c r="C335" s="48"/>
@@ -6059,7 +6059,7 @@
       <c r="F335" s="48"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="49"/>
       <c r="B336" s="49"/>
       <c r="C336" s="48"/>
@@ -6068,7 +6068,7 @@
       <c r="F336" s="48"/>
       <c r="G336" s="48"/>
     </row>
-    <row r="337" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="49"/>
       <c r="B337" s="49"/>
       <c r="C337" s="48"/>
@@ -6077,7 +6077,7 @@
       <c r="F337" s="48"/>
       <c r="G337" s="48"/>
     </row>
-    <row r="338" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="49"/>
       <c r="B338" s="49"/>
       <c r="C338" s="48"/>
@@ -6086,7 +6086,7 @@
       <c r="F338" s="48"/>
       <c r="G338" s="48"/>
     </row>
-    <row r="339" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="49"/>
       <c r="B339" s="49"/>
       <c r="C339" s="48"/>
@@ -6095,7 +6095,7 @@
       <c r="F339" s="48"/>
       <c r="G339" s="48"/>
     </row>
-    <row r="340" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="49"/>
       <c r="B340" s="49"/>
       <c r="C340" s="48"/>
@@ -6104,7 +6104,7 @@
       <c r="F340" s="48"/>
       <c r="G340" s="48"/>
     </row>
-    <row r="341" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="49"/>
       <c r="B341" s="49"/>
       <c r="C341" s="48"/>
@@ -6113,7 +6113,7 @@
       <c r="F341" s="48"/>
       <c r="G341" s="48"/>
     </row>
-    <row r="342" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="49"/>
       <c r="B342" s="49"/>
       <c r="C342" s="48"/>
@@ -6122,7 +6122,7 @@
       <c r="F342" s="48"/>
       <c r="G342" s="48"/>
     </row>
-    <row r="343" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="49"/>
       <c r="B343" s="49"/>
       <c r="C343" s="48"/>
@@ -6131,7 +6131,7 @@
       <c r="F343" s="48"/>
       <c r="G343" s="48"/>
     </row>
-    <row r="344" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="49"/>
       <c r="B344" s="49"/>
       <c r="C344" s="48"/>
@@ -6140,7 +6140,7 @@
       <c r="F344" s="48"/>
       <c r="G344" s="48"/>
     </row>
-    <row r="345" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="49"/>
       <c r="B345" s="49"/>
       <c r="C345" s="48"/>
@@ -6149,7 +6149,7 @@
       <c r="F345" s="48"/>
       <c r="G345" s="48"/>
     </row>
-    <row r="346" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="49"/>
       <c r="B346" s="49"/>
       <c r="C346" s="48"/>
@@ -6158,7 +6158,7 @@
       <c r="F346" s="48"/>
       <c r="G346" s="48"/>
     </row>
-    <row r="347" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="49"/>
       <c r="B347" s="49"/>
       <c r="C347" s="48"/>
@@ -6167,7 +6167,7 @@
       <c r="F347" s="48"/>
       <c r="G347" s="48"/>
     </row>
-    <row r="348" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="49"/>
       <c r="B348" s="49"/>
       <c r="C348" s="48"/>
@@ -6176,7 +6176,7 @@
       <c r="F348" s="48"/>
       <c r="G348" s="48"/>
     </row>
-    <row r="349" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="49"/>
       <c r="B349" s="49"/>
       <c r="C349" s="48"/>
@@ -6185,7 +6185,7 @@
       <c r="F349" s="48"/>
       <c r="G349" s="48"/>
     </row>
-    <row r="350" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="49"/>
       <c r="B350" s="49"/>
       <c r="C350" s="48"/>
@@ -6194,7 +6194,7 @@
       <c r="F350" s="48"/>
       <c r="G350" s="48"/>
     </row>
-    <row r="351" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="49"/>
       <c r="B351" s="49"/>
       <c r="C351" s="48"/>
@@ -6203,7 +6203,7 @@
       <c r="F351" s="48"/>
       <c r="G351" s="48"/>
     </row>
-    <row r="352" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="49"/>
       <c r="B352" s="49"/>
       <c r="C352" s="48"/>
@@ -6212,7 +6212,7 @@
       <c r="F352" s="48"/>
       <c r="G352" s="48"/>
     </row>
-    <row r="353" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="49"/>
       <c r="B353" s="49"/>
       <c r="C353" s="48"/>
@@ -6221,7 +6221,7 @@
       <c r="F353" s="48"/>
       <c r="G353" s="48"/>
     </row>
-    <row r="354" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="49"/>
       <c r="B354" s="49"/>
       <c r="C354" s="48"/>
@@ -6230,7 +6230,7 @@
       <c r="F354" s="48"/>
       <c r="G354" s="48"/>
     </row>
-    <row r="355" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="49"/>
       <c r="B355" s="49"/>
       <c r="C355" s="48"/>
@@ -6239,7 +6239,7 @@
       <c r="F355" s="48"/>
       <c r="G355" s="48"/>
     </row>
-    <row r="356" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="49"/>
       <c r="B356" s="49"/>
       <c r="C356" s="48"/>
@@ -6248,7 +6248,7 @@
       <c r="F356" s="48"/>
       <c r="G356" s="48"/>
     </row>
-    <row r="357" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="49"/>
       <c r="B357" s="49"/>
       <c r="C357" s="48"/>
@@ -6257,7 +6257,7 @@
       <c r="F357" s="48"/>
       <c r="G357" s="48"/>
     </row>
-    <row r="358" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="49"/>
       <c r="B358" s="49"/>
       <c r="C358" s="48"/>
@@ -6266,7 +6266,7 @@
       <c r="F358" s="48"/>
       <c r="G358" s="48"/>
     </row>
-    <row r="359" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="49"/>
       <c r="B359" s="49"/>
       <c r="C359" s="48"/>
@@ -6275,7 +6275,7 @@
       <c r="F359" s="48"/>
       <c r="G359" s="48"/>
     </row>
-    <row r="360" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="49"/>
       <c r="B360" s="49"/>
       <c r="C360" s="48"/>
@@ -6284,7 +6284,7 @@
       <c r="F360" s="48"/>
       <c r="G360" s="48"/>
     </row>
-    <row r="361" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="49"/>
       <c r="B361" s="49"/>
       <c r="C361" s="48"/>
@@ -6293,7 +6293,7 @@
       <c r="F361" s="48"/>
       <c r="G361" s="48"/>
     </row>
-    <row r="362" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="49"/>
       <c r="B362" s="49"/>
       <c r="C362" s="48"/>
@@ -6302,7 +6302,7 @@
       <c r="F362" s="48"/>
       <c r="G362" s="48"/>
     </row>
-    <row r="363" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="49"/>
       <c r="B363" s="49"/>
       <c r="C363" s="48"/>
@@ -6311,7 +6311,7 @@
       <c r="F363" s="48"/>
       <c r="G363" s="48"/>
     </row>
-    <row r="364" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="49"/>
       <c r="B364" s="49"/>
       <c r="C364" s="48"/>
@@ -6320,7 +6320,7 @@
       <c r="F364" s="48"/>
       <c r="G364" s="48"/>
     </row>
-    <row r="365" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="49"/>
       <c r="B365" s="49"/>
       <c r="C365" s="48"/>
@@ -6329,7 +6329,7 @@
       <c r="F365" s="48"/>
       <c r="G365" s="48"/>
     </row>
-    <row r="366" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="49"/>
       <c r="B366" s="49"/>
       <c r="C366" s="48"/>
@@ -6338,7 +6338,7 @@
       <c r="F366" s="48"/>
       <c r="G366" s="48"/>
     </row>
-    <row r="367" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="49"/>
       <c r="B367" s="49"/>
       <c r="C367" s="48"/>
@@ -6347,7 +6347,7 @@
       <c r="F367" s="48"/>
       <c r="G367" s="48"/>
     </row>
-    <row r="368" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="49"/>
       <c r="B368" s="49"/>
       <c r="C368" s="48"/>
@@ -6356,7 +6356,7 @@
       <c r="F368" s="48"/>
       <c r="G368" s="48"/>
     </row>
-    <row r="369" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="49"/>
       <c r="B369" s="49"/>
       <c r="C369" s="48"/>
@@ -6365,7 +6365,7 @@
       <c r="F369" s="48"/>
       <c r="G369" s="48"/>
     </row>
-    <row r="370" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="49"/>
       <c r="B370" s="49"/>
       <c r="C370" s="48"/>
@@ -6374,7 +6374,7 @@
       <c r="F370" s="48"/>
       <c r="G370" s="48"/>
     </row>
-    <row r="371" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="49"/>
       <c r="B371" s="49"/>
       <c r="C371" s="48"/>
@@ -6383,7 +6383,7 @@
       <c r="F371" s="48"/>
       <c r="G371" s="48"/>
     </row>
-    <row r="372" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="49"/>
       <c r="B372" s="49"/>
       <c r="C372" s="48"/>
@@ -6392,7 +6392,7 @@
       <c r="F372" s="48"/>
       <c r="G372" s="48"/>
     </row>
-    <row r="373" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="49"/>
       <c r="B373" s="49"/>
       <c r="C373" s="48"/>
@@ -6401,7 +6401,7 @@
       <c r="F373" s="48"/>
       <c r="G373" s="48"/>
     </row>
-    <row r="374" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="49"/>
       <c r="B374" s="49"/>
       <c r="C374" s="48"/>
@@ -6410,7 +6410,7 @@
       <c r="F374" s="48"/>
       <c r="G374" s="48"/>
     </row>
-    <row r="375" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="49"/>
       <c r="B375" s="49"/>
       <c r="C375" s="48"/>
@@ -6419,7 +6419,7 @@
       <c r="F375" s="48"/>
       <c r="G375" s="48"/>
     </row>
-    <row r="376" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="49"/>
       <c r="B376" s="49"/>
       <c r="C376" s="48"/>
@@ -6428,7 +6428,7 @@
       <c r="F376" s="48"/>
       <c r="G376" s="48"/>
     </row>
-    <row r="377" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="49"/>
       <c r="B377" s="49"/>
       <c r="C377" s="48"/>
@@ -6437,7 +6437,7 @@
       <c r="F377" s="48"/>
       <c r="G377" s="48"/>
     </row>
-    <row r="378" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="49"/>
       <c r="B378" s="49"/>
       <c r="C378" s="48"/>
@@ -6446,7 +6446,7 @@
       <c r="F378" s="48"/>
       <c r="G378" s="48"/>
     </row>
-    <row r="379" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="49"/>
       <c r="B379" s="49"/>
       <c r="C379" s="48"/>
@@ -6455,7 +6455,7 @@
       <c r="F379" s="48"/>
       <c r="G379" s="48"/>
     </row>
-    <row r="380" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="49"/>
       <c r="B380" s="49"/>
       <c r="C380" s="48"/>
@@ -6464,7 +6464,7 @@
       <c r="F380" s="48"/>
       <c r="G380" s="48"/>
     </row>
-    <row r="381" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="49"/>
       <c r="B381" s="49"/>
       <c r="C381" s="48"/>
@@ -6473,7 +6473,7 @@
       <c r="F381" s="48"/>
       <c r="G381" s="48"/>
     </row>
-    <row r="382" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="49"/>
       <c r="B382" s="49"/>
       <c r="C382" s="48"/>
@@ -6482,7 +6482,7 @@
       <c r="F382" s="48"/>
       <c r="G382" s="48"/>
     </row>
-    <row r="383" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="49"/>
       <c r="B383" s="49"/>
       <c r="C383" s="48"/>
@@ -6491,7 +6491,7 @@
       <c r="F383" s="48"/>
       <c r="G383" s="48"/>
     </row>
-    <row r="384" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="49"/>
       <c r="B384" s="49"/>
       <c r="C384" s="48"/>
@@ -6500,7 +6500,7 @@
       <c r="F384" s="48"/>
       <c r="G384" s="48"/>
     </row>
-    <row r="385" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="49"/>
       <c r="B385" s="49"/>
       <c r="C385" s="48"/>
@@ -6509,7 +6509,7 @@
       <c r="F385" s="48"/>
       <c r="G385" s="48"/>
     </row>
-    <row r="386" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="49"/>
       <c r="B386" s="49"/>
       <c r="C386" s="48"/>
@@ -6518,7 +6518,7 @@
       <c r="F386" s="48"/>
       <c r="G386" s="48"/>
     </row>
-    <row r="387" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="49"/>
       <c r="B387" s="49"/>
       <c r="C387" s="48"/>
@@ -6527,7 +6527,7 @@
       <c r="F387" s="48"/>
       <c r="G387" s="48"/>
     </row>
-    <row r="388" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="49"/>
       <c r="B388" s="49"/>
       <c r="C388" s="48"/>
@@ -6536,7 +6536,7 @@
       <c r="F388" s="48"/>
       <c r="G388" s="48"/>
     </row>
-    <row r="389" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="49"/>
       <c r="B389" s="49"/>
       <c r="C389" s="48"/>
@@ -6545,7 +6545,7 @@
       <c r="F389" s="48"/>
       <c r="G389" s="48"/>
     </row>
-    <row r="390" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="49"/>
       <c r="B390" s="49"/>
       <c r="C390" s="48"/>
@@ -6554,7 +6554,7 @@
       <c r="F390" s="48"/>
       <c r="G390" s="48"/>
     </row>
-    <row r="391" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="49"/>
       <c r="B391" s="49"/>
       <c r="C391" s="48"/>
@@ -6563,7 +6563,7 @@
       <c r="F391" s="48"/>
       <c r="G391" s="48"/>
     </row>
-    <row r="392" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="49"/>
       <c r="B392" s="49"/>
       <c r="C392" s="48"/>
@@ -6572,7 +6572,7 @@
       <c r="F392" s="48"/>
       <c r="G392" s="48"/>
     </row>
-    <row r="393" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="49"/>
       <c r="B393" s="49"/>
       <c r="C393" s="48"/>
@@ -6581,7 +6581,7 @@
       <c r="F393" s="48"/>
       <c r="G393" s="48"/>
     </row>
-    <row r="394" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="49"/>
       <c r="B394" s="49"/>
       <c r="C394" s="48"/>
@@ -6590,7 +6590,7 @@
       <c r="F394" s="48"/>
       <c r="G394" s="48"/>
     </row>
-    <row r="395" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="49"/>
       <c r="B395" s="49"/>
       <c r="C395" s="48"/>
@@ -6599,7 +6599,7 @@
       <c r="F395" s="48"/>
       <c r="G395" s="48"/>
     </row>
-    <row r="396" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="49"/>
       <c r="B396" s="49"/>
       <c r="C396" s="48"/>
@@ -6608,7 +6608,7 @@
       <c r="F396" s="48"/>
       <c r="G396" s="48"/>
     </row>
-    <row r="397" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="49"/>
       <c r="B397" s="49"/>
       <c r="C397" s="48"/>
@@ -6617,7 +6617,7 @@
       <c r="F397" s="48"/>
       <c r="G397" s="48"/>
     </row>
-    <row r="398" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="49"/>
       <c r="B398" s="49"/>
       <c r="C398" s="48"/>
@@ -6626,7 +6626,7 @@
       <c r="F398" s="48"/>
       <c r="G398" s="48"/>
     </row>
-    <row r="399" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="49"/>
       <c r="B399" s="49"/>
       <c r="C399" s="48"/>
@@ -6635,7 +6635,7 @@
       <c r="F399" s="48"/>
       <c r="G399" s="48"/>
     </row>
-    <row r="400" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="49"/>
       <c r="B400" s="49"/>
       <c r="C400" s="48"/>
@@ -6644,7 +6644,7 @@
       <c r="F400" s="48"/>
       <c r="G400" s="48"/>
     </row>
-    <row r="401" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="49"/>
       <c r="B401" s="49"/>
       <c r="C401" s="48"/>
@@ -6653,7 +6653,7 @@
       <c r="F401" s="48"/>
       <c r="G401" s="48"/>
     </row>
-    <row r="402" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="49"/>
       <c r="B402" s="49"/>
       <c r="C402" s="48"/>
@@ -6662,7 +6662,7 @@
       <c r="F402" s="48"/>
       <c r="G402" s="48"/>
     </row>
-    <row r="403" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="49"/>
       <c r="B403" s="49"/>
       <c r="C403" s="48"/>
@@ -6671,7 +6671,7 @@
       <c r="F403" s="48"/>
       <c r="G403" s="48"/>
     </row>
-    <row r="404" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="49"/>
       <c r="B404" s="49"/>
       <c r="C404" s="48"/>
@@ -6680,7 +6680,7 @@
       <c r="F404" s="48"/>
       <c r="G404" s="48"/>
     </row>
-    <row r="405" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="49"/>
       <c r="B405" s="49"/>
       <c r="C405" s="48"/>
@@ -6689,7 +6689,7 @@
       <c r="F405" s="48"/>
       <c r="G405" s="48"/>
     </row>
-    <row r="406" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="49"/>
       <c r="B406" s="49"/>
       <c r="C406" s="48"/>
@@ -6698,7 +6698,7 @@
       <c r="F406" s="48"/>
       <c r="G406" s="48"/>
     </row>
-    <row r="407" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="49"/>
       <c r="B407" s="49"/>
       <c r="C407" s="48"/>
@@ -6707,7 +6707,7 @@
       <c r="F407" s="48"/>
       <c r="G407" s="48"/>
     </row>
-    <row r="408" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="49"/>
       <c r="B408" s="49"/>
       <c r="C408" s="48"/>
@@ -6716,7 +6716,7 @@
       <c r="F408" s="48"/>
       <c r="G408" s="48"/>
     </row>
-    <row r="409" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="49"/>
       <c r="B409" s="49"/>
       <c r="C409" s="48"/>
@@ -6725,7 +6725,7 @@
       <c r="F409" s="48"/>
       <c r="G409" s="48"/>
     </row>
-    <row r="410" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="49"/>
       <c r="B410" s="49"/>
       <c r="C410" s="48"/>
@@ -6734,7 +6734,7 @@
       <c r="F410" s="48"/>
       <c r="G410" s="48"/>
     </row>
-    <row r="411" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="49"/>
       <c r="B411" s="49"/>
       <c r="C411" s="48"/>
@@ -6743,7 +6743,7 @@
       <c r="F411" s="48"/>
       <c r="G411" s="48"/>
     </row>
-    <row r="412" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="49"/>
       <c r="B412" s="49"/>
       <c r="C412" s="48"/>
@@ -6752,7 +6752,7 @@
       <c r="F412" s="48"/>
       <c r="G412" s="48"/>
     </row>
-    <row r="413" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="49"/>
       <c r="B413" s="49"/>
       <c r="C413" s="48"/>
@@ -6761,7 +6761,7 @@
       <c r="F413" s="48"/>
       <c r="G413" s="48"/>
     </row>
-    <row r="414" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="49"/>
       <c r="B414" s="49"/>
       <c r="C414" s="48"/>
@@ -6770,7 +6770,7 @@
       <c r="F414" s="48"/>
       <c r="G414" s="48"/>
     </row>
-    <row r="415" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="49"/>
       <c r="B415" s="49"/>
       <c r="C415" s="48"/>
@@ -6779,7 +6779,7 @@
       <c r="F415" s="48"/>
       <c r="G415" s="48"/>
     </row>
-    <row r="416" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="49"/>
       <c r="B416" s="49"/>
       <c r="C416" s="48"/>
@@ -6788,7 +6788,7 @@
       <c r="F416" s="48"/>
       <c r="G416" s="48"/>
     </row>
-    <row r="417" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="49"/>
       <c r="B417" s="49"/>
       <c r="C417" s="48"/>
@@ -6797,7 +6797,7 @@
       <c r="F417" s="48"/>
       <c r="G417" s="48"/>
     </row>
-    <row r="418" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="49"/>
       <c r="B418" s="49"/>
       <c r="C418" s="48"/>
@@ -6806,7 +6806,7 @@
       <c r="F418" s="48"/>
       <c r="G418" s="48"/>
     </row>
-    <row r="419" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="49"/>
       <c r="B419" s="49"/>
       <c r="C419" s="48"/>
@@ -6815,7 +6815,7 @@
       <c r="F419" s="48"/>
       <c r="G419" s="48"/>
     </row>
-    <row r="420" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="49"/>
       <c r="B420" s="49"/>
       <c r="C420" s="48"/>
@@ -6824,7 +6824,7 @@
       <c r="F420" s="48"/>
       <c r="G420" s="48"/>
     </row>
-    <row r="421" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="49"/>
       <c r="B421" s="49"/>
       <c r="C421" s="48"/>
@@ -6833,7 +6833,7 @@
       <c r="F421" s="48"/>
       <c r="G421" s="48"/>
     </row>
-    <row r="422" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="49"/>
       <c r="B422" s="49"/>
       <c r="C422" s="48"/>
@@ -6842,7 +6842,7 @@
       <c r="F422" s="48"/>
       <c r="G422" s="48"/>
     </row>
-    <row r="423" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="49"/>
       <c r="B423" s="49"/>
       <c r="C423" s="48"/>
@@ -6851,7 +6851,7 @@
       <c r="F423" s="48"/>
       <c r="G423" s="48"/>
     </row>
-    <row r="424" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="49"/>
       <c r="B424" s="49"/>
       <c r="C424" s="48"/>
@@ -6860,7 +6860,7 @@
       <c r="F424" s="48"/>
       <c r="G424" s="48"/>
     </row>
-    <row r="425" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="49"/>
       <c r="B425" s="49"/>
       <c r="C425" s="48"/>
@@ -6869,7 +6869,7 @@
       <c r="F425" s="48"/>
       <c r="G425" s="48"/>
     </row>
-    <row r="426" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="49"/>
       <c r="B426" s="49"/>
       <c r="C426" s="48"/>
@@ -6878,7 +6878,7 @@
       <c r="F426" s="48"/>
       <c r="G426" s="48"/>
     </row>
-    <row r="427" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="49"/>
       <c r="B427" s="49"/>
       <c r="C427" s="48"/>
@@ -6887,7 +6887,7 @@
       <c r="F427" s="48"/>
       <c r="G427" s="48"/>
     </row>
-    <row r="428" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="49"/>
       <c r="B428" s="49"/>
       <c r="C428" s="48"/>
@@ -6896,7 +6896,7 @@
       <c r="F428" s="48"/>
       <c r="G428" s="48"/>
     </row>
-    <row r="429" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="49"/>
       <c r="B429" s="49"/>
       <c r="C429" s="48"/>
@@ -6905,7 +6905,7 @@
       <c r="F429" s="48"/>
       <c r="G429" s="48"/>
     </row>
-    <row r="430" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="49"/>
       <c r="B430" s="49"/>
       <c r="C430" s="48"/>
@@ -6914,7 +6914,7 @@
       <c r="F430" s="48"/>
       <c r="G430" s="48"/>
     </row>
-    <row r="431" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="49"/>
       <c r="B431" s="49"/>
       <c r="C431" s="48"/>
@@ -6923,7 +6923,7 @@
       <c r="F431" s="48"/>
       <c r="G431" s="48"/>
     </row>
-    <row r="432" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="49"/>
       <c r="B432" s="49"/>
       <c r="C432" s="48"/>
@@ -6932,7 +6932,7 @@
       <c r="F432" s="48"/>
       <c r="G432" s="48"/>
     </row>
-    <row r="433" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="49"/>
       <c r="B433" s="49"/>
       <c r="C433" s="48"/>
@@ -6941,7 +6941,7 @@
       <c r="F433" s="48"/>
       <c r="G433" s="48"/>
     </row>
-    <row r="434" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="49"/>
       <c r="B434" s="49"/>
       <c r="C434" s="48"/>
@@ -6950,7 +6950,7 @@
       <c r="F434" s="48"/>
       <c r="G434" s="48"/>
     </row>
-    <row r="435" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="49"/>
       <c r="B435" s="49"/>
       <c r="C435" s="48"/>
@@ -6959,7 +6959,7 @@
       <c r="F435" s="48"/>
       <c r="G435" s="48"/>
     </row>
-    <row r="436" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="49"/>
       <c r="B436" s="49"/>
       <c r="C436" s="48"/>
@@ -6968,7 +6968,7 @@
       <c r="F436" s="48"/>
       <c r="G436" s="48"/>
     </row>
-    <row r="437" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="49"/>
       <c r="B437" s="49"/>
       <c r="C437" s="48"/>
@@ -6977,7 +6977,7 @@
       <c r="F437" s="48"/>
       <c r="G437" s="48"/>
     </row>
-    <row r="438" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="49"/>
       <c r="B438" s="49"/>
       <c r="C438" s="48"/>
@@ -6986,7 +6986,7 @@
       <c r="F438" s="48"/>
       <c r="G438" s="48"/>
     </row>
-    <row r="439" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="49"/>
       <c r="B439" s="49"/>
       <c r="C439" s="48"/>
@@ -6995,7 +6995,7 @@
       <c r="F439" s="48"/>
       <c r="G439" s="48"/>
     </row>
-    <row r="440" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="49"/>
       <c r="B440" s="49"/>
       <c r="C440" s="48"/>
@@ -7004,7 +7004,7 @@
       <c r="F440" s="48"/>
       <c r="G440" s="48"/>
     </row>
-    <row r="441" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="49"/>
       <c r="B441" s="49"/>
       <c r="C441" s="48"/>
@@ -7013,7 +7013,7 @@
       <c r="F441" s="48"/>
       <c r="G441" s="48"/>
     </row>
-    <row r="442" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="49"/>
       <c r="B442" s="49"/>
       <c r="C442" s="48"/>
@@ -7022,7 +7022,7 @@
       <c r="F442" s="48"/>
       <c r="G442" s="48"/>
     </row>
-    <row r="443" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="49"/>
       <c r="B443" s="49"/>
       <c r="C443" s="48"/>
@@ -7031,7 +7031,7 @@
       <c r="F443" s="48"/>
       <c r="G443" s="48"/>
     </row>
-    <row r="444" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="49"/>
       <c r="B444" s="49"/>
       <c r="C444" s="48"/>
@@ -7040,7 +7040,7 @@
       <c r="F444" s="48"/>
       <c r="G444" s="48"/>
     </row>
-    <row r="445" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="49"/>
       <c r="B445" s="49"/>
       <c r="C445" s="48"/>
@@ -7049,7 +7049,7 @@
       <c r="F445" s="48"/>
       <c r="G445" s="48"/>
     </row>
-    <row r="446" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="49"/>
       <c r="B446" s="49"/>
       <c r="C446" s="48"/>
@@ -7058,7 +7058,7 @@
       <c r="F446" s="48"/>
       <c r="G446" s="48"/>
     </row>
-    <row r="447" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="49"/>
       <c r="B447" s="49"/>
       <c r="C447" s="48"/>
@@ -7067,7 +7067,7 @@
       <c r="F447" s="48"/>
       <c r="G447" s="48"/>
     </row>
-    <row r="448" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="49"/>
       <c r="B448" s="49"/>
       <c r="C448" s="48"/>
@@ -7076,7 +7076,7 @@
       <c r="F448" s="48"/>
       <c r="G448" s="48"/>
     </row>
-    <row r="449" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="49"/>
       <c r="B449" s="49"/>
       <c r="C449" s="48"/>
@@ -7085,7 +7085,7 @@
       <c r="F449" s="48"/>
       <c r="G449" s="48"/>
     </row>
-    <row r="450" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="49"/>
       <c r="B450" s="49"/>
       <c r="C450" s="48"/>
@@ -7094,7 +7094,7 @@
       <c r="F450" s="48"/>
       <c r="G450" s="48"/>
     </row>
-    <row r="451" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="49"/>
       <c r="B451" s="49"/>
       <c r="C451" s="48"/>
@@ -7103,7 +7103,7 @@
       <c r="F451" s="48"/>
       <c r="G451" s="48"/>
     </row>
-    <row r="452" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="49"/>
       <c r="B452" s="49"/>
       <c r="C452" s="48"/>
@@ -7112,7 +7112,7 @@
       <c r="F452" s="48"/>
       <c r="G452" s="48"/>
     </row>
-    <row r="453" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="49"/>
       <c r="B453" s="49"/>
       <c r="C453" s="48"/>
@@ -7121,7 +7121,7 @@
       <c r="F453" s="48"/>
       <c r="G453" s="48"/>
     </row>
-    <row r="454" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="49"/>
       <c r="B454" s="49"/>
       <c r="C454" s="48"/>
@@ -7130,7 +7130,7 @@
       <c r="F454" s="48"/>
       <c r="G454" s="48"/>
     </row>
-    <row r="455" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="49"/>
       <c r="B455" s="49"/>
       <c r="C455" s="48"/>
@@ -7139,7 +7139,7 @@
       <c r="F455" s="48"/>
       <c r="G455" s="48"/>
     </row>
-    <row r="456" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="49"/>
       <c r="B456" s="49"/>
       <c r="C456" s="48"/>
@@ -7148,7 +7148,7 @@
       <c r="F456" s="48"/>
       <c r="G456" s="48"/>
     </row>
-    <row r="457" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="49"/>
       <c r="B457" s="49"/>
       <c r="C457" s="48"/>
@@ -7157,7 +7157,7 @@
       <c r="F457" s="48"/>
       <c r="G457" s="48"/>
     </row>
-    <row r="458" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="49"/>
       <c r="B458" s="49"/>
       <c r="C458" s="48"/>
@@ -7166,7 +7166,7 @@
       <c r="F458" s="48"/>
       <c r="G458" s="48"/>
     </row>
-    <row r="459" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="49"/>
       <c r="B459" s="49"/>
       <c r="C459" s="48"/>
@@ -7175,7 +7175,7 @@
       <c r="F459" s="48"/>
       <c r="G459" s="48"/>
     </row>
-    <row r="460" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="49"/>
       <c r="B460" s="49"/>
       <c r="C460" s="48"/>
@@ -7184,7 +7184,7 @@
       <c r="F460" s="48"/>
       <c r="G460" s="48"/>
     </row>
-    <row r="461" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="49"/>
       <c r="B461" s="49"/>
       <c r="C461" s="48"/>
@@ -7193,7 +7193,7 @@
       <c r="F461" s="48"/>
       <c r="G461" s="48"/>
     </row>
-    <row r="462" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="49"/>
       <c r="B462" s="49"/>
       <c r="C462" s="48"/>
@@ -7202,7 +7202,7 @@
       <c r="F462" s="48"/>
       <c r="G462" s="48"/>
     </row>
-    <row r="463" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="49"/>
       <c r="B463" s="49"/>
       <c r="C463" s="48"/>
@@ -7211,7 +7211,7 @@
       <c r="F463" s="48"/>
       <c r="G463" s="48"/>
     </row>
-    <row r="464" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="49"/>
       <c r="B464" s="49"/>
       <c r="C464" s="48"/>
@@ -7220,7 +7220,7 @@
       <c r="F464" s="48"/>
       <c r="G464" s="48"/>
     </row>
-    <row r="465" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="49"/>
       <c r="B465" s="49"/>
       <c r="C465" s="48"/>
@@ -7229,7 +7229,7 @@
       <c r="F465" s="48"/>
       <c r="G465" s="48"/>
     </row>
-    <row r="466" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="49"/>
       <c r="B466" s="49"/>
       <c r="C466" s="48"/>
@@ -7238,7 +7238,7 @@
       <c r="F466" s="48"/>
       <c r="G466" s="48"/>
     </row>
-    <row r="467" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="49"/>
       <c r="B467" s="49"/>
       <c r="C467" s="48"/>
@@ -7247,7 +7247,7 @@
       <c r="F467" s="48"/>
       <c r="G467" s="48"/>
     </row>
-    <row r="468" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="49"/>
       <c r="B468" s="49"/>
       <c r="C468" s="48"/>
@@ -7256,7 +7256,7 @@
       <c r="F468" s="48"/>
       <c r="G468" s="48"/>
     </row>
-    <row r="469" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="49"/>
       <c r="B469" s="49"/>
       <c r="C469" s="48"/>
@@ -7265,7 +7265,7 @@
       <c r="F469" s="48"/>
       <c r="G469" s="48"/>
     </row>
-    <row r="470" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="49"/>
       <c r="B470" s="49"/>
       <c r="C470" s="48"/>
@@ -7274,7 +7274,7 @@
       <c r="F470" s="48"/>
       <c r="G470" s="48"/>
     </row>
-    <row r="471" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="49"/>
       <c r="B471" s="49"/>
       <c r="C471" s="48"/>
@@ -7283,7 +7283,7 @@
       <c r="F471" s="48"/>
       <c r="G471" s="48"/>
     </row>
-    <row r="472" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="49"/>
       <c r="B472" s="49"/>
       <c r="C472" s="48"/>
@@ -7292,7 +7292,7 @@
       <c r="F472" s="48"/>
       <c r="G472" s="48"/>
     </row>
-    <row r="473" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="49"/>
       <c r="B473" s="49"/>
       <c r="C473" s="48"/>
@@ -7301,7 +7301,7 @@
       <c r="F473" s="48"/>
       <c r="G473" s="48"/>
     </row>
-    <row r="474" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="49"/>
       <c r="B474" s="49"/>
       <c r="C474" s="48"/>
@@ -7310,7 +7310,7 @@
       <c r="F474" s="48"/>
       <c r="G474" s="48"/>
     </row>
-    <row r="475" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="49"/>
       <c r="B475" s="49"/>
       <c r="C475" s="48"/>
@@ -7319,7 +7319,7 @@
       <c r="F475" s="48"/>
       <c r="G475" s="48"/>
     </row>
-    <row r="476" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="49"/>
       <c r="B476" s="49"/>
       <c r="C476" s="48"/>
@@ -7328,7 +7328,7 @@
       <c r="F476" s="48"/>
       <c r="G476" s="48"/>
     </row>
-    <row r="477" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="49"/>
       <c r="B477" s="49"/>
       <c r="C477" s="48"/>
@@ -7337,7 +7337,7 @@
       <c r="F477" s="48"/>
       <c r="G477" s="48"/>
     </row>
-    <row r="478" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="49"/>
       <c r="B478" s="49"/>
       <c r="C478" s="48"/>
@@ -7346,7 +7346,7 @@
       <c r="F478" s="48"/>
       <c r="G478" s="48"/>
     </row>
-    <row r="479" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="49"/>
       <c r="B479" s="49"/>
       <c r="C479" s="48"/>
@@ -7355,7 +7355,7 @@
       <c r="F479" s="48"/>
       <c r="G479" s="48"/>
     </row>
-    <row r="480" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="49"/>
       <c r="B480" s="49"/>
       <c r="C480" s="48"/>
@@ -7364,7 +7364,7 @@
       <c r="F480" s="48"/>
       <c r="G480" s="48"/>
     </row>
-    <row r="481" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="49"/>
       <c r="B481" s="49"/>
       <c r="C481" s="48"/>
@@ -7373,7 +7373,7 @@
       <c r="F481" s="48"/>
       <c r="G481" s="48"/>
     </row>
-    <row r="482" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="49"/>
       <c r="B482" s="49"/>
       <c r="C482" s="48"/>
@@ -7382,7 +7382,7 @@
       <c r="F482" s="48"/>
       <c r="G482" s="48"/>
     </row>
-    <row r="483" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="49"/>
       <c r="B483" s="49"/>
       <c r="C483" s="48"/>
@@ -7391,7 +7391,7 @@
       <c r="F483" s="48"/>
       <c r="G483" s="48"/>
     </row>
-    <row r="484" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="49"/>
       <c r="B484" s="49"/>
       <c r="C484" s="48"/>
@@ -7400,7 +7400,7 @@
       <c r="F484" s="48"/>
       <c r="G484" s="48"/>
     </row>
-    <row r="485" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="49"/>
       <c r="B485" s="49"/>
       <c r="C485" s="48"/>
@@ -7409,7 +7409,7 @@
       <c r="F485" s="48"/>
       <c r="G485" s="48"/>
     </row>
-    <row r="486" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="49"/>
       <c r="B486" s="49"/>
       <c r="C486" s="48"/>
@@ -7418,7 +7418,7 @@
       <c r="F486" s="48"/>
       <c r="G486" s="48"/>
     </row>
-    <row r="487" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="49"/>
       <c r="B487" s="49"/>
       <c r="C487" s="48"/>
@@ -7427,7 +7427,7 @@
       <c r="F487" s="48"/>
       <c r="G487" s="48"/>
     </row>
-    <row r="488" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="49"/>
       <c r="B488" s="49"/>
       <c r="C488" s="48"/>
@@ -7436,7 +7436,7 @@
       <c r="F488" s="48"/>
       <c r="G488" s="48"/>
     </row>
-    <row r="489" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="49"/>
       <c r="B489" s="49"/>
       <c r="C489" s="48"/>
@@ -7445,7 +7445,7 @@
       <c r="F489" s="48"/>
       <c r="G489" s="48"/>
     </row>
-    <row r="490" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="49"/>
       <c r="B490" s="49"/>
       <c r="C490" s="48"/>
@@ -7454,7 +7454,7 @@
       <c r="F490" s="48"/>
       <c r="G490" s="48"/>
     </row>
-    <row r="491" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="49"/>
       <c r="B491" s="49"/>
       <c r="C491" s="48"/>
@@ -7463,7 +7463,7 @@
       <c r="F491" s="48"/>
       <c r="G491" s="48"/>
     </row>
-    <row r="492" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="49"/>
       <c r="B492" s="49"/>
       <c r="C492" s="48"/>
@@ -7472,7 +7472,7 @@
       <c r="F492" s="48"/>
       <c r="G492" s="48"/>
     </row>
-    <row r="493" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="49"/>
       <c r="B493" s="49"/>
       <c r="C493" s="48"/>
@@ -7481,7 +7481,7 @@
       <c r="F493" s="48"/>
       <c r="G493" s="48"/>
     </row>
-    <row r="494" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="49"/>
       <c r="B494" s="49"/>
       <c r="C494" s="48"/>
@@ -7490,7 +7490,7 @@
       <c r="F494" s="48"/>
       <c r="G494" s="48"/>
     </row>
-    <row r="495" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="49"/>
       <c r="B495" s="49"/>
       <c r="C495" s="48"/>
@@ -7499,7 +7499,7 @@
       <c r="F495" s="48"/>
       <c r="G495" s="48"/>
     </row>
-    <row r="496" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="49"/>
       <c r="B496" s="49"/>
       <c r="C496" s="48"/>
@@ -7508,7 +7508,7 @@
       <c r="F496" s="48"/>
       <c r="G496" s="48"/>
     </row>
-    <row r="497" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="49"/>
       <c r="B497" s="49"/>
       <c r="C497" s="48"/>
@@ -7517,7 +7517,7 @@
       <c r="F497" s="48"/>
       <c r="G497" s="48"/>
     </row>
-    <row r="498" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="49"/>
       <c r="B498" s="49"/>
       <c r="C498" s="48"/>
@@ -7526,7 +7526,7 @@
       <c r="F498" s="48"/>
       <c r="G498" s="48"/>
     </row>
-    <row r="499" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="49"/>
       <c r="B499" s="49"/>
       <c r="C499" s="48"/>
@@ -7535,7 +7535,7 @@
       <c r="F499" s="48"/>
       <c r="G499" s="48"/>
     </row>
-    <row r="500" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="49"/>
       <c r="B500" s="49"/>
       <c r="C500" s="48"/>
@@ -7544,7 +7544,7 @@
       <c r="F500" s="48"/>
       <c r="G500" s="48"/>
     </row>
-    <row r="501" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="49"/>
       <c r="B501" s="49"/>
       <c r="C501" s="48"/>
@@ -7553,7 +7553,7 @@
       <c r="F501" s="48"/>
       <c r="G501" s="48"/>
     </row>
-    <row r="502" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="49"/>
       <c r="B502" s="49"/>
       <c r="C502" s="48"/>
@@ -7562,7 +7562,7 @@
       <c r="F502" s="48"/>
       <c r="G502" s="48"/>
     </row>
-    <row r="503" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="49"/>
       <c r="B503" s="49"/>
       <c r="C503" s="48"/>
@@ -7571,7 +7571,7 @@
       <c r="F503" s="48"/>
       <c r="G503" s="48"/>
     </row>
-    <row r="504" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="49"/>
       <c r="B504" s="49"/>
       <c r="C504" s="48"/>
@@ -7580,7 +7580,7 @@
       <c r="F504" s="48"/>
       <c r="G504" s="48"/>
     </row>
-    <row r="505" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="49"/>
       <c r="B505" s="49"/>
       <c r="C505" s="48"/>
@@ -7589,7 +7589,7 @@
       <c r="F505" s="48"/>
       <c r="G505" s="48"/>
     </row>
-    <row r="506" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="49"/>
       <c r="B506" s="49"/>
       <c r="C506" s="48"/>
@@ -7598,7 +7598,7 @@
       <c r="F506" s="48"/>
       <c r="G506" s="48"/>
     </row>
-    <row r="507" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="49"/>
       <c r="B507" s="49"/>
       <c r="C507" s="48"/>
@@ -7607,7 +7607,7 @@
       <c r="F507" s="48"/>
       <c r="G507" s="48"/>
     </row>
-    <row r="508" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="49"/>
       <c r="B508" s="49"/>
       <c r="C508" s="48"/>
@@ -7616,7 +7616,7 @@
       <c r="F508" s="48"/>
       <c r="G508" s="48"/>
     </row>
-    <row r="509" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="49"/>
       <c r="B509" s="49"/>
       <c r="C509" s="48"/>
@@ -7625,7 +7625,7 @@
       <c r="F509" s="48"/>
       <c r="G509" s="48"/>
     </row>
-    <row r="510" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="49"/>
       <c r="B510" s="49"/>
       <c r="C510" s="48"/>
@@ -7634,7 +7634,7 @@
       <c r="F510" s="48"/>
       <c r="G510" s="48"/>
     </row>
-    <row r="511" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="49"/>
       <c r="B511" s="49"/>
       <c r="C511" s="48"/>
@@ -7643,7 +7643,7 @@
       <c r="F511" s="48"/>
       <c r="G511" s="48"/>
     </row>
-    <row r="512" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="49"/>
       <c r="B512" s="49"/>
       <c r="C512" s="48"/>
@@ -7652,7 +7652,7 @@
       <c r="F512" s="48"/>
       <c r="G512" s="48"/>
     </row>
-    <row r="513" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="49"/>
       <c r="B513" s="49"/>
       <c r="C513" s="48"/>
@@ -7661,7 +7661,7 @@
       <c r="F513" s="48"/>
       <c r="G513" s="48"/>
     </row>
-    <row r="514" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="49"/>
       <c r="B514" s="49"/>
       <c r="C514" s="48"/>
@@ -7670,7 +7670,7 @@
       <c r="F514" s="48"/>
       <c r="G514" s="48"/>
     </row>
-    <row r="515" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="49"/>
       <c r="B515" s="49"/>
       <c r="C515" s="48"/>
@@ -7679,7 +7679,7 @@
       <c r="F515" s="48"/>
       <c r="G515" s="48"/>
     </row>
-    <row r="516" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="49"/>
       <c r="B516" s="49"/>
       <c r="C516" s="48"/>
@@ -7688,7 +7688,7 @@
       <c r="F516" s="48"/>
       <c r="G516" s="48"/>
     </row>
-    <row r="517" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="49"/>
       <c r="B517" s="49"/>
       <c r="C517" s="48"/>
@@ -7697,7 +7697,7 @@
       <c r="F517" s="48"/>
       <c r="G517" s="48"/>
     </row>
-    <row r="518" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="49"/>
       <c r="B518" s="49"/>
       <c r="C518" s="48"/>
@@ -7706,7 +7706,7 @@
       <c r="F518" s="48"/>
       <c r="G518" s="48"/>
     </row>
-    <row r="519" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="49"/>
       <c r="B519" s="49"/>
       <c r="C519" s="48"/>
@@ -7715,7 +7715,7 @@
       <c r="F519" s="48"/>
       <c r="G519" s="48"/>
     </row>
-    <row r="520" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="49"/>
       <c r="B520" s="49"/>
       <c r="C520" s="48"/>
@@ -7724,7 +7724,7 @@
       <c r="F520" s="48"/>
       <c r="G520" s="48"/>
     </row>
-    <row r="521" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="49"/>
       <c r="B521" s="49"/>
       <c r="C521" s="48"/>
@@ -7733,7 +7733,7 @@
       <c r="F521" s="48"/>
       <c r="G521" s="48"/>
     </row>
-    <row r="522" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="49"/>
       <c r="B522" s="49"/>
       <c r="C522" s="48"/>
@@ -7742,7 +7742,7 @@
       <c r="F522" s="48"/>
       <c r="G522" s="48"/>
     </row>
-    <row r="523" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="49"/>
       <c r="B523" s="49"/>
       <c r="C523" s="48"/>
@@ -7751,7 +7751,7 @@
       <c r="F523" s="48"/>
       <c r="G523" s="48"/>
     </row>
-    <row r="524" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="49"/>
       <c r="B524" s="49"/>
       <c r="C524" s="48"/>
@@ -7760,7 +7760,7 @@
       <c r="F524" s="48"/>
       <c r="G524" s="48"/>
     </row>
-    <row r="525" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="49"/>
       <c r="B525" s="49"/>
       <c r="C525" s="48"/>
@@ -7769,7 +7769,7 @@
       <c r="F525" s="48"/>
       <c r="G525" s="48"/>
     </row>
-    <row r="526" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="49"/>
       <c r="B526" s="49"/>
       <c r="C526" s="48"/>
@@ -7778,7 +7778,7 @@
       <c r="F526" s="48"/>
       <c r="G526" s="48"/>
     </row>
-    <row r="527" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="49"/>
       <c r="B527" s="49"/>
       <c r="C527" s="48"/>
@@ -7787,7 +7787,7 @@
       <c r="F527" s="48"/>
       <c r="G527" s="48"/>
     </row>
-    <row r="528" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="49"/>
       <c r="B528" s="49"/>
       <c r="C528" s="48"/>
@@ -7796,7 +7796,7 @@
       <c r="F528" s="48"/>
       <c r="G528" s="48"/>
     </row>
-    <row r="529" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="49"/>
       <c r="B529" s="49"/>
       <c r="C529" s="48"/>
@@ -7805,7 +7805,7 @@
       <c r="F529" s="48"/>
       <c r="G529" s="48"/>
     </row>
-    <row r="530" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="49"/>
       <c r="B530" s="49"/>
       <c r="C530" s="48"/>
@@ -7814,7 +7814,7 @@
       <c r="F530" s="48"/>
       <c r="G530" s="48"/>
     </row>
-    <row r="531" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="49"/>
       <c r="B531" s="49"/>
       <c r="C531" s="48"/>
@@ -7823,7 +7823,7 @@
       <c r="F531" s="48"/>
       <c r="G531" s="48"/>
     </row>
-    <row r="532" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="49"/>
       <c r="B532" s="49"/>
       <c r="C532" s="48"/>
@@ -7832,7 +7832,7 @@
       <c r="F532" s="48"/>
       <c r="G532" s="48"/>
     </row>
-    <row r="533" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="49"/>
       <c r="B533" s="49"/>
       <c r="C533" s="48"/>
@@ -7841,7 +7841,7 @@
       <c r="F533" s="48"/>
       <c r="G533" s="48"/>
     </row>
-    <row r="534" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="49"/>
       <c r="B534" s="49"/>
       <c r="C534" s="48"/>
@@ -7850,7 +7850,7 @@
       <c r="F534" s="48"/>
       <c r="G534" s="48"/>
     </row>
-    <row r="535" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="49"/>
       <c r="B535" s="49"/>
       <c r="C535" s="48"/>
@@ -7859,7 +7859,7 @@
       <c r="F535" s="48"/>
       <c r="G535" s="48"/>
     </row>
-    <row r="536" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="49"/>
       <c r="B536" s="49"/>
       <c r="C536" s="48"/>
@@ -7868,7 +7868,7 @@
       <c r="F536" s="48"/>
       <c r="G536" s="48"/>
     </row>
-    <row r="537" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="49"/>
       <c r="B537" s="49"/>
       <c r="C537" s="48"/>
@@ -7877,7 +7877,7 @@
       <c r="F537" s="48"/>
       <c r="G537" s="48"/>
     </row>
-    <row r="538" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="49"/>
       <c r="B538" s="49"/>
       <c r="C538" s="48"/>
@@ -7886,7 +7886,7 @@
       <c r="F538" s="48"/>
       <c r="G538" s="48"/>
     </row>
-    <row r="539" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="49"/>
       <c r="B539" s="49"/>
       <c r="C539" s="48"/>
@@ -7895,7 +7895,7 @@
       <c r="F539" s="48"/>
       <c r="G539" s="48"/>
     </row>
-    <row r="540" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="49"/>
       <c r="B540" s="49"/>
       <c r="C540" s="48"/>
@@ -7904,7 +7904,7 @@
       <c r="F540" s="48"/>
       <c r="G540" s="48"/>
     </row>
-    <row r="541" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="49"/>
       <c r="B541" s="49"/>
       <c r="C541" s="48"/>
@@ -7913,7 +7913,7 @@
       <c r="F541" s="48"/>
       <c r="G541" s="48"/>
     </row>
-    <row r="542" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="49"/>
       <c r="B542" s="49"/>
       <c r="C542" s="48"/>
@@ -7922,7 +7922,7 @@
       <c r="F542" s="48"/>
       <c r="G542" s="48"/>
     </row>
-    <row r="543" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="49"/>
       <c r="B543" s="49"/>
       <c r="C543" s="48"/>
@@ -7931,7 +7931,7 @@
       <c r="F543" s="48"/>
       <c r="G543" s="48"/>
     </row>
-    <row r="544" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="49"/>
       <c r="B544" s="49"/>
       <c r="C544" s="48"/>
@@ -7940,7 +7940,7 @@
       <c r="F544" s="48"/>
       <c r="G544" s="48"/>
     </row>
-    <row r="545" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="49"/>
       <c r="B545" s="49"/>
       <c r="C545" s="48"/>
@@ -7949,7 +7949,7 @@
       <c r="F545" s="48"/>
       <c r="G545" s="48"/>
     </row>
-    <row r="546" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="49"/>
       <c r="B546" s="49"/>
       <c r="C546" s="48"/>
@@ -7958,7 +7958,7 @@
       <c r="F546" s="48"/>
       <c r="G546" s="48"/>
     </row>
-    <row r="547" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="49"/>
       <c r="B547" s="49"/>
       <c r="C547" s="48"/>
@@ -7967,7 +7967,7 @@
       <c r="F547" s="48"/>
       <c r="G547" s="48"/>
     </row>
-    <row r="548" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="49"/>
       <c r="B548" s="49"/>
       <c r="C548" s="48"/>
@@ -7976,7 +7976,7 @@
       <c r="F548" s="48"/>
       <c r="G548" s="48"/>
     </row>
-    <row r="549" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="49"/>
       <c r="B549" s="49"/>
       <c r="C549" s="48"/>
@@ -7985,7 +7985,7 @@
       <c r="F549" s="48"/>
       <c r="G549" s="48"/>
     </row>
-    <row r="550" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="49"/>
       <c r="B550" s="49"/>
       <c r="C550" s="48"/>
@@ -7994,7 +7994,7 @@
       <c r="F550" s="48"/>
       <c r="G550" s="48"/>
     </row>
-    <row r="551" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="49"/>
       <c r="B551" s="49"/>
       <c r="C551" s="48"/>
@@ -8003,7 +8003,7 @@
       <c r="F551" s="48"/>
       <c r="G551" s="48"/>
     </row>
-    <row r="552" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="49"/>
       <c r="B552" s="49"/>
       <c r="C552" s="48"/>
@@ -8012,7 +8012,7 @@
       <c r="F552" s="48"/>
       <c r="G552" s="48"/>
     </row>
-    <row r="553" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="49"/>
       <c r="B553" s="49"/>
       <c r="C553" s="48"/>
@@ -8021,7 +8021,7 @@
       <c r="F553" s="48"/>
       <c r="G553" s="48"/>
     </row>
-    <row r="554" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="49"/>
       <c r="B554" s="49"/>
       <c r="C554" s="48"/>
@@ -8030,7 +8030,7 @@
       <c r="F554" s="48"/>
       <c r="G554" s="48"/>
     </row>
-    <row r="555" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="49"/>
       <c r="B555" s="49"/>
       <c r="C555" s="48"/>
@@ -8039,7 +8039,7 @@
       <c r="F555" s="48"/>
       <c r="G555" s="48"/>
     </row>
-    <row r="556" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="49"/>
       <c r="B556" s="49"/>
       <c r="C556" s="48"/>
@@ -8048,7 +8048,7 @@
       <c r="F556" s="48"/>
       <c r="G556" s="48"/>
     </row>
-    <row r="557" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="49"/>
       <c r="B557" s="49"/>
       <c r="C557" s="48"/>
@@ -8057,7 +8057,7 @@
       <c r="F557" s="48"/>
       <c r="G557" s="48"/>
     </row>
-    <row r="558" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="49"/>
       <c r="B558" s="49"/>
       <c r="C558" s="48"/>
@@ -8066,7 +8066,7 @@
       <c r="F558" s="48"/>
       <c r="G558" s="48"/>
     </row>
-    <row r="559" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="49"/>
       <c r="B559" s="49"/>
       <c r="C559" s="48"/>
@@ -8075,7 +8075,7 @@
       <c r="F559" s="48"/>
       <c r="G559" s="48"/>
     </row>
-    <row r="560" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="49"/>
       <c r="B560" s="49"/>
       <c r="C560" s="48"/>
@@ -8084,7 +8084,7 @@
       <c r="F560" s="48"/>
       <c r="G560" s="48"/>
     </row>
-    <row r="561" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="49"/>
       <c r="B561" s="49"/>
       <c r="C561" s="48"/>
@@ -8093,7 +8093,7 @@
       <c r="F561" s="48"/>
       <c r="G561" s="48"/>
     </row>
-    <row r="562" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="49"/>
       <c r="B562" s="49"/>
       <c r="C562" s="48"/>
@@ -8102,7 +8102,7 @@
       <c r="F562" s="48"/>
       <c r="G562" s="48"/>
     </row>
-    <row r="563" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="49"/>
       <c r="B563" s="49"/>
       <c r="C563" s="48"/>
@@ -8111,7 +8111,7 @@
       <c r="F563" s="48"/>
       <c r="G563" s="48"/>
     </row>
-    <row r="564" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="49"/>
       <c r="B564" s="49"/>
       <c r="C564" s="48"/>
@@ -8120,7 +8120,7 @@
       <c r="F564" s="48"/>
       <c r="G564" s="48"/>
     </row>
-    <row r="565" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="49"/>
       <c r="B565" s="49"/>
       <c r="C565" s="48"/>
@@ -8129,7 +8129,7 @@
       <c r="F565" s="48"/>
       <c r="G565" s="48"/>
     </row>
-    <row r="566" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="49"/>
       <c r="B566" s="49"/>
       <c r="C566" s="48"/>
@@ -8138,7 +8138,7 @@
       <c r="F566" s="48"/>
       <c r="G566" s="48"/>
     </row>
-    <row r="567" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="49"/>
       <c r="B567" s="49"/>
       <c r="C567" s="48"/>
@@ -8147,7 +8147,7 @@
       <c r="F567" s="48"/>
       <c r="G567" s="48"/>
     </row>
-    <row r="568" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="49"/>
       <c r="B568" s="49"/>
       <c r="C568" s="48"/>
@@ -8156,7 +8156,7 @@
       <c r="F568" s="48"/>
       <c r="G568" s="48"/>
     </row>
-    <row r="569" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="49"/>
       <c r="B569" s="49"/>
       <c r="C569" s="48"/>
@@ -8165,7 +8165,7 @@
       <c r="F569" s="48"/>
       <c r="G569" s="48"/>
     </row>
-    <row r="570" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="49"/>
       <c r="B570" s="49"/>
       <c r="C570" s="48"/>
@@ -8174,7 +8174,7 @@
       <c r="F570" s="48"/>
       <c r="G570" s="48"/>
     </row>
-    <row r="571" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="49"/>
       <c r="B571" s="49"/>
       <c r="C571" s="48"/>
@@ -8183,7 +8183,7 @@
       <c r="F571" s="48"/>
       <c r="G571" s="48"/>
     </row>
-    <row r="572" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="49"/>
       <c r="B572" s="49"/>
       <c r="C572" s="48"/>
@@ -8192,7 +8192,7 @@
       <c r="F572" s="48"/>
       <c r="G572" s="48"/>
     </row>
-    <row r="573" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="49"/>
       <c r="B573" s="49"/>
       <c r="C573" s="48"/>
@@ -8201,7 +8201,7 @@
       <c r="F573" s="48"/>
       <c r="G573" s="48"/>
     </row>
-    <row r="574" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="49"/>
       <c r="B574" s="49"/>
       <c r="C574" s="48"/>
@@ -8210,7 +8210,7 @@
       <c r="F574" s="48"/>
       <c r="G574" s="48"/>
     </row>
-    <row r="575" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="49"/>
       <c r="B575" s="49"/>
       <c r="C575" s="48"/>
@@ -8219,7 +8219,7 @@
       <c r="F575" s="48"/>
       <c r="G575" s="48"/>
     </row>
-    <row r="576" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="49"/>
       <c r="B576" s="49"/>
       <c r="C576" s="48"/>
@@ -8228,7 +8228,7 @@
       <c r="F576" s="48"/>
       <c r="G576" s="48"/>
     </row>
-    <row r="577" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="49"/>
       <c r="B577" s="49"/>
       <c r="C577" s="48"/>
@@ -8237,7 +8237,7 @@
       <c r="F577" s="48"/>
       <c r="G577" s="48"/>
     </row>
-    <row r="578" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="49"/>
       <c r="B578" s="49"/>
       <c r="C578" s="48"/>
@@ -8246,7 +8246,7 @@
       <c r="F578" s="48"/>
       <c r="G578" s="48"/>
     </row>
-    <row r="579" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="49"/>
       <c r="B579" s="49"/>
       <c r="C579" s="48"/>
@@ -8255,7 +8255,7 @@
       <c r="F579" s="48"/>
       <c r="G579" s="48"/>
     </row>
-    <row r="580" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="49"/>
       <c r="B580" s="49"/>
       <c r="C580" s="48"/>
@@ -8264,7 +8264,7 @@
       <c r="F580" s="48"/>
       <c r="G580" s="48"/>
     </row>
-    <row r="581" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="49"/>
       <c r="B581" s="49"/>
       <c r="C581" s="48"/>
@@ -8273,7 +8273,7 @@
       <c r="F581" s="48"/>
       <c r="G581" s="48"/>
     </row>
-    <row r="582" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="49"/>
       <c r="B582" s="49"/>
       <c r="C582" s="48"/>
@@ -8282,7 +8282,7 @@
       <c r="F582" s="48"/>
       <c r="G582" s="48"/>
     </row>
-    <row r="583" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="49"/>
       <c r="B583" s="49"/>
       <c r="C583" s="48"/>
@@ -8291,7 +8291,7 @@
       <c r="F583" s="48"/>
       <c r="G583" s="48"/>
     </row>
-    <row r="584" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="49"/>
       <c r="B584" s="49"/>
       <c r="C584" s="48"/>
@@ -8300,7 +8300,7 @@
       <c r="F584" s="48"/>
       <c r="G584" s="48"/>
     </row>
-    <row r="585" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="49"/>
       <c r="B585" s="49"/>
       <c r="C585" s="48"/>
@@ -8309,7 +8309,7 @@
       <c r="F585" s="48"/>
       <c r="G585" s="48"/>
     </row>
-    <row r="586" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="49"/>
       <c r="B586" s="49"/>
       <c r="C586" s="48"/>
@@ -8318,7 +8318,7 @@
       <c r="F586" s="48"/>
       <c r="G586" s="48"/>
     </row>
-    <row r="587" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="49"/>
       <c r="B587" s="49"/>
       <c r="C587" s="48"/>
@@ -8327,7 +8327,7 @@
       <c r="F587" s="48"/>
       <c r="G587" s="48"/>
     </row>
-    <row r="588" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="49"/>
       <c r="B588" s="49"/>
       <c r="C588" s="48"/>
@@ -8336,7 +8336,7 @@
       <c r="F588" s="48"/>
       <c r="G588" s="48"/>
     </row>
-    <row r="589" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="49"/>
       <c r="B589" s="49"/>
       <c r="C589" s="48"/>
@@ -8345,7 +8345,7 @@
       <c r="F589" s="48"/>
       <c r="G589" s="48"/>
     </row>
-    <row r="590" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="49"/>
       <c r="B590" s="49"/>
       <c r="C590" s="48"/>
@@ -8354,7 +8354,7 @@
       <c r="F590" s="48"/>
       <c r="G590" s="48"/>
     </row>
-    <row r="591" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="49"/>
       <c r="B591" s="49"/>
       <c r="C591" s="48"/>
@@ -8363,7 +8363,7 @@
       <c r="F591" s="48"/>
       <c r="G591" s="48"/>
     </row>
-    <row r="592" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="49"/>
       <c r="B592" s="49"/>
       <c r="C592" s="48"/>
@@ -8372,7 +8372,7 @@
       <c r="F592" s="48"/>
       <c r="G592" s="48"/>
     </row>
-    <row r="593" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="49"/>
       <c r="B593" s="49"/>
       <c r="C593" s="48"/>
@@ -8381,7 +8381,7 @@
       <c r="F593" s="48"/>
       <c r="G593" s="48"/>
     </row>
-    <row r="594" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="49"/>
       <c r="B594" s="49"/>
       <c r="C594" s="48"/>
@@ -8390,7 +8390,7 @@
       <c r="F594" s="48"/>
       <c r="G594" s="48"/>
     </row>
-    <row r="595" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="49"/>
       <c r="B595" s="49"/>
       <c r="C595" s="48"/>
@@ -8399,7 +8399,7 @@
       <c r="F595" s="48"/>
       <c r="G595" s="48"/>
     </row>
-    <row r="596" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="49"/>
       <c r="B596" s="49"/>
       <c r="C596" s="48"/>
@@ -8408,7 +8408,7 @@
       <c r="F596" s="48"/>
       <c r="G596" s="48"/>
     </row>
-    <row r="597" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="49"/>
       <c r="B597" s="49"/>
       <c r="C597" s="48"/>
@@ -8417,7 +8417,7 @@
       <c r="F597" s="48"/>
       <c r="G597" s="48"/>
     </row>
-    <row r="598" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="49"/>
       <c r="B598" s="49"/>
       <c r="C598" s="48"/>
@@ -8426,7 +8426,7 @@
       <c r="F598" s="48"/>
       <c r="G598" s="48"/>
     </row>
-    <row r="599" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="49"/>
       <c r="B599" s="49"/>
       <c r="C599" s="48"/>
@@ -8435,7 +8435,7 @@
       <c r="F599" s="48"/>
       <c r="G599" s="48"/>
     </row>
-    <row r="600" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="49"/>
       <c r="B600" s="49"/>
       <c r="C600" s="48"/>
@@ -8444,7 +8444,7 @@
       <c r="F600" s="48"/>
       <c r="G600" s="48"/>
     </row>
-    <row r="601" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="49"/>
       <c r="B601" s="49"/>
       <c r="C601" s="48"/>
@@ -8453,7 +8453,7 @@
       <c r="F601" s="48"/>
       <c r="G601" s="48"/>
     </row>
-    <row r="602" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="49"/>
       <c r="B602" s="49"/>
       <c r="C602" s="48"/>
@@ -8462,7 +8462,7 @@
       <c r="F602" s="48"/>
       <c r="G602" s="48"/>
     </row>
-    <row r="603" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="49"/>
       <c r="B603" s="49"/>
       <c r="C603" s="48"/>
@@ -8471,7 +8471,7 @@
       <c r="F603" s="48"/>
       <c r="G603" s="48"/>
     </row>
-    <row r="604" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="49"/>
       <c r="B604" s="49"/>
       <c r="C604" s="48"/>
@@ -8480,7 +8480,7 @@
       <c r="F604" s="48"/>
       <c r="G604" s="48"/>
     </row>
-    <row r="605" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="49"/>
       <c r="B605" s="49"/>
       <c r="C605" s="48"/>
@@ -8489,7 +8489,7 @@
       <c r="F605" s="48"/>
       <c r="G605" s="48"/>
     </row>
-    <row r="606" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="49"/>
       <c r="B606" s="49"/>
       <c r="C606" s="48"/>
@@ -8498,7 +8498,7 @@
       <c r="F606" s="48"/>
       <c r="G606" s="48"/>
     </row>
-    <row r="607" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="49"/>
       <c r="B607" s="49"/>
       <c r="C607" s="48"/>
@@ -8507,7 +8507,7 @@
       <c r="F607" s="48"/>
       <c r="G607" s="48"/>
     </row>
-    <row r="608" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="49"/>
       <c r="B608" s="49"/>
       <c r="C608" s="48"/>
@@ -8516,7 +8516,7 @@
       <c r="F608" s="48"/>
       <c r="G608" s="48"/>
     </row>
-    <row r="609" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="49"/>
       <c r="B609" s="49"/>
       <c r="C609" s="48"/>
@@ -8525,7 +8525,7 @@
       <c r="F609" s="48"/>
       <c r="G609" s="48"/>
     </row>
-    <row r="610" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="49"/>
       <c r="B610" s="49"/>
       <c r="C610" s="48"/>
@@ -8534,7 +8534,7 @@
       <c r="F610" s="48"/>
       <c r="G610" s="48"/>
     </row>
-    <row r="611" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="49"/>
       <c r="B611" s="49"/>
       <c r="C611" s="48"/>
@@ -8543,7 +8543,7 @@
       <c r="F611" s="48"/>
       <c r="G611" s="48"/>
     </row>
-    <row r="612" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="49"/>
       <c r="B612" s="49"/>
       <c r="C612" s="48"/>
@@ -8552,7 +8552,7 @@
       <c r="F612" s="48"/>
       <c r="G612" s="48"/>
     </row>
-    <row r="613" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="49"/>
       <c r="B613" s="49"/>
       <c r="C613" s="48"/>
@@ -8561,7 +8561,7 @@
       <c r="F613" s="48"/>
       <c r="G613" s="48"/>
     </row>
-    <row r="614" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="49"/>
       <c r="B614" s="49"/>
       <c r="C614" s="48"/>
@@ -8570,7 +8570,7 @@
       <c r="F614" s="48"/>
       <c r="G614" s="48"/>
     </row>
-    <row r="615" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="49"/>
       <c r="B615" s="49"/>
       <c r="C615" s="48"/>
@@ -8579,7 +8579,7 @@
       <c r="F615" s="48"/>
       <c r="G615" s="48"/>
     </row>
-    <row r="616" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="49"/>
       <c r="B616" s="49"/>
       <c r="C616" s="48"/>
@@ -8588,7 +8588,7 @@
       <c r="F616" s="48"/>
       <c r="G616" s="48"/>
     </row>
-    <row r="617" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="49"/>
       <c r="B617" s="49"/>
       <c r="C617" s="48"/>
@@ -8597,7 +8597,7 @@
       <c r="F617" s="48"/>
       <c r="G617" s="48"/>
     </row>
-    <row r="618" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="49"/>
       <c r="B618" s="49"/>
       <c r="C618" s="48"/>
@@ -8606,7 +8606,7 @@
       <c r="F618" s="48"/>
       <c r="G618" s="48"/>
     </row>
-    <row r="619" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="49"/>
       <c r="B619" s="49"/>
       <c r="C619" s="48"/>
@@ -8615,7 +8615,7 @@
       <c r="F619" s="48"/>
       <c r="G619" s="48"/>
     </row>
-    <row r="620" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="49"/>
       <c r="B620" s="49"/>
       <c r="C620" s="48"/>
@@ -8624,7 +8624,7 @@
       <c r="F620" s="48"/>
       <c r="G620" s="48"/>
     </row>
-    <row r="621" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="49"/>
       <c r="B621" s="49"/>
       <c r="C621" s="48"/>
@@ -8633,7 +8633,7 @@
       <c r="F621" s="48"/>
       <c r="G621" s="48"/>
     </row>
-    <row r="622" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="49"/>
       <c r="B622" s="49"/>
       <c r="C622" s="48"/>
@@ -8642,7 +8642,7 @@
       <c r="F622" s="48"/>
       <c r="G622" s="48"/>
     </row>
-    <row r="623" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="49"/>
       <c r="B623" s="49"/>
       <c r="C623" s="48"/>
@@ -8651,7 +8651,7 @@
       <c r="F623" s="48"/>
       <c r="G623" s="48"/>
     </row>
-    <row r="624" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="49"/>
       <c r="B624" s="49"/>
       <c r="C624" s="48"/>
@@ -8660,7 +8660,7 @@
       <c r="F624" s="48"/>
       <c r="G624" s="48"/>
     </row>
-    <row r="625" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="49"/>
       <c r="B625" s="49"/>
       <c r="C625" s="48"/>
@@ -8669,7 +8669,7 @@
       <c r="F625" s="48"/>
       <c r="G625" s="48"/>
     </row>
-    <row r="626" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="49"/>
       <c r="B626" s="49"/>
       <c r="C626" s="48"/>
@@ -8678,7 +8678,7 @@
       <c r="F626" s="48"/>
       <c r="G626" s="48"/>
     </row>
-    <row r="627" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="49"/>
       <c r="B627" s="49"/>
       <c r="C627" s="48"/>
@@ -8687,7 +8687,7 @@
       <c r="F627" s="48"/>
       <c r="G627" s="48"/>
     </row>
-    <row r="628" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="49"/>
       <c r="B628" s="49"/>
       <c r="C628" s="48"/>
@@ -8696,7 +8696,7 @@
       <c r="F628" s="48"/>
       <c r="G628" s="48"/>
     </row>
-    <row r="629" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="49"/>
       <c r="B629" s="49"/>
       <c r="C629" s="48"/>
@@ -8705,7 +8705,7 @@
       <c r="F629" s="48"/>
       <c r="G629" s="48"/>
     </row>
-    <row r="630" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="49"/>
       <c r="B630" s="49"/>
       <c r="C630" s="48"/>
@@ -8714,7 +8714,7 @@
       <c r="F630" s="48"/>
       <c r="G630" s="48"/>
     </row>
-    <row r="631" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="49"/>
       <c r="B631" s="49"/>
       <c r="C631" s="48"/>
@@ -8723,7 +8723,7 @@
       <c r="F631" s="48"/>
       <c r="G631" s="48"/>
     </row>
-    <row r="632" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="49"/>
       <c r="B632" s="49"/>
       <c r="C632" s="48"/>
@@ -8732,7 +8732,7 @@
       <c r="F632" s="48"/>
       <c r="G632" s="48"/>
     </row>
-    <row r="633" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="49"/>
       <c r="B633" s="49"/>
       <c r="C633" s="48"/>
@@ -8741,7 +8741,7 @@
       <c r="F633" s="48"/>
       <c r="G633" s="48"/>
     </row>
-    <row r="634" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="49"/>
       <c r="B634" s="49"/>
       <c r="C634" s="48"/>
@@ -8750,7 +8750,7 @@
       <c r="F634" s="48"/>
       <c r="G634" s="48"/>
     </row>
-    <row r="635" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="49"/>
       <c r="B635" s="49"/>
       <c r="C635" s="48"/>
@@ -8759,7 +8759,7 @@
       <c r="F635" s="48"/>
       <c r="G635" s="48"/>
     </row>
-    <row r="636" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="49"/>
       <c r="B636" s="49"/>
       <c r="C636" s="48"/>
@@ -8768,7 +8768,7 @@
       <c r="F636" s="48"/>
       <c r="G636" s="48"/>
     </row>
-    <row r="637" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="49"/>
       <c r="B637" s="49"/>
       <c r="C637" s="48"/>
@@ -8777,7 +8777,7 @@
       <c r="F637" s="48"/>
       <c r="G637" s="48"/>
     </row>
-    <row r="638" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="49"/>
       <c r="B638" s="49"/>
       <c r="C638" s="48"/>
@@ -8786,7 +8786,7 @@
       <c r="F638" s="48"/>
       <c r="G638" s="48"/>
     </row>
-    <row r="639" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="49"/>
       <c r="B639" s="49"/>
       <c r="C639" s="48"/>
@@ -8795,7 +8795,7 @@
       <c r="F639" s="48"/>
       <c r="G639" s="48"/>
     </row>
-    <row r="640" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="49"/>
       <c r="B640" s="49"/>
       <c r="C640" s="48"/>
@@ -8804,7 +8804,7 @@
       <c r="F640" s="48"/>
       <c r="G640" s="48"/>
     </row>
-    <row r="641" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="49"/>
       <c r="B641" s="49"/>
       <c r="C641" s="48"/>
@@ -8813,7 +8813,7 @@
       <c r="F641" s="48"/>
       <c r="G641" s="48"/>
     </row>
-    <row r="642" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="49"/>
       <c r="B642" s="49"/>
       <c r="C642" s="48"/>
@@ -8822,7 +8822,7 @@
       <c r="F642" s="48"/>
       <c r="G642" s="48"/>
     </row>
-    <row r="643" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="49"/>
       <c r="B643" s="49"/>
       <c r="C643" s="48"/>
@@ -8831,7 +8831,7 @@
       <c r="F643" s="48"/>
       <c r="G643" s="48"/>
     </row>
-    <row r="644" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="49"/>
       <c r="B644" s="49"/>
       <c r="C644" s="48"/>
@@ -8840,7 +8840,7 @@
       <c r="F644" s="48"/>
       <c r="G644" s="48"/>
     </row>
-    <row r="645" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="49"/>
       <c r="B645" s="49"/>
       <c r="C645" s="48"/>
@@ -8849,7 +8849,7 @@
       <c r="F645" s="48"/>
       <c r="G645" s="48"/>
     </row>
-    <row r="646" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="49"/>
       <c r="B646" s="49"/>
       <c r="C646" s="48"/>
@@ -8858,7 +8858,7 @@
       <c r="F646" s="48"/>
       <c r="G646" s="48"/>
     </row>
-    <row r="647" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="49"/>
       <c r="B647" s="49"/>
       <c r="C647" s="48"/>
@@ -8867,7 +8867,7 @@
       <c r="F647" s="48"/>
       <c r="G647" s="48"/>
     </row>
-    <row r="648" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="49"/>
       <c r="B648" s="49"/>
       <c r="C648" s="48"/>
@@ -8876,7 +8876,7 @@
       <c r="F648" s="48"/>
       <c r="G648" s="48"/>
     </row>
-    <row r="649" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="49"/>
       <c r="B649" s="49"/>
       <c r="C649" s="48"/>
@@ -8885,7 +8885,7 @@
       <c r="F649" s="48"/>
       <c r="G649" s="48"/>
     </row>
-    <row r="650" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="49"/>
       <c r="B650" s="49"/>
       <c r="C650" s="48"/>
@@ -8894,7 +8894,7 @@
       <c r="F650" s="48"/>
       <c r="G650" s="48"/>
     </row>
-    <row r="651" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="49"/>
       <c r="B651" s="49"/>
       <c r="C651" s="48"/>
@@ -8903,7 +8903,7 @@
       <c r="F651" s="48"/>
       <c r="G651" s="48"/>
     </row>
-    <row r="652" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="49"/>
       <c r="B652" s="49"/>
       <c r="C652" s="48"/>
@@ -8912,7 +8912,7 @@
       <c r="F652" s="48"/>
       <c r="G652" s="48"/>
     </row>
-    <row r="653" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="49"/>
       <c r="B653" s="49"/>
       <c r="C653" s="48"/>
@@ -8921,7 +8921,7 @@
       <c r="F653" s="48"/>
       <c r="G653" s="48"/>
     </row>
-    <row r="654" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="49"/>
       <c r="B654" s="49"/>
       <c r="C654" s="48"/>
@@ -8930,7 +8930,7 @@
       <c r="F654" s="48"/>
       <c r="G654" s="48"/>
     </row>
-    <row r="655" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="49"/>
       <c r="B655" s="49"/>
       <c r="C655" s="48"/>
@@ -8939,7 +8939,7 @@
       <c r="F655" s="48"/>
       <c r="G655" s="48"/>
     </row>
-    <row r="656" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="49"/>
       <c r="B656" s="49"/>
       <c r="C656" s="48"/>
@@ -8948,7 +8948,7 @@
       <c r="F656" s="48"/>
       <c r="G656" s="48"/>
     </row>
-    <row r="657" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="49"/>
       <c r="B657" s="49"/>
       <c r="C657" s="48"/>
@@ -8957,7 +8957,7 @@
       <c r="F657" s="48"/>
       <c r="G657" s="48"/>
     </row>
-    <row r="658" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="49"/>
       <c r="B658" s="49"/>
       <c r="C658" s="48"/>
@@ -8966,7 +8966,7 @@
       <c r="F658" s="48"/>
       <c r="G658" s="48"/>
     </row>
-    <row r="659" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="49"/>
       <c r="B659" s="49"/>
       <c r="C659" s="48"/>
@@ -8975,7 +8975,7 @@
       <c r="F659" s="48"/>
       <c r="G659" s="48"/>
     </row>
-    <row r="660" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="49"/>
       <c r="B660" s="49"/>
       <c r="C660" s="48"/>
@@ -8984,7 +8984,7 @@
       <c r="F660" s="48"/>
       <c r="G660" s="48"/>
     </row>
-    <row r="661" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="49"/>
       <c r="B661" s="49"/>
       <c r="C661" s="48"/>
@@ -8993,7 +8993,7 @@
       <c r="F661" s="48"/>
       <c r="G661" s="48"/>
     </row>
-    <row r="662" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="49"/>
       <c r="B662" s="49"/>
       <c r="C662" s="48"/>
@@ -9002,7 +9002,7 @@
       <c r="F662" s="48"/>
       <c r="G662" s="48"/>
     </row>
-    <row r="663" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="49"/>
       <c r="B663" s="49"/>
       <c r="C663" s="48"/>
@@ -9011,7 +9011,7 @@
       <c r="F663" s="48"/>
       <c r="G663" s="48"/>
     </row>
-    <row r="664" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="49"/>
       <c r="B664" s="49"/>
       <c r="C664" s="48"/>
@@ -9020,7 +9020,7 @@
       <c r="F664" s="48"/>
       <c r="G664" s="48"/>
     </row>
-    <row r="665" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="49"/>
       <c r="B665" s="49"/>
       <c r="C665" s="48"/>
@@ -9029,7 +9029,7 @@
       <c r="F665" s="48"/>
       <c r="G665" s="48"/>
     </row>
-    <row r="666" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="49"/>
       <c r="B666" s="49"/>
       <c r="C666" s="48"/>
@@ -9038,7 +9038,7 @@
       <c r="F666" s="48"/>
       <c r="G666" s="48"/>
     </row>
-    <row r="667" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="49"/>
       <c r="B667" s="49"/>
       <c r="C667" s="48"/>
@@ -9047,7 +9047,7 @@
       <c r="F667" s="48"/>
       <c r="G667" s="48"/>
     </row>
-    <row r="668" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="49"/>
       <c r="B668" s="49"/>
       <c r="C668" s="48"/>
@@ -9056,7 +9056,7 @@
       <c r="F668" s="48"/>
       <c r="G668" s="48"/>
     </row>
-    <row r="669" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="49"/>
       <c r="B669" s="49"/>
       <c r="C669" s="48"/>
@@ -9065,7 +9065,7 @@
       <c r="F669" s="48"/>
       <c r="G669" s="48"/>
     </row>
-    <row r="670" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="49"/>
       <c r="B670" s="49"/>
       <c r="C670" s="48"/>
@@ -9074,7 +9074,7 @@
       <c r="F670" s="48"/>
       <c r="G670" s="48"/>
     </row>
-    <row r="671" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="49"/>
       <c r="B671" s="49"/>
       <c r="C671" s="48"/>
@@ -9083,7 +9083,7 @@
       <c r="F671" s="48"/>
       <c r="G671" s="48"/>
     </row>
-    <row r="672" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="49"/>
       <c r="B672" s="49"/>
       <c r="C672" s="48"/>
@@ -9092,7 +9092,7 @@
       <c r="F672" s="48"/>
       <c r="G672" s="48"/>
     </row>
-    <row r="673" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="49"/>
       <c r="B673" s="49"/>
       <c r="C673" s="48"/>
@@ -9101,7 +9101,7 @@
       <c r="F673" s="48"/>
       <c r="G673" s="48"/>
     </row>
-    <row r="674" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="49"/>
       <c r="B674" s="49"/>
       <c r="C674" s="48"/>
@@ -9110,7 +9110,7 @@
       <c r="F674" s="48"/>
       <c r="G674" s="48"/>
     </row>
-    <row r="675" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="49"/>
       <c r="B675" s="49"/>
       <c r="C675" s="48"/>
@@ -9119,7 +9119,7 @@
       <c r="F675" s="48"/>
       <c r="G675" s="48"/>
     </row>
-    <row r="676" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="49"/>
       <c r="B676" s="49"/>
       <c r="C676" s="48"/>
@@ -9128,7 +9128,7 @@
       <c r="F676" s="48"/>
       <c r="G676" s="48"/>
     </row>
-    <row r="677" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="49"/>
       <c r="B677" s="49"/>
       <c r="C677" s="48"/>
@@ -9137,7 +9137,7 @@
       <c r="F677" s="48"/>
       <c r="G677" s="48"/>
     </row>
-    <row r="678" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="49"/>
       <c r="B678" s="49"/>
       <c r="C678" s="48"/>
@@ -9146,7 +9146,7 @@
       <c r="F678" s="48"/>
       <c r="G678" s="48"/>
     </row>
-    <row r="679" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="49"/>
       <c r="B679" s="49"/>
       <c r="C679" s="48"/>
@@ -9155,7 +9155,7 @@
       <c r="F679" s="48"/>
       <c r="G679" s="48"/>
     </row>
-    <row r="680" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="49"/>
       <c r="B680" s="49"/>
       <c r="C680" s="48"/>
@@ -9164,7 +9164,7 @@
       <c r="F680" s="48"/>
       <c r="G680" s="48"/>
     </row>
-    <row r="681" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="49"/>
       <c r="B681" s="49"/>
       <c r="C681" s="48"/>
@@ -9173,7 +9173,7 @@
       <c r="F681" s="48"/>
       <c r="G681" s="48"/>
     </row>
-    <row r="682" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="49"/>
       <c r="B682" s="49"/>
       <c r="C682" s="48"/>
@@ -9182,7 +9182,7 @@
       <c r="F682" s="48"/>
       <c r="G682" s="48"/>
     </row>
-    <row r="683" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="49"/>
       <c r="B683" s="49"/>
       <c r="C683" s="48"/>
@@ -9191,7 +9191,7 @@
       <c r="F683" s="48"/>
       <c r="G683" s="48"/>
     </row>
-    <row r="684" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="49"/>
       <c r="B684" s="49"/>
       <c r="C684" s="48"/>
@@ -9200,7 +9200,7 @@
       <c r="F684" s="48"/>
       <c r="G684" s="48"/>
     </row>
-    <row r="685" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="49"/>
       <c r="B685" s="49"/>
       <c r="C685" s="48"/>
@@ -9209,7 +9209,7 @@
       <c r="F685" s="48"/>
       <c r="G685" s="48"/>
     </row>
-    <row r="686" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="49"/>
       <c r="B686" s="49"/>
       <c r="C686" s="48"/>
@@ -9218,7 +9218,7 @@
       <c r="F686" s="48"/>
       <c r="G686" s="48"/>
     </row>
-    <row r="687" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="49"/>
       <c r="B687" s="49"/>
       <c r="C687" s="48"/>
@@ -9227,7 +9227,7 @@
       <c r="F687" s="48"/>
       <c r="G687" s="48"/>
     </row>
-    <row r="688" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="49"/>
       <c r="B688" s="49"/>
       <c r="C688" s="48"/>
@@ -9236,7 +9236,7 @@
       <c r="F688" s="48"/>
       <c r="G688" s="48"/>
     </row>
-    <row r="689" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="49"/>
       <c r="B689" s="49"/>
       <c r="C689" s="48"/>
@@ -9245,7 +9245,7 @@
       <c r="F689" s="48"/>
       <c r="G689" s="48"/>
     </row>
-    <row r="690" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="49"/>
       <c r="B690" s="49"/>
       <c r="C690" s="48"/>
@@ -9254,7 +9254,7 @@
       <c r="F690" s="48"/>
       <c r="G690" s="48"/>
     </row>
-    <row r="691" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="49"/>
       <c r="B691" s="49"/>
       <c r="C691" s="48"/>
@@ -9263,7 +9263,7 @@
       <c r="F691" s="48"/>
       <c r="G691" s="48"/>
     </row>
-    <row r="692" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="49"/>
       <c r="B692" s="49"/>
       <c r="C692" s="48"/>
@@ -9272,7 +9272,7 @@
       <c r="F692" s="48"/>
       <c r="G692" s="48"/>
     </row>
-    <row r="693" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="49"/>
       <c r="B693" s="49"/>
       <c r="C693" s="48"/>
@@ -9281,7 +9281,7 @@
       <c r="F693" s="48"/>
       <c r="G693" s="48"/>
     </row>
-    <row r="694" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="49"/>
       <c r="B694" s="49"/>
       <c r="C694" s="48"/>
@@ -9290,7 +9290,7 @@
       <c r="F694" s="48"/>
       <c r="G694" s="48"/>
     </row>
-    <row r="695" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="49"/>
       <c r="B695" s="49"/>
       <c r="C695" s="48"/>
@@ -9299,7 +9299,7 @@
       <c r="F695" s="48"/>
       <c r="G695" s="48"/>
     </row>
-    <row r="696" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="49"/>
       <c r="B696" s="49"/>
       <c r="C696" s="48"/>
@@ -9308,7 +9308,7 @@
       <c r="F696" s="48"/>
       <c r="G696" s="48"/>
     </row>
-    <row r="697" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="49"/>
       <c r="B697" s="49"/>
       <c r="C697" s="48"/>
@@ -9317,7 +9317,7 @@
       <c r="F697" s="48"/>
       <c r="G697" s="48"/>
     </row>
-    <row r="698" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="49"/>
       <c r="B698" s="49"/>
       <c r="C698" s="48"/>
@@ -9326,7 +9326,7 @@
       <c r="F698" s="48"/>
       <c r="G698" s="48"/>
     </row>
-    <row r="699" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="49"/>
       <c r="B699" s="49"/>
       <c r="C699" s="48"/>
@@ -9335,7 +9335,7 @@
       <c r="F699" s="48"/>
       <c r="G699" s="48"/>
     </row>
-    <row r="700" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="49"/>
       <c r="B700" s="49"/>
       <c r="C700" s="48"/>
@@ -9344,7 +9344,7 @@
       <c r="F700" s="48"/>
       <c r="G700" s="48"/>
     </row>
-    <row r="701" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="49"/>
       <c r="B701" s="49"/>
       <c r="C701" s="48"/>
@@ -9353,7 +9353,7 @@
       <c r="F701" s="48"/>
       <c r="G701" s="48"/>
     </row>
-    <row r="702" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="49"/>
       <c r="B702" s="49"/>
       <c r="C702" s="48"/>
@@ -9362,7 +9362,7 @@
       <c r="F702" s="48"/>
       <c r="G702" s="48"/>
     </row>
-    <row r="703" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="49"/>
       <c r="B703" s="49"/>
       <c r="C703" s="48"/>
@@ -9371,7 +9371,7 @@
       <c r="F703" s="48"/>
       <c r="G703" s="48"/>
     </row>
-    <row r="704" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="49"/>
       <c r="B704" s="49"/>
       <c r="C704" s="48"/>
@@ -9380,7 +9380,7 @@
       <c r="F704" s="48"/>
       <c r="G704" s="48"/>
     </row>
-    <row r="705" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="49"/>
       <c r="B705" s="49"/>
       <c r="C705" s="48"/>
@@ -9389,7 +9389,7 @@
       <c r="F705" s="48"/>
       <c r="G705" s="48"/>
     </row>
-    <row r="706" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="49"/>
       <c r="B706" s="49"/>
       <c r="C706" s="48"/>
@@ -9398,7 +9398,7 @@
       <c r="F706" s="48"/>
       <c r="G706" s="48"/>
     </row>
-    <row r="707" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="49"/>
       <c r="B707" s="49"/>
       <c r="C707" s="48"/>
@@ -9407,7 +9407,7 @@
       <c r="F707" s="48"/>
       <c r="G707" s="48"/>
     </row>
-    <row r="708" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="49"/>
       <c r="B708" s="49"/>
       <c r="C708" s="48"/>
@@ -9416,7 +9416,7 @@
       <c r="F708" s="48"/>
       <c r="G708" s="48"/>
     </row>
-    <row r="709" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="49"/>
       <c r="B709" s="49"/>
       <c r="C709" s="48"/>
@@ -9425,7 +9425,7 @@
       <c r="F709" s="48"/>
       <c r="G709" s="48"/>
     </row>
-    <row r="710" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="49"/>
       <c r="B710" s="49"/>
       <c r="C710" s="48"/>
@@ -9434,7 +9434,7 @@
       <c r="F710" s="48"/>
       <c r="G710" s="48"/>
     </row>
-    <row r="711" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="49"/>
       <c r="B711" s="49"/>
       <c r="C711" s="48"/>
@@ -9443,7 +9443,7 @@
       <c r="F711" s="48"/>
       <c r="G711" s="48"/>
     </row>
-    <row r="712" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="49"/>
       <c r="B712" s="49"/>
       <c r="C712" s="48"/>
@@ -9452,7 +9452,7 @@
       <c r="F712" s="48"/>
       <c r="G712" s="48"/>
     </row>
-    <row r="713" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="49"/>
       <c r="B713" s="49"/>
       <c r="C713" s="48"/>
@@ -9461,7 +9461,7 @@
       <c r="F713" s="48"/>
       <c r="G713" s="48"/>
     </row>
-    <row r="714" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="49"/>
       <c r="B714" s="49"/>
       <c r="C714" s="48"/>
@@ -9470,7 +9470,7 @@
       <c r="F714" s="48"/>
       <c r="G714" s="48"/>
     </row>
-    <row r="715" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="49"/>
       <c r="B715" s="49"/>
       <c r="C715" s="48"/>
@@ -9479,7 +9479,7 @@
       <c r="F715" s="48"/>
       <c r="G715" s="48"/>
     </row>
-    <row r="716" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="49"/>
       <c r="B716" s="49"/>
       <c r="C716" s="48"/>
@@ -9488,7 +9488,7 @@
       <c r="F716" s="48"/>
       <c r="G716" s="48"/>
     </row>
-    <row r="717" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="49"/>
       <c r="B717" s="49"/>
       <c r="C717" s="48"/>
@@ -9497,7 +9497,7 @@
       <c r="F717" s="48"/>
       <c r="G717" s="48"/>
     </row>
-    <row r="718" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="49"/>
       <c r="B718" s="49"/>
       <c r="C718" s="48"/>
@@ -9506,7 +9506,7 @@
       <c r="F718" s="48"/>
       <c r="G718" s="48"/>
     </row>
-    <row r="719" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="49"/>
       <c r="B719" s="49"/>
       <c r="C719" s="48"/>
@@ -9515,7 +9515,7 @@
       <c r="F719" s="48"/>
       <c r="G719" s="48"/>
     </row>
-    <row r="720" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="49"/>
       <c r="B720" s="49"/>
       <c r="C720" s="48"/>
@@ -9524,7 +9524,7 @@
       <c r="F720" s="48"/>
       <c r="G720" s="48"/>
     </row>
-    <row r="721" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="49"/>
       <c r="B721" s="49"/>
       <c r="C721" s="48"/>
@@ -9533,7 +9533,7 @@
       <c r="F721" s="48"/>
       <c r="G721" s="48"/>
     </row>
-    <row r="722" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="49"/>
       <c r="B722" s="49"/>
       <c r="C722" s="48"/>
@@ -9542,7 +9542,7 @@
       <c r="F722" s="48"/>
       <c r="G722" s="48"/>
     </row>
-    <row r="723" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="49"/>
       <c r="B723" s="49"/>
       <c r="C723" s="48"/>
@@ -9551,7 +9551,7 @@
       <c r="F723" s="48"/>
       <c r="G723" s="48"/>
     </row>
-    <row r="724" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="49"/>
       <c r="B724" s="49"/>
       <c r="C724" s="48"/>
@@ -9560,7 +9560,7 @@
       <c r="F724" s="48"/>
       <c r="G724" s="48"/>
     </row>
-    <row r="725" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="49"/>
       <c r="B725" s="49"/>
       <c r="C725" s="48"/>
@@ -9569,7 +9569,7 @@
       <c r="F725" s="48"/>
       <c r="G725" s="48"/>
     </row>
-    <row r="726" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="49"/>
       <c r="B726" s="49"/>
       <c r="C726" s="48"/>
@@ -9578,7 +9578,7 @@
       <c r="F726" s="48"/>
       <c r="G726" s="48"/>
     </row>
-    <row r="727" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="49"/>
       <c r="B727" s="49"/>
       <c r="C727" s="48"/>
@@ -9587,7 +9587,7 @@
       <c r="F727" s="48"/>
       <c r="G727" s="48"/>
     </row>
-    <row r="728" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="49"/>
       <c r="B728" s="49"/>
       <c r="C728" s="48"/>
@@ -9596,7 +9596,7 @@
       <c r="F728" s="48"/>
       <c r="G728" s="48"/>
     </row>
-    <row r="729" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="49"/>
       <c r="B729" s="49"/>
       <c r="C729" s="48"/>
@@ -9605,7 +9605,7 @@
       <c r="F729" s="48"/>
       <c r="G729" s="48"/>
     </row>
-    <row r="730" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="49"/>
       <c r="B730" s="49"/>
       <c r="C730" s="48"/>
@@ -9614,7 +9614,7 @@
       <c r="F730" s="48"/>
       <c r="G730" s="48"/>
     </row>
-    <row r="731" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="49"/>
       <c r="B731" s="49"/>
       <c r="C731" s="48"/>
@@ -9623,7 +9623,7 @@
       <c r="F731" s="48"/>
       <c r="G731" s="48"/>
     </row>
-    <row r="732" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="49"/>
       <c r="B732" s="49"/>
       <c r="C732" s="48"/>
@@ -9632,7 +9632,7 @@
       <c r="F732" s="48"/>
       <c r="G732" s="48"/>
     </row>
-    <row r="733" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="49"/>
       <c r="B733" s="49"/>
       <c r="C733" s="48"/>
@@ -9641,7 +9641,7 @@
       <c r="F733" s="48"/>
       <c r="G733" s="48"/>
     </row>
-    <row r="734" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="49"/>
       <c r="B734" s="49"/>
       <c r="C734" s="48"/>
@@ -9650,7 +9650,7 @@
       <c r="F734" s="48"/>
       <c r="G734" s="48"/>
     </row>
-    <row r="735" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="49"/>
       <c r="B735" s="49"/>
       <c r="C735" s="48"/>
@@ -9659,7 +9659,7 @@
       <c r="F735" s="48"/>
       <c r="G735" s="48"/>
     </row>
-    <row r="736" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="49"/>
       <c r="B736" s="49"/>
       <c r="C736" s="48"/>
@@ -9668,7 +9668,7 @@
       <c r="F736" s="48"/>
       <c r="G736" s="48"/>
     </row>
-    <row r="737" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="49"/>
       <c r="B737" s="49"/>
       <c r="C737" s="48"/>
@@ -9677,7 +9677,7 @@
       <c r="F737" s="48"/>
       <c r="G737" s="48"/>
     </row>
-    <row r="738" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="49"/>
       <c r="B738" s="49"/>
       <c r="C738" s="48"/>
@@ -9686,7 +9686,7 @@
       <c r="F738" s="48"/>
       <c r="G738" s="48"/>
     </row>
-    <row r="739" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="49"/>
       <c r="B739" s="49"/>
       <c r="C739" s="48"/>
@@ -9695,7 +9695,7 @@
       <c r="F739" s="48"/>
       <c r="G739" s="48"/>
     </row>
-    <row r="740" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="49"/>
       <c r="B740" s="49"/>
       <c r="C740" s="48"/>
@@ -9704,7 +9704,7 @@
       <c r="F740" s="48"/>
       <c r="G740" s="48"/>
     </row>
-    <row r="741" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="49"/>
       <c r="B741" s="49"/>
       <c r="C741" s="48"/>
@@ -9713,7 +9713,7 @@
       <c r="F741" s="48"/>
       <c r="G741" s="48"/>
     </row>
-    <row r="742" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="49"/>
       <c r="B742" s="49"/>
       <c r="C742" s="48"/>
@@ -9722,7 +9722,7 @@
       <c r="F742" s="48"/>
       <c r="G742" s="48"/>
     </row>
-    <row r="743" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="49"/>
       <c r="B743" s="49"/>
       <c r="C743" s="48"/>
@@ -9731,7 +9731,7 @@
       <c r="F743" s="48"/>
       <c r="G743" s="48"/>
     </row>
-    <row r="744" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="49"/>
       <c r="B744" s="49"/>
       <c r="C744" s="48"/>
@@ -9740,7 +9740,7 @@
       <c r="F744" s="48"/>
       <c r="G744" s="48"/>
     </row>
-    <row r="745" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="49"/>
       <c r="B745" s="49"/>
       <c r="C745" s="48"/>
@@ -9749,7 +9749,7 @@
       <c r="F745" s="48"/>
       <c r="G745" s="48"/>
     </row>
-    <row r="746" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="49"/>
       <c r="B746" s="49"/>
       <c r="C746" s="48"/>
@@ -9758,7 +9758,7 @@
       <c r="F746" s="48"/>
       <c r="G746" s="48"/>
     </row>
-    <row r="747" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="49"/>
       <c r="B747" s="49"/>
       <c r="C747" s="48"/>
@@ -9767,7 +9767,7 @@
       <c r="F747" s="48"/>
       <c r="G747" s="48"/>
     </row>
-    <row r="748" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="49"/>
       <c r="B748" s="49"/>
       <c r="C748" s="48"/>
@@ -9776,7 +9776,7 @@
       <c r="F748" s="48"/>
       <c r="G748" s="48"/>
     </row>
-    <row r="749" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="49"/>
       <c r="B749" s="49"/>
       <c r="C749" s="48"/>
@@ -9785,7 +9785,7 @@
       <c r="F749" s="48"/>
       <c r="G749" s="48"/>
     </row>
-    <row r="750" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="49"/>
       <c r="B750" s="49"/>
       <c r="C750" s="48"/>
@@ -9794,7 +9794,7 @@
       <c r="F750" s="48"/>
       <c r="G750" s="48"/>
     </row>
-    <row r="751" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="49"/>
       <c r="B751" s="49"/>
       <c r="C751" s="48"/>
@@ -9803,7 +9803,7 @@
       <c r="F751" s="48"/>
       <c r="G751" s="48"/>
     </row>
-    <row r="752" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="49"/>
       <c r="B752" s="49"/>
       <c r="C752" s="48"/>
@@ -9812,7 +9812,7 @@
       <c r="F752" s="48"/>
       <c r="G752" s="48"/>
     </row>
-    <row r="753" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="49"/>
       <c r="B753" s="49"/>
       <c r="C753" s="48"/>
@@ -9821,7 +9821,7 @@
       <c r="F753" s="48"/>
       <c r="G753" s="48"/>
     </row>
-    <row r="754" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="49"/>
       <c r="B754" s="49"/>
       <c r="C754" s="48"/>
@@ -9830,7 +9830,7 @@
       <c r="F754" s="48"/>
       <c r="G754" s="48"/>
     </row>
-    <row r="755" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="49"/>
       <c r="B755" s="49"/>
       <c r="C755" s="48"/>
@@ -9839,7 +9839,7 @@
       <c r="F755" s="48"/>
       <c r="G755" s="48"/>
     </row>
-    <row r="756" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="49"/>
       <c r="B756" s="49"/>
       <c r="C756" s="48"/>
@@ -9848,7 +9848,7 @@
       <c r="F756" s="48"/>
       <c r="G756" s="48"/>
     </row>
-    <row r="757" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="49"/>
       <c r="B757" s="49"/>
       <c r="C757" s="48"/>
@@ -9857,7 +9857,7 @@
       <c r="F757" s="48"/>
       <c r="G757" s="48"/>
     </row>
-    <row r="758" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="49"/>
       <c r="B758" s="49"/>
       <c r="C758" s="48"/>
@@ -9866,7 +9866,7 @@
       <c r="F758" s="48"/>
       <c r="G758" s="48"/>
     </row>
-    <row r="759" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="49"/>
       <c r="B759" s="49"/>
       <c r="C759" s="48"/>
@@ -9875,7 +9875,7 @@
       <c r="F759" s="48"/>
       <c r="G759" s="48"/>
     </row>
-    <row r="760" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="49"/>
       <c r="B760" s="49"/>
       <c r="C760" s="48"/>
@@ -9884,7 +9884,7 @@
       <c r="F760" s="48"/>
       <c r="G760" s="48"/>
     </row>
-    <row r="761" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="49"/>
       <c r="B761" s="49"/>
       <c r="C761" s="48"/>
@@ -9893,7 +9893,7 @@
       <c r="F761" s="48"/>
       <c r="G761" s="48"/>
     </row>
-    <row r="762" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="49"/>
       <c r="B762" s="49"/>
       <c r="C762" s="48"/>
@@ -9902,7 +9902,7 @@
       <c r="F762" s="48"/>
       <c r="G762" s="48"/>
     </row>
-    <row r="763" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="49"/>
       <c r="B763" s="49"/>
       <c r="C763" s="48"/>
@@ -9911,7 +9911,7 @@
       <c r="F763" s="48"/>
       <c r="G763" s="48"/>
     </row>
-    <row r="764" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="49"/>
       <c r="B764" s="49"/>
       <c r="C764" s="48"/>
@@ -9920,7 +9920,7 @@
       <c r="F764" s="48"/>
       <c r="G764" s="48"/>
     </row>
-    <row r="765" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="49"/>
       <c r="B765" s="49"/>
       <c r="C765" s="48"/>
@@ -9929,7 +9929,7 @@
       <c r="F765" s="48"/>
       <c r="G765" s="48"/>
     </row>
-    <row r="766" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="49"/>
       <c r="B766" s="49"/>
       <c r="C766" s="48"/>
@@ -9938,7 +9938,7 @@
       <c r="F766" s="48"/>
       <c r="G766" s="48"/>
     </row>
-    <row r="767" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="49"/>
       <c r="B767" s="49"/>
       <c r="C767" s="48"/>
@@ -9947,7 +9947,7 @@
       <c r="F767" s="48"/>
       <c r="G767" s="48"/>
     </row>
-    <row r="768" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="49"/>
       <c r="B768" s="49"/>
       <c r="C768" s="48"/>
@@ -9956,7 +9956,7 @@
       <c r="F768" s="48"/>
       <c r="G768" s="48"/>
     </row>
-    <row r="769" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="49"/>
       <c r="B769" s="49"/>
       <c r="C769" s="48"/>
@@ -9965,7 +9965,7 @@
       <c r="F769" s="48"/>
       <c r="G769" s="48"/>
     </row>
-    <row r="770" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="49"/>
       <c r="B770" s="49"/>
       <c r="C770" s="48"/>
@@ -9974,7 +9974,7 @@
       <c r="F770" s="48"/>
       <c r="G770" s="48"/>
     </row>
-    <row r="771" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="49"/>
       <c r="B771" s="49"/>
       <c r="C771" s="48"/>
@@ -9983,7 +9983,7 @@
       <c r="F771" s="48"/>
       <c r="G771" s="48"/>
     </row>
-    <row r="772" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="49"/>
       <c r="B772" s="49"/>
       <c r="C772" s="48"/>
@@ -9992,7 +9992,7 @@
       <c r="F772" s="48"/>
       <c r="G772" s="48"/>
     </row>
-    <row r="773" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="49"/>
       <c r="B773" s="49"/>
       <c r="C773" s="48"/>
@@ -10001,7 +10001,7 @@
       <c r="F773" s="48"/>
       <c r="G773" s="48"/>
     </row>
-    <row r="774" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="49"/>
       <c r="B774" s="49"/>
       <c r="C774" s="48"/>
@@ -10010,7 +10010,7 @@
       <c r="F774" s="48"/>
       <c r="G774" s="48"/>
     </row>
-    <row r="775" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="49"/>
       <c r="B775" s="49"/>
       <c r="C775" s="48"/>
@@ -10019,7 +10019,7 @@
       <c r="F775" s="48"/>
       <c r="G775" s="48"/>
     </row>
-    <row r="776" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="49"/>
       <c r="B776" s="49"/>
       <c r="C776" s="48"/>
@@ -10028,7 +10028,7 @@
       <c r="F776" s="48"/>
       <c r="G776" s="48"/>
     </row>
-    <row r="777" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="49"/>
       <c r="B777" s="49"/>
       <c r="C777" s="48"/>
@@ -10037,7 +10037,7 @@
       <c r="F777" s="48"/>
       <c r="G777" s="48"/>
     </row>
-    <row r="778" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="49"/>
       <c r="B778" s="49"/>
       <c r="C778" s="48"/>
@@ -10046,7 +10046,7 @@
       <c r="F778" s="48"/>
       <c r="G778" s="48"/>
     </row>
-    <row r="779" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="49"/>
       <c r="B779" s="49"/>
       <c r="C779" s="48"/>
@@ -10055,7 +10055,7 @@
       <c r="F779" s="48"/>
       <c r="G779" s="48"/>
     </row>
-    <row r="780" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="49"/>
       <c r="B780" s="49"/>
       <c r="C780" s="48"/>
@@ -10064,7 +10064,7 @@
       <c r="F780" s="48"/>
       <c r="G780" s="48"/>
     </row>
-    <row r="781" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="49"/>
       <c r="B781" s="49"/>
       <c r="C781" s="48"/>
@@ -10073,7 +10073,7 @@
       <c r="F781" s="48"/>
       <c r="G781" s="48"/>
     </row>
-    <row r="782" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="49"/>
       <c r="B782" s="49"/>
       <c r="C782" s="48"/>
@@ -10082,7 +10082,7 @@
       <c r="F782" s="48"/>
       <c r="G782" s="48"/>
     </row>
-    <row r="783" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="49"/>
       <c r="B783" s="49"/>
       <c r="C783" s="48"/>
@@ -10091,7 +10091,7 @@
       <c r="F783" s="48"/>
       <c r="G783" s="48"/>
     </row>
-    <row r="784" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="49"/>
       <c r="B784" s="49"/>
       <c r="C784" s="48"/>
@@ -10100,7 +10100,7 @@
       <c r="F784" s="48"/>
       <c r="G784" s="48"/>
     </row>
-    <row r="785" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="49"/>
       <c r="B785" s="49"/>
       <c r="C785" s="48"/>
@@ -10109,7 +10109,7 @@
       <c r="F785" s="48"/>
       <c r="G785" s="48"/>
     </row>
-    <row r="786" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="49"/>
       <c r="B786" s="49"/>
       <c r="C786" s="48"/>
@@ -10118,7 +10118,7 @@
       <c r="F786" s="48"/>
       <c r="G786" s="48"/>
     </row>
-    <row r="787" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="49"/>
       <c r="B787" s="49"/>
       <c r="C787" s="48"/>
@@ -10127,7 +10127,7 @@
       <c r="F787" s="48"/>
       <c r="G787" s="48"/>
     </row>
-    <row r="788" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="49"/>
       <c r="B788" s="49"/>
       <c r="C788" s="48"/>
@@ -10136,7 +10136,7 @@
       <c r="F788" s="48"/>
       <c r="G788" s="48"/>
     </row>
-    <row r="789" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="49"/>
       <c r="B789" s="49"/>
       <c r="C789" s="48"/>
@@ -10145,7 +10145,7 @@
       <c r="F789" s="48"/>
       <c r="G789" s="48"/>
     </row>
-    <row r="790" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="49"/>
       <c r="B790" s="49"/>
       <c r="C790" s="48"/>
@@ -10154,7 +10154,7 @@
       <c r="F790" s="48"/>
       <c r="G790" s="48"/>
     </row>
-    <row r="791" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="49"/>
       <c r="B791" s="49"/>
       <c r="C791" s="48"/>
@@ -10163,7 +10163,7 @@
       <c r="F791" s="48"/>
       <c r="G791" s="48"/>
     </row>
-    <row r="792" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="49"/>
       <c r="B792" s="49"/>
       <c r="C792" s="48"/>
@@ -10172,7 +10172,7 @@
       <c r="F792" s="48"/>
       <c r="G792" s="48"/>
     </row>
-    <row r="793" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="49"/>
       <c r="B793" s="49"/>
       <c r="C793" s="48"/>
@@ -10181,7 +10181,7 @@
       <c r="F793" s="48"/>
       <c r="G793" s="48"/>
     </row>
-    <row r="794" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="49"/>
       <c r="B794" s="49"/>
       <c r="C794" s="48"/>
@@ -10190,7 +10190,7 @@
       <c r="F794" s="48"/>
       <c r="G794" s="48"/>
     </row>
-    <row r="795" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="49"/>
       <c r="B795" s="49"/>
       <c r="C795" s="48"/>
@@ -10199,7 +10199,7 @@
       <c r="F795" s="48"/>
       <c r="G795" s="48"/>
     </row>
-    <row r="796" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="49"/>
       <c r="B796" s="49"/>
       <c r="C796" s="48"/>
@@ -10208,7 +10208,7 @@
       <c r="F796" s="48"/>
       <c r="G796" s="48"/>
     </row>
-    <row r="797" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="49"/>
       <c r="B797" s="49"/>
       <c r="C797" s="48"/>
@@ -10217,7 +10217,7 @@
       <c r="F797" s="48"/>
       <c r="G797" s="48"/>
     </row>
-    <row r="798" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="49"/>
       <c r="B798" s="49"/>
       <c r="C798" s="48"/>
@@ -10226,7 +10226,7 @@
       <c r="F798" s="48"/>
       <c r="G798" s="48"/>
     </row>
-    <row r="799" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="49"/>
       <c r="B799" s="49"/>
       <c r="C799" s="48"/>
@@ -10235,7 +10235,7 @@
       <c r="F799" s="48"/>
       <c r="G799" s="48"/>
     </row>
-    <row r="800" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="49"/>
       <c r="B800" s="49"/>
       <c r="C800" s="48"/>
@@ -10244,7 +10244,7 @@
       <c r="F800" s="48"/>
       <c r="G800" s="48"/>
     </row>
-    <row r="801" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="49"/>
       <c r="B801" s="49"/>
       <c r="C801" s="48"/>
@@ -10253,7 +10253,7 @@
       <c r="F801" s="48"/>
       <c r="G801" s="48"/>
     </row>
-    <row r="802" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="49"/>
       <c r="B802" s="49"/>
       <c r="C802" s="48"/>
@@ -10262,7 +10262,7 @@
       <c r="F802" s="48"/>
       <c r="G802" s="48"/>
     </row>
-    <row r="803" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="49"/>
       <c r="B803" s="49"/>
       <c r="C803" s="48"/>
@@ -10271,7 +10271,7 @@
       <c r="F803" s="48"/>
       <c r="G803" s="48"/>
     </row>
-    <row r="804" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="49"/>
       <c r="B804" s="49"/>
       <c r="C804" s="48"/>
@@ -10280,7 +10280,7 @@
       <c r="F804" s="48"/>
       <c r="G804" s="48"/>
     </row>
-    <row r="805" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="49"/>
       <c r="B805" s="49"/>
       <c r="C805" s="48"/>
@@ -10289,7 +10289,7 @@
       <c r="F805" s="48"/>
       <c r="G805" s="48"/>
     </row>
-    <row r="806" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="49"/>
       <c r="B806" s="49"/>
       <c r="C806" s="48"/>
@@ -10298,7 +10298,7 @@
       <c r="F806" s="48"/>
       <c r="G806" s="48"/>
     </row>
-    <row r="807" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="49"/>
       <c r="B807" s="49"/>
       <c r="C807" s="48"/>
@@ -10307,7 +10307,7 @@
       <c r="F807" s="48"/>
       <c r="G807" s="48"/>
     </row>
-    <row r="808" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="49"/>
       <c r="B808" s="49"/>
       <c r="C808" s="48"/>
@@ -10316,7 +10316,7 @@
       <c r="F808" s="48"/>
       <c r="G808" s="48"/>
     </row>
-    <row r="809" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="49"/>
       <c r="B809" s="49"/>
       <c r="C809" s="48"/>
@@ -10325,7 +10325,7 @@
       <c r="F809" s="48"/>
       <c r="G809" s="48"/>
     </row>
-    <row r="810" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="49"/>
       <c r="B810" s="49"/>
       <c r="C810" s="48"/>
@@ -10334,7 +10334,7 @@
       <c r="F810" s="48"/>
       <c r="G810" s="48"/>
     </row>
-    <row r="811" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="49"/>
       <c r="B811" s="49"/>
       <c r="C811" s="48"/>
@@ -10343,7 +10343,7 @@
       <c r="F811" s="48"/>
       <c r="G811" s="48"/>
     </row>
-    <row r="812" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="49"/>
       <c r="B812" s="49"/>
       <c r="C812" s="48"/>
@@ -10352,7 +10352,7 @@
       <c r="F812" s="48"/>
       <c r="G812" s="48"/>
     </row>
-    <row r="813" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="49"/>
       <c r="B813" s="49"/>
       <c r="C813" s="48"/>
@@ -10361,7 +10361,7 @@
       <c r="F813" s="48"/>
       <c r="G813" s="48"/>
     </row>
-    <row r="814" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="49"/>
       <c r="B814" s="49"/>
       <c r="C814" s="48"/>
@@ -10370,7 +10370,7 @@
       <c r="F814" s="48"/>
       <c r="G814" s="48"/>
     </row>
-    <row r="815" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="49"/>
       <c r="B815" s="49"/>
       <c r="C815" s="48"/>
@@ -10379,7 +10379,7 @@
       <c r="F815" s="48"/>
       <c r="G815" s="48"/>
     </row>
-    <row r="816" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="49"/>
       <c r="B816" s="49"/>
       <c r="C816" s="48"/>
@@ -10388,7 +10388,7 @@
       <c r="F816" s="48"/>
       <c r="G816" s="48"/>
     </row>
-    <row r="817" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="49"/>
       <c r="B817" s="49"/>
       <c r="C817" s="48"/>
@@ -10397,7 +10397,7 @@
       <c r="F817" s="48"/>
       <c r="G817" s="48"/>
     </row>
-    <row r="818" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="49"/>
       <c r="B818" s="49"/>
       <c r="C818" s="48"/>
@@ -10406,7 +10406,7 @@
       <c r="F818" s="48"/>
       <c r="G818" s="48"/>
     </row>
-    <row r="819" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="49"/>
       <c r="B819" s="49"/>
       <c r="C819" s="48"/>
@@ -10415,7 +10415,7 @@
       <c r="F819" s="48"/>
       <c r="G819" s="48"/>
     </row>
-    <row r="820" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="49"/>
       <c r="B820" s="49"/>
       <c r="C820" s="48"/>
@@ -10424,7 +10424,7 @@
       <c r="F820" s="48"/>
       <c r="G820" s="48"/>
     </row>
-    <row r="821" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="49"/>
       <c r="B821" s="49"/>
       <c r="C821" s="48"/>
@@ -10433,7 +10433,7 @@
       <c r="F821" s="48"/>
       <c r="G821" s="48"/>
     </row>
-    <row r="822" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="49"/>
       <c r="B822" s="49"/>
       <c r="C822" s="48"/>
@@ -10442,7 +10442,7 @@
       <c r="F822" s="48"/>
       <c r="G822" s="48"/>
     </row>
-    <row r="823" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="49"/>
       <c r="B823" s="49"/>
       <c r="C823" s="48"/>
@@ -10451,7 +10451,7 @@
       <c r="F823" s="48"/>
       <c r="G823" s="48"/>
     </row>
-    <row r="824" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="49"/>
       <c r="B824" s="49"/>
       <c r="C824" s="48"/>
@@ -10460,7 +10460,7 @@
       <c r="F824" s="48"/>
       <c r="G824" s="48"/>
     </row>
-    <row r="825" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="49"/>
       <c r="B825" s="49"/>
       <c r="C825" s="48"/>
@@ -10469,7 +10469,7 @@
       <c r="F825" s="48"/>
       <c r="G825" s="48"/>
     </row>
-    <row r="826" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="49"/>
       <c r="B826" s="49"/>
       <c r="C826" s="48"/>
@@ -10478,7 +10478,7 @@
       <c r="F826" s="48"/>
       <c r="G826" s="48"/>
     </row>
-    <row r="827" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="49"/>
       <c r="B827" s="49"/>
       <c r="C827" s="48"/>
@@ -10487,7 +10487,7 @@
       <c r="F827" s="48"/>
       <c r="G827" s="48"/>
     </row>
-    <row r="828" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="49"/>
       <c r="B828" s="49"/>
       <c r="C828" s="48"/>
@@ -10496,7 +10496,7 @@
       <c r="F828" s="48"/>
       <c r="G828" s="48"/>
     </row>
-    <row r="829" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="49"/>
       <c r="B829" s="49"/>
       <c r="C829" s="48"/>
@@ -10505,7 +10505,7 @@
       <c r="F829" s="48"/>
       <c r="G829" s="48"/>
     </row>
-    <row r="830" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="49"/>
       <c r="B830" s="49"/>
       <c r="C830" s="48"/>
@@ -10514,7 +10514,7 @@
       <c r="F830" s="48"/>
       <c r="G830" s="48"/>
     </row>
-    <row r="831" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="49"/>
       <c r="B831" s="49"/>
       <c r="C831" s="48"/>
@@ -10523,7 +10523,7 @@
       <c r="F831" s="48"/>
       <c r="G831" s="48"/>
     </row>
-    <row r="832" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="49"/>
       <c r="B832" s="49"/>
       <c r="C832" s="48"/>
@@ -10532,7 +10532,7 @@
       <c r="F832" s="48"/>
       <c r="G832" s="48"/>
     </row>
-    <row r="833" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="49"/>
       <c r="B833" s="49"/>
       <c r="C833" s="48"/>
@@ -10541,7 +10541,7 @@
       <c r="F833" s="48"/>
       <c r="G833" s="48"/>
     </row>
-    <row r="834" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="49"/>
       <c r="B834" s="49"/>
       <c r="C834" s="48"/>
@@ -10550,7 +10550,7 @@
       <c r="F834" s="48"/>
       <c r="G834" s="48"/>
     </row>
-    <row r="835" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="49"/>
       <c r="B835" s="49"/>
       <c r="C835" s="48"/>
@@ -10559,7 +10559,7 @@
       <c r="F835" s="48"/>
       <c r="G835" s="48"/>
     </row>
-    <row r="836" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="49"/>
       <c r="B836" s="49"/>
       <c r="C836" s="48"/>
@@ -10568,7 +10568,7 @@
       <c r="F836" s="48"/>
       <c r="G836" s="48"/>
     </row>
-    <row r="837" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="49"/>
       <c r="B837" s="49"/>
       <c r="C837" s="48"/>
@@ -10577,7 +10577,7 @@
       <c r="F837" s="48"/>
       <c r="G837" s="48"/>
     </row>
-    <row r="838" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="49"/>
       <c r="B838" s="49"/>
       <c r="C838" s="48"/>
@@ -10586,7 +10586,7 @@
       <c r="F838" s="48"/>
       <c r="G838" s="48"/>
     </row>
-    <row r="839" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="49"/>
       <c r="B839" s="49"/>
       <c r="C839" s="48"/>
@@ -10595,7 +10595,7 @@
       <c r="F839" s="48"/>
       <c r="G839" s="48"/>
     </row>
-    <row r="840" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="49"/>
       <c r="B840" s="49"/>
       <c r="C840" s="48"/>
@@ -10604,7 +10604,7 @@
       <c r="F840" s="48"/>
       <c r="G840" s="48"/>
     </row>
-    <row r="841" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="49"/>
       <c r="B841" s="49"/>
       <c r="C841" s="48"/>
@@ -10613,7 +10613,7 @@
       <c r="F841" s="48"/>
       <c r="G841" s="48"/>
     </row>
-    <row r="842" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="49"/>
       <c r="B842" s="49"/>
       <c r="C842" s="48"/>
@@ -10622,7 +10622,7 @@
       <c r="F842" s="48"/>
       <c r="G842" s="48"/>
     </row>
-    <row r="843" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="49"/>
       <c r="B843" s="49"/>
       <c r="C843" s="48"/>
@@ -10631,7 +10631,7 @@
       <c r="F843" s="48"/>
       <c r="G843" s="48"/>
     </row>
-    <row r="844" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="49"/>
       <c r="B844" s="49"/>
       <c r="C844" s="48"/>
@@ -10640,7 +10640,7 @@
       <c r="F844" s="48"/>
       <c r="G844" s="48"/>
     </row>
-    <row r="845" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="49"/>
       <c r="B845" s="49"/>
       <c r="C845" s="48"/>
@@ -10649,7 +10649,7 @@
       <c r="F845" s="48"/>
       <c r="G845" s="48"/>
     </row>
-    <row r="846" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="49"/>
       <c r="B846" s="49"/>
       <c r="C846" s="48"/>
@@ -10658,7 +10658,7 @@
       <c r="F846" s="48"/>
       <c r="G846" s="48"/>
     </row>
-    <row r="847" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="49"/>
       <c r="B847" s="49"/>
       <c r="C847" s="48"/>
@@ -10667,7 +10667,7 @@
       <c r="F847" s="48"/>
       <c r="G847" s="48"/>
     </row>
-    <row r="848" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="49"/>
       <c r="B848" s="49"/>
       <c r="C848" s="48"/>
@@ -10676,7 +10676,7 @@
       <c r="F848" s="48"/>
       <c r="G848" s="48"/>
     </row>
-    <row r="849" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="49"/>
       <c r="B849" s="49"/>
       <c r="C849" s="48"/>
@@ -10685,7 +10685,7 @@
       <c r="F849" s="48"/>
       <c r="G849" s="48"/>
     </row>
-    <row r="850" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="49"/>
       <c r="B850" s="49"/>
       <c r="C850" s="48"/>
@@ -10694,7 +10694,7 @@
       <c r="F850" s="48"/>
       <c r="G850" s="48"/>
     </row>
-    <row r="851" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="49"/>
       <c r="B851" s="49"/>
       <c r="C851" s="48"/>
@@ -10703,7 +10703,7 @@
       <c r="F851" s="48"/>
       <c r="G851" s="48"/>
     </row>
-    <row r="852" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="49"/>
       <c r="B852" s="49"/>
       <c r="C852" s="48"/>
@@ -10712,7 +10712,7 @@
       <c r="F852" s="48"/>
       <c r="G852" s="48"/>
     </row>
-    <row r="853" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="49"/>
       <c r="B853" s="49"/>
       <c r="C853" s="48"/>
@@ -10721,7 +10721,7 @@
       <c r="F853" s="48"/>
       <c r="G853" s="48"/>
     </row>
-    <row r="854" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="49"/>
       <c r="B854" s="49"/>
       <c r="C854" s="48"/>
@@ -10730,7 +10730,7 @@
       <c r="F854" s="48"/>
       <c r="G854" s="48"/>
     </row>
-    <row r="855" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="49"/>
       <c r="B855" s="49"/>
       <c r="C855" s="48"/>
@@ -10739,7 +10739,7 @@
       <c r="F855" s="48"/>
       <c r="G855" s="48"/>
     </row>
-    <row r="856" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="49"/>
       <c r="B856" s="49"/>
       <c r="C856" s="48"/>
@@ -10748,7 +10748,7 @@
       <c r="F856" s="48"/>
       <c r="G856" s="48"/>
     </row>
-    <row r="857" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="49"/>
       <c r="B857" s="49"/>
       <c r="C857" s="48"/>
@@ -10757,7 +10757,7 @@
       <c r="F857" s="48"/>
       <c r="G857" s="48"/>
     </row>
-    <row r="858" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="49"/>
       <c r="B858" s="49"/>
       <c r="C858" s="48"/>
@@ -10766,7 +10766,7 @@
       <c r="F858" s="48"/>
       <c r="G858" s="48"/>
     </row>
-    <row r="859" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="49"/>
       <c r="B859" s="49"/>
       <c r="C859" s="48"/>
@@ -10775,7 +10775,7 @@
       <c r="F859" s="48"/>
       <c r="G859" s="48"/>
     </row>
-    <row r="860" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="49"/>
       <c r="B860" s="49"/>
       <c r="C860" s="48"/>
@@ -10784,7 +10784,7 @@
       <c r="F860" s="48"/>
       <c r="G860" s="48"/>
     </row>
-    <row r="861" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="49"/>
       <c r="B861" s="49"/>
       <c r="C861" s="48"/>
@@ -10793,7 +10793,7 @@
       <c r="F861" s="48"/>
       <c r="G861" s="48"/>
     </row>
-    <row r="862" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="49"/>
       <c r="B862" s="49"/>
       <c r="C862" s="48"/>
@@ -10802,7 +10802,7 @@
       <c r="F862" s="48"/>
       <c r="G862" s="48"/>
     </row>
-    <row r="863" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="49"/>
       <c r="B863" s="49"/>
       <c r="C863" s="48"/>
@@ -10811,7 +10811,7 @@
       <c r="F863" s="48"/>
       <c r="G863" s="48"/>
     </row>
-    <row r="864" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="49"/>
       <c r="B864" s="49"/>
       <c r="C864" s="48"/>
@@ -10820,7 +10820,7 @@
       <c r="F864" s="48"/>
       <c r="G864" s="48"/>
     </row>
-    <row r="865" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="49"/>
       <c r="B865" s="49"/>
       <c r="C865" s="48"/>
@@ -10829,7 +10829,7 @@
       <c r="F865" s="48"/>
       <c r="G865" s="48"/>
     </row>
-    <row r="866" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="49"/>
       <c r="B866" s="49"/>
       <c r="C866" s="48"/>
@@ -10838,7 +10838,7 @@
       <c r="F866" s="48"/>
       <c r="G866" s="48"/>
     </row>
-    <row r="867" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="49"/>
       <c r="B867" s="49"/>
       <c r="C867" s="48"/>
@@ -10847,7 +10847,7 @@
       <c r="F867" s="48"/>
       <c r="G867" s="48"/>
     </row>
-    <row r="868" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="49"/>
       <c r="B868" s="49"/>
       <c r="C868" s="48"/>
@@ -10856,7 +10856,7 @@
       <c r="F868" s="48"/>
       <c r="G868" s="48"/>
     </row>
-    <row r="869" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="49"/>
       <c r="B869" s="49"/>
       <c r="C869" s="48"/>
@@ -10865,7 +10865,7 @@
       <c r="F869" s="48"/>
       <c r="G869" s="48"/>
     </row>
-    <row r="870" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="49"/>
       <c r="B870" s="49"/>
       <c r="C870" s="48"/>
@@ -10874,7 +10874,7 @@
       <c r="F870" s="48"/>
       <c r="G870" s="48"/>
     </row>
-    <row r="871" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="49"/>
       <c r="B871" s="49"/>
       <c r="C871" s="48"/>
@@ -10883,7 +10883,7 @@
       <c r="F871" s="48"/>
       <c r="G871" s="48"/>
     </row>
-    <row r="872" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="49"/>
       <c r="B872" s="49"/>
       <c r="C872" s="48"/>
@@ -10892,7 +10892,7 @@
       <c r="F872" s="48"/>
       <c r="G872" s="48"/>
     </row>
-    <row r="873" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="49"/>
       <c r="B873" s="49"/>
       <c r="C873" s="48"/>
@@ -10901,7 +10901,7 @@
       <c r="F873" s="48"/>
       <c r="G873" s="48"/>
     </row>
-    <row r="874" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="49"/>
       <c r="B874" s="49"/>
       <c r="C874" s="48"/>
@@ -10910,7 +10910,7 @@
       <c r="F874" s="48"/>
       <c r="G874" s="48"/>
     </row>
-    <row r="875" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="49"/>
       <c r="B875" s="49"/>
       <c r="C875" s="48"/>
@@ -10919,7 +10919,7 @@
       <c r="F875" s="48"/>
       <c r="G875" s="48"/>
     </row>
-    <row r="876" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="49"/>
       <c r="B876" s="49"/>
       <c r="C876" s="48"/>
@@ -10928,7 +10928,7 @@
       <c r="F876" s="48"/>
       <c r="G876" s="48"/>
     </row>
-    <row r="877" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="49"/>
       <c r="B877" s="49"/>
       <c r="C877" s="48"/>
@@ -10937,7 +10937,7 @@
       <c r="F877" s="48"/>
       <c r="G877" s="48"/>
     </row>
-    <row r="878" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="49"/>
       <c r="B878" s="49"/>
       <c r="C878" s="48"/>
@@ -10946,7 +10946,7 @@
       <c r="F878" s="48"/>
       <c r="G878" s="48"/>
     </row>
-    <row r="879" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="49"/>
       <c r="B879" s="49"/>
       <c r="C879" s="48"/>
@@ -10955,7 +10955,7 @@
       <c r="F879" s="48"/>
       <c r="G879" s="48"/>
     </row>
-    <row r="880" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="49"/>
       <c r="B880" s="49"/>
       <c r="C880" s="48"/>
@@ -10964,7 +10964,7 @@
       <c r="F880" s="48"/>
       <c r="G880" s="48"/>
     </row>
-    <row r="881" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="49"/>
       <c r="B881" s="49"/>
       <c r="C881" s="48"/>
@@ -10973,7 +10973,7 @@
       <c r="F881" s="48"/>
       <c r="G881" s="48"/>
     </row>
-    <row r="882" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="49"/>
       <c r="B882" s="49"/>
       <c r="C882" s="48"/>
@@ -10982,7 +10982,7 @@
       <c r="F882" s="48"/>
       <c r="G882" s="48"/>
     </row>
-    <row r="883" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="49"/>
       <c r="B883" s="49"/>
       <c r="C883" s="48"/>
@@ -10991,7 +10991,7 @@
       <c r="F883" s="48"/>
       <c r="G883" s="48"/>
     </row>
-    <row r="884" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="49"/>
       <c r="B884" s="49"/>
       <c r="C884" s="48"/>
@@ -11000,7 +11000,7 @@
       <c r="F884" s="48"/>
       <c r="G884" s="48"/>
     </row>
-    <row r="885" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="49"/>
       <c r="B885" s="49"/>
       <c r="C885" s="48"/>
@@ -11009,7 +11009,7 @@
       <c r="F885" s="48"/>
       <c r="G885" s="48"/>
     </row>
-    <row r="886" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="49"/>
       <c r="B886" s="49"/>
       <c r="C886" s="48"/>
@@ -11018,7 +11018,7 @@
       <c r="F886" s="48"/>
       <c r="G886" s="48"/>
     </row>
-    <row r="887" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="49"/>
       <c r="B887" s="49"/>
       <c r="C887" s="48"/>
@@ -11027,7 +11027,7 @@
       <c r="F887" s="48"/>
       <c r="G887" s="48"/>
     </row>
-    <row r="888" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="49"/>
       <c r="B888" s="49"/>
       <c r="C888" s="48"/>
@@ -11036,7 +11036,7 @@
       <c r="F888" s="48"/>
       <c r="G888" s="48"/>
     </row>
-    <row r="889" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="49"/>
       <c r="B889" s="49"/>
       <c r="C889" s="48"/>
@@ -11045,7 +11045,7 @@
       <c r="F889" s="48"/>
       <c r="G889" s="48"/>
     </row>
-    <row r="890" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="49"/>
       <c r="B890" s="49"/>
       <c r="C890" s="48"/>
@@ -11054,7 +11054,7 @@
       <c r="F890" s="48"/>
       <c r="G890" s="48"/>
     </row>
-    <row r="891" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="49"/>
       <c r="B891" s="49"/>
       <c r="C891" s="48"/>
@@ -11063,7 +11063,7 @@
       <c r="F891" s="48"/>
       <c r="G891" s="48"/>
     </row>
-    <row r="892" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="49"/>
       <c r="B892" s="49"/>
       <c r="C892" s="48"/>
@@ -11072,7 +11072,7 @@
       <c r="F892" s="48"/>
       <c r="G892" s="48"/>
     </row>
-    <row r="893" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="49"/>
       <c r="B893" s="49"/>
       <c r="C893" s="48"/>
@@ -11081,7 +11081,7 @@
       <c r="F893" s="48"/>
       <c r="G893" s="48"/>
     </row>
-    <row r="894" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="49"/>
       <c r="B894" s="49"/>
       <c r="C894" s="48"/>
@@ -11090,7 +11090,7 @@
       <c r="F894" s="48"/>
       <c r="G894" s="48"/>
     </row>
-    <row r="895" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="49"/>
       <c r="B895" s="49"/>
       <c r="C895" s="48"/>
@@ -11099,7 +11099,7 @@
       <c r="F895" s="48"/>
       <c r="G895" s="48"/>
     </row>
-    <row r="896" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="49"/>
       <c r="B896" s="49"/>
       <c r="C896" s="48"/>
@@ -11108,7 +11108,7 @@
       <c r="F896" s="48"/>
       <c r="G896" s="48"/>
     </row>
-    <row r="897" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="49"/>
       <c r="B897" s="49"/>
       <c r="C897" s="48"/>
@@ -11117,7 +11117,7 @@
       <c r="F897" s="48"/>
       <c r="G897" s="48"/>
     </row>
-    <row r="898" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="49"/>
       <c r="B898" s="49"/>
       <c r="C898" s="48"/>
@@ -11126,7 +11126,7 @@
       <c r="F898" s="48"/>
       <c r="G898" s="48"/>
     </row>
-    <row r="899" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="49"/>
       <c r="B899" s="49"/>
       <c r="C899" s="48"/>
@@ -11135,7 +11135,7 @@
       <c r="F899" s="48"/>
       <c r="G899" s="48"/>
     </row>
-    <row r="900" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="49"/>
       <c r="B900" s="49"/>
       <c r="C900" s="48"/>
@@ -11144,7 +11144,7 @@
       <c r="F900" s="48"/>
       <c r="G900" s="48"/>
     </row>
-    <row r="901" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="49"/>
       <c r="B901" s="49"/>
       <c r="C901" s="48"/>
@@ -11153,7 +11153,7 @@
       <c r="F901" s="48"/>
       <c r="G901" s="48"/>
     </row>
-    <row r="902" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="49"/>
       <c r="B902" s="49"/>
       <c r="C902" s="48"/>
@@ -11162,7 +11162,7 @@
       <c r="F902" s="48"/>
       <c r="G902" s="48"/>
     </row>
-    <row r="903" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="49"/>
       <c r="B903" s="49"/>
       <c r="C903" s="48"/>
@@ -11171,7 +11171,7 @@
       <c r="F903" s="48"/>
       <c r="G903" s="48"/>
     </row>
-    <row r="904" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="49"/>
       <c r="B904" s="49"/>
       <c r="C904" s="48"/>
@@ -11180,7 +11180,7 @@
       <c r="F904" s="48"/>
       <c r="G904" s="48"/>
     </row>
-    <row r="905" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="49"/>
       <c r="B905" s="49"/>
       <c r="C905" s="48"/>
@@ -11189,7 +11189,7 @@
       <c r="F905" s="48"/>
       <c r="G905" s="48"/>
     </row>
-    <row r="906" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="49"/>
       <c r="B906" s="49"/>
       <c r="C906" s="48"/>
@@ -11198,7 +11198,7 @@
       <c r="F906" s="48"/>
       <c r="G906" s="48"/>
     </row>
-    <row r="907" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="49"/>
       <c r="B907" s="49"/>
       <c r="C907" s="48"/>
@@ -11207,7 +11207,7 @@
       <c r="F907" s="48"/>
       <c r="G907" s="48"/>
     </row>
-    <row r="908" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="49"/>
       <c r="B908" s="49"/>
       <c r="C908" s="48"/>
@@ -11216,7 +11216,7 @@
       <c r="F908" s="48"/>
       <c r="G908" s="48"/>
     </row>
-    <row r="909" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="49"/>
       <c r="B909" s="49"/>
       <c r="C909" s="48"/>
@@ -11225,7 +11225,7 @@
       <c r="F909" s="48"/>
       <c r="G909" s="48"/>
     </row>
-    <row r="910" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="49"/>
       <c r="B910" s="49"/>
       <c r="C910" s="48"/>
@@ -11243,7 +11243,7 @@
   <customSheetViews>
     <customSheetView guid="{1D1C3006-77CD-4341-91AA-AC39A6AA1F32}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:G149" xr:uid="{718B87A9-E9ED-45DB-9E28-BDD1BAC44E92}"/>
+      <autoFilter ref="A1:G149" xr:uid="{1C17E45D-D860-4569-AE2C-996DED4A4224}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -11265,8 +11265,9 @@
     <hyperlink ref="AA17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="M2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="M3:M17" r:id="rId18" display="https://github.com/barbarabrooks/WAO/tree/master/v4.1" xr:uid="{F3A06E86-C806-4949-9073-51B470161D81}"/>
+    <hyperlink ref="AM9" r:id="rId19" xr:uid="{DA2A1D14-560E-4B8B-8769-2CFAB9E2FC16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>